--- a/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
@@ -637,132 +637,132 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>6.564147641067217E-05</v>
+        <v>0.0007455731990508225</v>
       </c>
       <c r="B4">
-        <v>0.02424986918861416</v>
+        <v>0.1801345608690963</v>
       </c>
       <c r="C4">
-        <v>0.001515536885925599</v>
+        <v>0.005239532297926007</v>
       </c>
       <c r="D4">
-        <v>0.001993041647924838</v>
+        <v>0.007207833453812803</v>
       </c>
       <c r="E4">
-        <v>0.108779262400129</v>
+        <v>0.2410252582898794</v>
       </c>
       <c r="F4">
-        <v>0.007827421762078198</v>
+        <v>0.04165984130070655</v>
       </c>
       <c r="G4">
-        <v>1.278170142989784E-05</v>
+        <v>6.396521667212084E-05</v>
       </c>
       <c r="H4">
-        <v>2.194483839446321E-06</v>
+        <v>5.886832167107559E-06</v>
       </c>
       <c r="I4">
-        <v>0.001238237009004444</v>
+        <v>0.03173096427398121</v>
       </c>
       <c r="J4">
-        <v>0.03145709912995353</v>
+        <v>0.1617827558417226</v>
       </c>
       <c r="K4">
-        <v>0.001997890902530693</v>
+        <v>0.002825316755357394</v>
       </c>
       <c r="L4">
-        <v>0.002997350518072406</v>
+        <v>0.004497560259892915</v>
       </c>
       <c r="M4">
-        <v>6.37364506122885E-05</v>
+        <v>0.001973639843050021</v>
       </c>
       <c r="N4">
-        <v>7.796235414437857E-09</v>
+        <v>3.722272610782914E-08</v>
       </c>
       <c r="O4">
-        <v>3.597139532280596E-05</v>
+        <v>0.0003430673936154427</v>
       </c>
       <c r="P4">
-        <v>4.236833749837874E-05</v>
+        <v>0.0004450694719003331</v>
       </c>
       <c r="Q4">
-        <v>4.542920747590567E-05</v>
+        <v>0.0004580651623095988</v>
       </c>
       <c r="R4">
-        <v>0.0006417387338054277</v>
+        <v>0.001527990077410637</v>
       </c>
       <c r="S4">
-        <v>1.25335551779315E-10</v>
+        <v>8.115628035574533E-10</v>
       </c>
       <c r="T4">
-        <v>5.787755429139421E-08</v>
+        <v>5.287685206867025E-07</v>
       </c>
       <c r="U4">
-        <v>0.002402334906690005</v>
+        <v>0.008501642872460727</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>3.878504000418684E-05</v>
+        <v>0.0004450632855543571</v>
       </c>
       <c r="B5">
-        <v>0.01426034044541029</v>
+        <v>0.1074058093144218</v>
       </c>
       <c r="C5">
-        <v>0.0008995315840223474</v>
+        <v>0.003124723134335402</v>
       </c>
       <c r="D5">
-        <v>0.001183124628637503</v>
+        <v>0.004299108774991757</v>
       </c>
       <c r="E5">
-        <v>0.06412429955394845</v>
+        <v>0.1431449858972671</v>
       </c>
       <c r="F5">
-        <v>0.004563232204225556</v>
+        <v>0.0247790503759232</v>
       </c>
       <c r="G5">
-        <v>7.609416360009958E-06</v>
+        <v>3.81930000652665E-05</v>
       </c>
       <c r="H5">
-        <v>1.301605451448032E-06</v>
+        <v>3.507886978403461E-06</v>
       </c>
       <c r="I5">
-        <v>0.0007342706776107407</v>
+        <v>0.01895452917576031</v>
       </c>
       <c r="J5">
-        <v>0.01863639253343208</v>
+        <v>0.09650962218296905</v>
       </c>
       <c r="K5">
-        <v>0.001181368441601205</v>
+        <v>0.001675778562644805</v>
       </c>
       <c r="L5">
-        <v>0.001791891717593917</v>
+        <v>0.002688308964804104</v>
       </c>
       <c r="M5">
-        <v>3.782847410833721E-05</v>
+        <v>0.001179049238619795</v>
       </c>
       <c r="N5">
-        <v>4.569782875213407E-09</v>
+        <v>2.215293512585162E-08</v>
       </c>
       <c r="O5">
-        <v>2.128689139144586E-05</v>
+        <v>0.0002047853504506451</v>
       </c>
       <c r="P5">
-        <v>2.491696334049057E-05</v>
+        <v>0.0002655421687392797</v>
       </c>
       <c r="Q5">
-        <v>2.674050131068914E-05</v>
+        <v>0.0002733020402021573</v>
       </c>
       <c r="R5">
-        <v>0.0003793332984371446</v>
+        <v>0.0009088932953786265</v>
       </c>
       <c r="S5">
-        <v>7.407749700051532E-11</v>
+        <v>4.841174969988033E-10</v>
       </c>
       <c r="T5">
-        <v>3.417551774888387E-08</v>
+        <v>3.155460574434907E-07</v>
       </c>
       <c r="U5">
-        <v>0.001392201835804126</v>
+        <v>0.005036709168838017</v>
       </c>
     </row>
     <row r="6" spans="1:21">

--- a/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
@@ -507,1302 +507,1302 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0005546509624729586</v>
+        <v>0.000554650961291966</v>
       </c>
       <c r="B2">
-        <v>0.2183325575935521</v>
+        <v>0.2183325576023956</v>
       </c>
       <c r="C2">
-        <v>0.005876693276897513</v>
+        <v>0.005876693268255438</v>
       </c>
       <c r="D2">
-        <v>0.007822341318669671</v>
+        <v>0.007822341302022574</v>
       </c>
       <c r="E2">
-        <v>0.7548931462976383</v>
+        <v>0.7548931368434122</v>
       </c>
       <c r="F2">
-        <v>0.1432192406258804</v>
+        <v>0.143219240642437</v>
       </c>
       <c r="G2">
-        <v>4.97195625572759E-05</v>
+        <v>4.971956247445752E-05</v>
       </c>
       <c r="H2">
-        <v>5.551816892408931E-06</v>
+        <v>5.551816891170517E-06</v>
       </c>
       <c r="I2">
-        <v>0.006116426231809425</v>
+        <v>0.006116426236658847</v>
       </c>
       <c r="J2">
-        <v>0.1232933211900392</v>
+        <v>0.1232933204296411</v>
       </c>
       <c r="K2">
-        <v>0.007527498016157722</v>
+        <v>0.007527498015198887</v>
       </c>
       <c r="L2">
-        <v>0.01012332154801881</v>
+        <v>0.0101233198885803</v>
       </c>
       <c r="M2">
-        <v>0.0002612648227080118</v>
+        <v>0.000261264828552426</v>
       </c>
       <c r="N2">
-        <v>3.107943683774693E-08</v>
+        <v>3.107943672080459E-08</v>
       </c>
       <c r="O2">
-        <v>0.0002937187543691307</v>
+        <v>0.0002937187540471094</v>
       </c>
       <c r="P2">
-        <v>0.0004875848640260709</v>
+        <v>0.0004875848637055429</v>
       </c>
       <c r="Q2">
-        <v>0.0005212374186365376</v>
+        <v>0.0005212374183691354</v>
       </c>
       <c r="R2">
-        <v>0.001802981155178312</v>
+        <v>0.001802981154870495</v>
       </c>
       <c r="S2">
-        <v>9.329891742331561E-10</v>
+        <v>9.329891590716367E-10</v>
       </c>
       <c r="T2">
-        <v>4.401419977428301E-07</v>
+        <v>4.401419973907526E-07</v>
       </c>
       <c r="U2">
-        <v>0.05619384662145908</v>
+        <v>0.05619384663425862</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.001589385788298101</v>
+        <v>0.001589385777806803</v>
       </c>
       <c r="B3">
-        <v>0.6251752972012203</v>
+        <v>0.6251752943020052</v>
       </c>
       <c r="C3">
-        <v>0.01682403397677116</v>
+        <v>0.01682403352065734</v>
       </c>
       <c r="D3">
-        <v>0.02239575545910409</v>
+        <v>0.02239575487331208</v>
       </c>
       <c r="E3">
-        <v>2.158865635073131</v>
+        <v>2.158865612717873</v>
       </c>
       <c r="F3">
-        <v>0.4098337213521456</v>
+        <v>0.4098337206180414</v>
       </c>
       <c r="G3">
-        <v>0.0001434399968482392</v>
+        <v>0.0001434399956464652</v>
       </c>
       <c r="H3">
-        <v>1.597355773491691E-05</v>
+        <v>1.597355759089066E-05</v>
       </c>
       <c r="I3">
-        <v>0.01754047248923521</v>
+        <v>0.01754047242611424</v>
       </c>
       <c r="J3">
-        <v>0.3534902945772769</v>
+        <v>0.3534902901439402</v>
       </c>
       <c r="K3">
-        <v>0.02155467005996458</v>
+        <v>0.0215546700700864</v>
       </c>
       <c r="L3">
-        <v>0.02981985765631955</v>
+        <v>0.02981985488169428</v>
       </c>
       <c r="M3">
-        <v>0.00074888496496754</v>
+        <v>0.0007488848478615855</v>
       </c>
       <c r="N3">
-        <v>8.915348546916082E-08</v>
+        <v>8.915348368219524E-08</v>
       </c>
       <c r="O3">
-        <v>0.0008425452304969618</v>
+        <v>0.0008425452251752265</v>
       </c>
       <c r="P3">
-        <v>0.001396529922842165</v>
+        <v>0.001396529911458029</v>
       </c>
       <c r="Q3">
-        <v>0.001493175627717679</v>
+        <v>0.001493175615726857</v>
       </c>
       <c r="R3">
-        <v>0.005190367498428735</v>
+        <v>0.005190367476055936</v>
       </c>
       <c r="S3">
-        <v>2.679934541754374E-09</v>
+        <v>2.679934503795805E-09</v>
       </c>
       <c r="T3">
-        <v>1.261507914289122E-06</v>
+        <v>1.261507906972537E-06</v>
       </c>
       <c r="U3">
-        <v>0.1607628556781826</v>
+        <v>0.1607628554612132</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.0007455731990508225</v>
+        <v>0.0007455731988910179</v>
       </c>
       <c r="B4">
-        <v>0.1801345608690963</v>
+        <v>0.1801345609236966</v>
       </c>
       <c r="C4">
-        <v>0.005239532297926007</v>
+        <v>0.005239532312260503</v>
       </c>
       <c r="D4">
-        <v>0.007207833453812803</v>
+        <v>0.007207833473499987</v>
       </c>
       <c r="E4">
-        <v>0.2410252582898794</v>
+        <v>0.2410252627806815</v>
       </c>
       <c r="F4">
-        <v>0.04165984130070655</v>
+        <v>0.04165984133581276</v>
       </c>
       <c r="G4">
-        <v>6.396521667212084E-05</v>
+        <v>6.396521671035358E-05</v>
       </c>
       <c r="H4">
-        <v>5.886832167107559E-06</v>
+        <v>5.886832147154717E-06</v>
       </c>
       <c r="I4">
-        <v>0.03173096427398121</v>
+        <v>0.03173096433201898</v>
       </c>
       <c r="J4">
-        <v>0.1617827558417226</v>
+        <v>0.1617827560936841</v>
       </c>
       <c r="K4">
-        <v>0.002825316755357394</v>
+        <v>0.002825316771231771</v>
       </c>
       <c r="L4">
-        <v>0.004497560259892915</v>
+        <v>0.004497558041068301</v>
       </c>
       <c r="M4">
-        <v>0.001973639843050021</v>
+        <v>0.001973639847839466</v>
       </c>
       <c r="N4">
-        <v>3.722272610782914E-08</v>
+        <v>3.722272601853051E-08</v>
       </c>
       <c r="O4">
-        <v>0.0003430673936154427</v>
+        <v>0.0003430673938509838</v>
       </c>
       <c r="P4">
-        <v>0.0004450694719003331</v>
+        <v>0.0004450694718864862</v>
       </c>
       <c r="Q4">
-        <v>0.0004580651623095988</v>
+        <v>0.0004580651623788757</v>
       </c>
       <c r="R4">
-        <v>0.001527990077410637</v>
+        <v>0.001527990076844925</v>
       </c>
       <c r="S4">
-        <v>8.115628035574533E-10</v>
+        <v>8.115627840784888E-10</v>
       </c>
       <c r="T4">
-        <v>5.287685206867025E-07</v>
+        <v>5.287685211342481E-07</v>
       </c>
       <c r="U4">
-        <v>0.008501642872460727</v>
+        <v>0.008501642887800588</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.0004450632855543571</v>
+        <v>0.0004450632856077018</v>
       </c>
       <c r="B5">
-        <v>0.1074058093144218</v>
+        <v>0.1074058092660721</v>
       </c>
       <c r="C5">
-        <v>0.003124723134335402</v>
+        <v>0.003124723132448188</v>
       </c>
       <c r="D5">
-        <v>0.004299108774991757</v>
+        <v>0.004299108773885734</v>
       </c>
       <c r="E5">
-        <v>0.1431449858972671</v>
+        <v>0.1431449883843798</v>
       </c>
       <c r="F5">
-        <v>0.0247790503759232</v>
+        <v>0.02477905036516247</v>
       </c>
       <c r="G5">
-        <v>3.81930000652665E-05</v>
+        <v>3.819300012805019E-05</v>
       </c>
       <c r="H5">
-        <v>3.507886978403461E-06</v>
+        <v>3.507886967979789E-06</v>
       </c>
       <c r="I5">
-        <v>0.01895452917576031</v>
+        <v>0.01895452919930552</v>
       </c>
       <c r="J5">
-        <v>0.09650962218296905</v>
+        <v>0.09650962236507203</v>
       </c>
       <c r="K5">
-        <v>0.001675778562644805</v>
+        <v>0.001675778569665574</v>
       </c>
       <c r="L5">
-        <v>0.002688308964804104</v>
+        <v>0.002688309383603425</v>
       </c>
       <c r="M5">
-        <v>0.001179049238619795</v>
+        <v>0.001179049240460119</v>
       </c>
       <c r="N5">
-        <v>2.215293512585162E-08</v>
+        <v>2.215293507225033E-08</v>
       </c>
       <c r="O5">
-        <v>0.0002047853504506451</v>
+        <v>0.0002047853507252954</v>
       </c>
       <c r="P5">
-        <v>0.0002655421687392797</v>
+        <v>0.0002655421687001384</v>
       </c>
       <c r="Q5">
-        <v>0.0002733020402021573</v>
+        <v>0.0002733020401419454</v>
       </c>
       <c r="R5">
-        <v>0.0009088932953786265</v>
+        <v>0.0009088932950374171</v>
       </c>
       <c r="S5">
-        <v>4.841174969988033E-10</v>
+        <v>4.841175006533619E-10</v>
       </c>
       <c r="T5">
-        <v>3.155460574434907E-07</v>
+        <v>3.155460576901424E-07</v>
       </c>
       <c r="U5">
-        <v>0.005036709168838017</v>
+        <v>0.005036709162241238</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>-0.007664669766887186</v>
+        <v>-0.007664669732332035</v>
       </c>
       <c r="B6">
-        <v>-0.9093203418048639</v>
+        <v>-0.909320330326454</v>
       </c>
       <c r="C6">
-        <v>-0.1727463738795762</v>
+        <v>-0.1727463718356027</v>
       </c>
       <c r="D6">
-        <v>-0.2422503610294069</v>
+        <v>-0.2422503582691019</v>
       </c>
       <c r="E6">
-        <v>-60.93644501590298</v>
+        <v>-60.93644488166991</v>
       </c>
       <c r="F6">
-        <v>-0.3010449899178678</v>
+        <v>-0.3010449868438522</v>
       </c>
       <c r="G6">
-        <v>-0.0003851869662394036</v>
+        <v>-0.000385186961333429</v>
       </c>
       <c r="H6">
-        <v>-6.47814744038462E-06</v>
+        <v>-6.478146775594011E-06</v>
       </c>
       <c r="I6">
-        <v>-0.05528267020409896</v>
+        <v>-0.05528266940185463</v>
       </c>
       <c r="J6">
-        <v>-5.489513626510277</v>
+        <v>-5.489513591943703</v>
       </c>
       <c r="K6">
-        <v>0.01757161624227238</v>
+        <v>0.01757161613434224</v>
       </c>
       <c r="L6">
-        <v>0.02884473240036142</v>
+        <v>0.0288447338255831</v>
       </c>
       <c r="M6">
-        <v>0.02437850107107481</v>
+        <v>0.02437850205583652</v>
       </c>
       <c r="N6">
-        <v>-2.760316546432239E-07</v>
+        <v>-2.760316531929756E-07</v>
       </c>
       <c r="O6">
-        <v>-0.002471806583870102</v>
+        <v>-0.002471806566951134</v>
       </c>
       <c r="P6">
-        <v>-0.00233468789732001</v>
+        <v>-0.002334687866653532</v>
       </c>
       <c r="Q6">
-        <v>-0.002484924681445178</v>
+        <v>-0.002484924647610118</v>
       </c>
       <c r="R6">
-        <v>-0.001242215701840411</v>
+        <v>-0.00124221564348512</v>
       </c>
       <c r="S6">
-        <v>-5.335988718547339E-09</v>
+        <v>-5.335988655538444E-09</v>
       </c>
       <c r="T6">
-        <v>-3.835168639894053E-06</v>
+        <v>-3.835168607900128E-06</v>
       </c>
       <c r="U6">
-        <v>-0.08808345450421108</v>
+        <v>-0.08808345346600839</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.006959574582227671</v>
+        <v>0.006959574551682034</v>
       </c>
       <c r="B7">
-        <v>0.6155803900128035</v>
+        <v>0.6155803708406971</v>
       </c>
       <c r="C7">
-        <v>0.2690750983890675</v>
+        <v>0.2690750959610262</v>
       </c>
       <c r="D7">
-        <v>0.3180248927010385</v>
+        <v>0.3180248896986269</v>
       </c>
       <c r="E7">
-        <v>24.63805905729132</v>
+        <v>24.63805880172441</v>
       </c>
       <c r="F7">
-        <v>0.1593620586133696</v>
+        <v>0.1593620523143366</v>
       </c>
       <c r="G7">
-        <v>-0.0002195002756875517</v>
+        <v>-0.0002195002764649341</v>
       </c>
       <c r="H7">
-        <v>0.001596620082079694</v>
+        <v>0.001596620082236977</v>
       </c>
       <c r="I7">
-        <v>0.03259464373035925</v>
+        <v>0.03259464125501613</v>
       </c>
       <c r="J7">
-        <v>1.379421363385685</v>
+        <v>1.379421360915042</v>
       </c>
       <c r="K7">
-        <v>0.01479103850825052</v>
+        <v>0.01479103853462572</v>
       </c>
       <c r="L7">
-        <v>2.123278765613384</v>
+        <v>2.123278747220276</v>
       </c>
       <c r="M7">
-        <v>0.003915596193089823</v>
+        <v>0.003915595872412365</v>
       </c>
       <c r="N7">
-        <v>-2.205771333849633E-06</v>
+        <v>-2.205771349496541E-06</v>
       </c>
       <c r="O7">
-        <v>0.002887217713567559</v>
+        <v>0.002887217692710808</v>
       </c>
       <c r="P7">
-        <v>0.00496019853253442</v>
+        <v>0.004960198418495569</v>
       </c>
       <c r="Q7">
-        <v>0.005064426469133809</v>
+        <v>0.005064426346235728</v>
       </c>
       <c r="R7">
-        <v>0.006986423841854126</v>
+        <v>0.006986423745242993</v>
       </c>
       <c r="S7">
-        <v>2.303650175203427E-08</v>
+        <v>2.303650150729029E-08</v>
       </c>
       <c r="T7">
-        <v>2.826953831631507E-06</v>
+        <v>2.826953791628868E-06</v>
       </c>
       <c r="U7">
-        <v>0.02732441810036279</v>
+        <v>0.02732441544731213</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>7.224247592162735E-05</v>
+        <v>6.594770395654384E-05</v>
       </c>
       <c r="B8">
-        <v>0.04340679291553753</v>
+        <v>0.01915212099814577</v>
       </c>
       <c r="C8">
-        <v>0.001952531995049811</v>
+        <v>0.002370555525382727</v>
       </c>
       <c r="D8">
-        <v>0.002502910685772308</v>
+        <v>0.002997809033544799</v>
       </c>
       <c r="E8">
-        <v>0.1964120713381967</v>
+        <v>0.2222254310867167</v>
       </c>
       <c r="F8">
-        <v>0.01323766294190357</v>
+        <v>0.005090922423206409</v>
       </c>
       <c r="G8">
-        <v>7.602151083202922E-06</v>
+        <v>7.252054265833842E-06</v>
       </c>
       <c r="H8">
-        <v>6.696429260240346E-07</v>
+        <v>6.385781862776036E-07</v>
       </c>
       <c r="I8">
-        <v>0.0007412120390152233</v>
+        <v>0.0007446738808564967</v>
       </c>
       <c r="J8">
-        <v>0.02944733880388027</v>
+        <v>0.03061086937836116</v>
       </c>
       <c r="K8">
-        <v>0.003003638281606273</v>
+        <v>0.002922107623639313</v>
       </c>
       <c r="L8">
-        <v>0.01437969860041337</v>
+        <v>0.01503568890637148</v>
       </c>
       <c r="M8">
-        <v>4.673567924394026E-05</v>
+        <v>6.21739168777567E-06</v>
       </c>
       <c r="N8">
-        <v>2.328325703267678E-08</v>
+        <v>2.195597671908191E-08</v>
       </c>
       <c r="O8">
-        <v>4.418555561690746E-05</v>
+        <v>4.123148557310031E-05</v>
       </c>
       <c r="P8">
-        <v>9.640463330689996E-05</v>
+        <v>8.090110601829681E-05</v>
       </c>
       <c r="Q8">
-        <v>0.0001018812375787198</v>
+        <v>8.362450508831821E-05</v>
       </c>
       <c r="R8">
-        <v>0.0001275625070055135</v>
+        <v>0.0002613252187559281</v>
       </c>
       <c r="S8">
-        <v>2.864811139127195E-10</v>
+        <v>2.210768784660136E-10</v>
       </c>
       <c r="T8">
-        <v>7.764474287191008E-08</v>
+        <v>5.383831463236314E-08</v>
       </c>
       <c r="U8">
-        <v>0.004517339832661951</v>
+        <v>0.001606038000189893</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.08981716826280989</v>
+        <v>0.08981716841928057</v>
       </c>
       <c r="B9">
-        <v>20.59195228123737</v>
+        <v>20.59195231094616</v>
       </c>
       <c r="C9">
-        <v>0.4919298676412329</v>
+        <v>0.4919298739604543</v>
       </c>
       <c r="D9">
-        <v>0.6888600977715341</v>
+        <v>0.6888601060604125</v>
       </c>
       <c r="E9">
-        <v>17.46934367848893</v>
+        <v>17.46934452127774</v>
       </c>
       <c r="F9">
-        <v>4.469172446153115</v>
+        <v>4.469172454757582</v>
       </c>
       <c r="G9">
-        <v>0.00676120593567082</v>
+        <v>0.006761205960254235</v>
       </c>
       <c r="H9">
-        <v>0.0004877493721579998</v>
+        <v>0.0004877493719302989</v>
       </c>
       <c r="I9">
-        <v>4.028007998217716</v>
+        <v>4.028008004600856</v>
       </c>
       <c r="J9">
-        <v>17.21567189013771</v>
+        <v>17.21567198366773</v>
       </c>
       <c r="K9">
-        <v>0.1093007499745322</v>
+        <v>0.1093007511116959</v>
       </c>
       <c r="L9">
-        <v>0.1981735983912352</v>
+        <v>0.1981734831246853</v>
       </c>
       <c r="M9">
-        <v>0.2522931474397153</v>
+        <v>0.2522931488204644</v>
       </c>
       <c r="N9">
-        <v>3.887160983105488E-06</v>
+        <v>3.887160996731081E-06</v>
       </c>
       <c r="O9">
-        <v>0.04056656283056566</v>
+        <v>0.04056656295063063</v>
       </c>
       <c r="P9">
-        <v>0.05319574648578256</v>
+        <v>0.05319574662859433</v>
       </c>
       <c r="Q9">
-        <v>0.05450810978991459</v>
+        <v>0.05450810993916626</v>
       </c>
       <c r="R9">
-        <v>0.1170714402348828</v>
+        <v>0.1170714404613726</v>
       </c>
       <c r="S9">
-        <v>9.064878992620503E-08</v>
+        <v>9.064878906997007E-08</v>
       </c>
       <c r="T9">
-        <v>6.220344155445011E-05</v>
+        <v>6.220344170063443E-05</v>
       </c>
       <c r="U9">
-        <v>0.8057023262228651</v>
+        <v>0.8057023284323391</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.000373667023116971</v>
+        <v>0.0003736670229771529</v>
       </c>
       <c r="B10">
-        <v>0.03547839131595185</v>
+        <v>0.03547839143958683</v>
       </c>
       <c r="C10">
-        <v>0.01735694913326494</v>
+        <v>0.01735694913594124</v>
       </c>
       <c r="D10">
-        <v>0.0214288867355667</v>
+        <v>0.02142888673644289</v>
       </c>
       <c r="E10">
-        <v>1.087724675229734</v>
+        <v>1.087724668119769</v>
       </c>
       <c r="F10">
-        <v>0.008745847243085823</v>
+        <v>0.00874584727859504</v>
       </c>
       <c r="G10">
-        <v>1.429857799045449E-05</v>
+        <v>1.429857804642269E-05</v>
       </c>
       <c r="H10">
-        <v>1.527606177370081E-06</v>
+        <v>1.527606188709171E-06</v>
       </c>
       <c r="I10">
-        <v>0.005329533767753188</v>
+        <v>0.005329533769230409</v>
       </c>
       <c r="J10">
-        <v>0.1728108978199598</v>
+        <v>0.1728108974570171</v>
       </c>
       <c r="K10">
-        <v>8.878999161463022E-05</v>
+        <v>8.878999497702615E-05</v>
       </c>
       <c r="L10">
-        <v>0.1748642689533298</v>
+        <v>0.1748642701592799</v>
       </c>
       <c r="M10">
-        <v>0.000460913387096151</v>
+        <v>0.000460913397376984</v>
       </c>
       <c r="N10">
-        <v>1.678931466658034E-07</v>
+        <v>1.678931467537075E-07</v>
       </c>
       <c r="O10">
-        <v>0.0001317687003714922</v>
+        <v>0.0001317687005912705</v>
       </c>
       <c r="P10">
-        <v>0.000436298252602611</v>
+        <v>0.0004362982531822818</v>
       </c>
       <c r="Q10">
-        <v>0.0004458788723432467</v>
+        <v>0.0004458788729530996</v>
       </c>
       <c r="R10">
-        <v>0.0003881229382214789</v>
+        <v>0.0003881229395145606</v>
       </c>
       <c r="S10">
-        <v>1.822862658143515E-09</v>
+        <v>1.822862669201976E-09</v>
       </c>
       <c r="T10">
-        <v>1.742287659048464E-07</v>
+        <v>1.742287660837607E-07</v>
       </c>
       <c r="U10">
-        <v>0.002905566018938798</v>
+        <v>0.002905566030365626</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.004640164280957083</v>
+        <v>0.00464016426796909</v>
       </c>
       <c r="B11">
-        <v>2.136862496447441</v>
+        <v>2.136862493486532</v>
       </c>
       <c r="C11">
-        <v>0.03628000128748889</v>
+        <v>0.03628000080148726</v>
       </c>
       <c r="D11">
-        <v>0.04922742083106129</v>
+        <v>0.04922742021126948</v>
       </c>
       <c r="E11">
-        <v>5.981469755054209</v>
+        <v>5.981469720083307</v>
       </c>
       <c r="F11">
-        <v>1.655948790101075</v>
+        <v>1.655948789395215</v>
       </c>
       <c r="G11">
-        <v>0.0002268687846869438</v>
+        <v>0.0002268687833315451</v>
       </c>
       <c r="H11">
-        <v>2.661409674602179E-05</v>
+        <v>2.661409659639985E-05</v>
       </c>
       <c r="I11">
-        <v>0.04953876716741915</v>
+        <v>0.04953876717953376</v>
       </c>
       <c r="J11">
-        <v>0.8264105108175394</v>
+        <v>0.8264105058650749</v>
       </c>
       <c r="K11">
-        <v>0.031765497260052</v>
+        <v>0.03176549731600053</v>
       </c>
       <c r="L11">
-        <v>0.02394493025754955</v>
+        <v>0.02394491443417984</v>
       </c>
       <c r="M11">
-        <v>0.002175076946550782</v>
+        <v>0.002175076818357809</v>
       </c>
       <c r="N11">
-        <v>1.60428729144647E-07</v>
+        <v>1.604287267848699E-07</v>
       </c>
       <c r="O11">
-        <v>0.001995633404348858</v>
+        <v>0.001995633398061727</v>
       </c>
       <c r="P11">
-        <v>0.004134859018638823</v>
+        <v>0.004134859004359903</v>
       </c>
       <c r="Q11">
-        <v>0.004473835912910547</v>
+        <v>0.004473835898245491</v>
       </c>
       <c r="R11">
-        <v>0.01576991026963338</v>
+        <v>0.01576991024351548</v>
       </c>
       <c r="S11">
-        <v>8.009724078734024E-09</v>
+        <v>8.009723923628232E-09</v>
       </c>
       <c r="T11">
-        <v>3.628826871419302E-06</v>
+        <v>3.628826863559807E-06</v>
       </c>
       <c r="U11">
-        <v>0.6748054541745855</v>
+        <v>0.6748054539777011</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.008446596736879534</v>
+        <v>0.008446596681755712</v>
       </c>
       <c r="B12">
-        <v>0.8152284498728601</v>
+        <v>0.8152284355311107</v>
       </c>
       <c r="C12">
-        <v>0.5096466984080369</v>
+        <v>0.5096466958453856</v>
       </c>
       <c r="D12">
-        <v>0.6197107055653831</v>
+        <v>0.6197107023115399</v>
       </c>
       <c r="E12">
-        <v>34.24860645876969</v>
+        <v>34.24860614714736</v>
       </c>
       <c r="F12">
-        <v>0.1986025947186776</v>
+        <v>0.1986025896171922</v>
       </c>
       <c r="G12">
-        <v>0.0004588961634478661</v>
+        <v>0.0004588961658077504</v>
       </c>
       <c r="H12">
-        <v>0.001235671649544328</v>
+        <v>0.001235671649100448</v>
       </c>
       <c r="I12">
-        <v>0.1042438604638565</v>
+        <v>0.1042438585277083</v>
       </c>
       <c r="J12">
-        <v>4.278608351246858</v>
+        <v>4.278608322464048</v>
       </c>
       <c r="K12">
-        <v>0.01762965181435501</v>
+        <v>0.01762965216164799</v>
       </c>
       <c r="L12">
-        <v>2.822853345489652</v>
+        <v>2.822853502519021</v>
       </c>
       <c r="M12">
-        <v>0.002063281578974029</v>
+        <v>0.002063281770026668</v>
       </c>
       <c r="N12">
-        <v>1.929764474380579E-06</v>
+        <v>1.929764467891878E-06</v>
       </c>
       <c r="O12">
-        <v>0.003115942816756935</v>
+        <v>0.003115942812379982</v>
       </c>
       <c r="P12">
-        <v>0.007495162109737707</v>
+        <v>0.007495162057423115</v>
       </c>
       <c r="Q12">
-        <v>0.007669981578017179</v>
+        <v>0.00766998151648997</v>
       </c>
       <c r="R12">
-        <v>0.00804758436138131</v>
+        <v>0.00804758432419974</v>
       </c>
       <c r="S12">
-        <v>3.121155826966296E-08</v>
+        <v>3.121155959967163E-08</v>
       </c>
       <c r="T12">
-        <v>4.062328200773371E-06</v>
+        <v>4.062328171609358E-06</v>
       </c>
       <c r="U12">
-        <v>0.05658618435371606</v>
+        <v>0.05658618220573539</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>-0.00035886025447565</v>
+        <v>-0.0003588602571520118</v>
       </c>
       <c r="B13">
-        <v>-0.1647369023818299</v>
+        <v>-0.1647369034584676</v>
       </c>
       <c r="C13">
-        <v>-0.03997487656945156</v>
+        <v>-0.03997487669429451</v>
       </c>
       <c r="D13">
-        <v>-0.05149222023666191</v>
+        <v>-0.05149222039798589</v>
       </c>
       <c r="E13">
-        <v>-1.249387394237474</v>
+        <v>-1.249387403873883</v>
       </c>
       <c r="F13">
-        <v>-0.04853409503368302</v>
+        <v>-0.04853409538285583</v>
       </c>
       <c r="G13">
-        <v>-5.554678360486393E-05</v>
+        <v>-5.55467836930579E-05</v>
       </c>
       <c r="H13">
-        <v>-3.397164153946661E-05</v>
+        <v>-3.397164157868805E-05</v>
       </c>
       <c r="I13">
-        <v>-0.009524399781882161</v>
+        <v>-0.009524399905857746</v>
       </c>
       <c r="J13">
-        <v>-0.6402985357545919</v>
+        <v>-0.6402985373937242</v>
       </c>
       <c r="K13">
-        <v>-0.03219664020326261</v>
+        <v>-0.03219664021132351</v>
       </c>
       <c r="L13">
-        <v>-0.009609946179120352</v>
+        <v>-0.009609946280961207</v>
       </c>
       <c r="M13">
-        <v>-0.0002753878270480584</v>
+        <v>-0.0002753878620071698</v>
       </c>
       <c r="N13">
-        <v>-9.526177443762124E-08</v>
+        <v>-9.526177484490311E-08</v>
       </c>
       <c r="O13">
-        <v>-0.0002486555664034085</v>
+        <v>-0.0002486555673872567</v>
       </c>
       <c r="P13">
-        <v>-0.0002489437960510947</v>
+        <v>-0.0002489437994671142</v>
       </c>
       <c r="Q13">
-        <v>-0.0002687332845466849</v>
+        <v>-0.0002687332884480734</v>
       </c>
       <c r="R13">
-        <v>-0.0009053003281866997</v>
+        <v>-0.0009053003326215797</v>
       </c>
       <c r="S13">
-        <v>-7.419529659016264E-10</v>
+        <v>-7.419529711646929E-10</v>
       </c>
       <c r="T13">
-        <v>-4.89398577925566E-07</v>
+        <v>-4.89398580341712E-07</v>
       </c>
       <c r="U13">
-        <v>-0.01596443576423075</v>
+        <v>-0.01596443590292443</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.004780964458356001</v>
+        <v>0.004780964440512429</v>
       </c>
       <c r="B14">
-        <v>2.178995776272225</v>
+        <v>2.178995773336873</v>
       </c>
       <c r="C14">
-        <v>0.03811096948454904</v>
+        <v>0.03811096865938857</v>
       </c>
       <c r="D14">
-        <v>0.05165170386079972</v>
+        <v>0.05165170279362007</v>
       </c>
       <c r="E14">
-        <v>6.356138835299927</v>
+        <v>6.356138736488902</v>
       </c>
       <c r="F14">
-        <v>1.625557052096735</v>
+        <v>1.625557051357041</v>
       </c>
       <c r="G14">
-        <v>0.0002562462284198061</v>
+        <v>0.0002562462269276415</v>
       </c>
       <c r="H14">
-        <v>2.846230664519109E-05</v>
+        <v>2.84623065268002E-05</v>
       </c>
       <c r="I14">
-        <v>0.06626840150524183</v>
+        <v>0.06626840123993448</v>
       </c>
       <c r="J14">
-        <v>0.8811123046890744</v>
+        <v>0.8811122928830343</v>
       </c>
       <c r="K14">
-        <v>0.03940658048957774</v>
+        <v>0.03940658049101711</v>
       </c>
       <c r="L14">
-        <v>0.02488069565625727</v>
+        <v>0.02488069276645899</v>
       </c>
       <c r="M14">
-        <v>0.001691993705699051</v>
+        <v>0.001691993648458816</v>
       </c>
       <c r="N14">
-        <v>3.273022428350716E-07</v>
+        <v>3.273022417893233E-07</v>
       </c>
       <c r="O14">
-        <v>0.002113792920659489</v>
+        <v>0.002113792913227216</v>
       </c>
       <c r="P14">
-        <v>0.004469588995908449</v>
+        <v>0.004469588986192723</v>
       </c>
       <c r="Q14">
-        <v>0.004864475242577366</v>
+        <v>0.004864475232354375</v>
       </c>
       <c r="R14">
-        <v>0.01792902231750987</v>
+        <v>0.01792902229732169</v>
       </c>
       <c r="S14">
-        <v>8.241577662289831E-09</v>
+        <v>8.241577620504778E-09</v>
       </c>
       <c r="T14">
-        <v>3.815500287601018E-06</v>
+        <v>3.815500276581607E-06</v>
       </c>
       <c r="U14">
-        <v>0.6571808940867532</v>
+        <v>0.6571808938855022</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>-0.0006754251646143277</v>
+        <v>-0.0006754251624440538</v>
       </c>
       <c r="B15">
-        <v>-0.6003455716508032</v>
+        <v>-0.6003455728296977</v>
       </c>
       <c r="C15">
-        <v>-0.07474441525378715</v>
+        <v>-0.07474441523401672</v>
       </c>
       <c r="D15">
-        <v>-0.09792270263385484</v>
+        <v>-0.09792270260341873</v>
       </c>
       <c r="E15">
-        <v>-1.483742992979056</v>
+        <v>-1.483742952017328</v>
       </c>
       <c r="F15">
-        <v>-0.2011402803584709</v>
+        <v>-0.2011402808492314</v>
       </c>
       <c r="G15">
-        <v>-0.0001090717275641039</v>
+        <v>-0.0001090717271107536</v>
       </c>
       <c r="H15">
-        <v>-8.143851281916899E-05</v>
+        <v>-8.143851286284748E-05</v>
       </c>
       <c r="I15">
-        <v>-0.01684666613995368</v>
+        <v>-0.01684666629496585</v>
       </c>
       <c r="J15">
-        <v>-1.468389051941848</v>
+        <v>-1.46838904854305</v>
       </c>
       <c r="K15">
-        <v>-0.02414078600760204</v>
+        <v>-0.02414078603841563</v>
       </c>
       <c r="L15">
-        <v>0.04254328774190048</v>
+        <v>0.04254330003271533</v>
       </c>
       <c r="M15">
-        <v>-0.0001798798924996171</v>
+        <v>-0.0001798799589829894</v>
       </c>
       <c r="N15">
-        <v>-1.291790955344727E-07</v>
+        <v>-1.291790960439398E-07</v>
       </c>
       <c r="O15">
-        <v>-0.0004922859848824776</v>
+        <v>-0.0004922859842429026</v>
       </c>
       <c r="P15">
-        <v>-0.0005867227635139628</v>
+        <v>-0.000586722766979903</v>
       </c>
       <c r="Q15">
-        <v>-0.0006631586539328433</v>
+        <v>-0.0006631586582509832</v>
       </c>
       <c r="R15">
-        <v>-0.002564824183080546</v>
+        <v>-0.002564824187553906</v>
       </c>
       <c r="S15">
-        <v>-1.685099580624545E-09</v>
+        <v>-1.685099474134285E-09</v>
       </c>
       <c r="T15">
-        <v>-1.263970486405941E-06</v>
+        <v>-1.263970486853191E-06</v>
       </c>
       <c r="U15">
-        <v>-0.06971537019461178</v>
+        <v>-0.06971537042368472</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.01870085542596114</v>
+        <v>0.01870085536660266</v>
       </c>
       <c r="B16">
-        <v>2.600151729680245</v>
+        <v>2.600151717222314</v>
       </c>
       <c r="C16">
-        <v>0.09834578589419035</v>
+        <v>0.0983457835911682</v>
       </c>
       <c r="D16">
-        <v>0.1434096287061875</v>
+        <v>0.1434096257558349</v>
       </c>
       <c r="E16">
-        <v>2.961762523059785</v>
+        <v>2.961762384581088</v>
       </c>
       <c r="F16">
-        <v>0.5841420291814279</v>
+        <v>0.5841420255158062</v>
       </c>
       <c r="G16">
-        <v>0.00478088697134464</v>
+        <v>0.00478088696676837</v>
       </c>
       <c r="H16">
-        <v>0.000365560471049331</v>
+        <v>0.0003655604699256524</v>
       </c>
       <c r="I16">
-        <v>0.2403620326706753</v>
+        <v>0.2403620325218969</v>
       </c>
       <c r="J16">
-        <v>5.152090357991318</v>
+        <v>5.152090329071616</v>
       </c>
       <c r="K16">
-        <v>-0.160018545761948</v>
+        <v>-0.1600185455672537</v>
       </c>
       <c r="L16">
-        <v>1.563731918389593</v>
+        <v>1.563731853068351</v>
       </c>
       <c r="M16">
-        <v>0.01012749024989265</v>
+        <v>0.01012748999517152</v>
       </c>
       <c r="N16">
-        <v>5.243888294285032E-07</v>
+        <v>5.243888198285099E-07</v>
       </c>
       <c r="O16">
-        <v>0.01293046419632605</v>
+        <v>0.01293046417474099</v>
       </c>
       <c r="P16">
-        <v>0.008469883978620769</v>
+        <v>0.008469883919494469</v>
       </c>
       <c r="Q16">
-        <v>0.008495035529401613</v>
+        <v>0.008495035467093258</v>
       </c>
       <c r="R16">
-        <v>0.04183000735178729</v>
+        <v>0.04183000724807909</v>
       </c>
       <c r="S16">
-        <v>2.952603194769157E-08</v>
+        <v>2.952603130578881E-08</v>
       </c>
       <c r="T16">
-        <v>1.261208121767128E-05</v>
+        <v>1.261208118516925E-05</v>
       </c>
       <c r="U16">
-        <v>0.0001347759875354182</v>
+        <v>0.0001347748319418286</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.000300992077147339</v>
+        <v>-0.0003009920817994881</v>
       </c>
       <c r="B17">
-        <v>-2.398654596804218</v>
+        <v>-2.398654597459513</v>
       </c>
       <c r="C17">
-        <v>-0.1196209910596786</v>
+        <v>-0.1196209911848463</v>
       </c>
       <c r="D17">
-        <v>-0.1592720009158796</v>
+        <v>-0.159272001083608</v>
       </c>
       <c r="E17">
-        <v>-1.25316920809572</v>
+        <v>-1.253169223302413</v>
       </c>
       <c r="F17">
-        <v>-0.01544141117528687</v>
+        <v>-0.01544141130765882</v>
       </c>
       <c r="G17">
-        <v>-1.152841475538495E-05</v>
+        <v>-1.152841521787803E-05</v>
       </c>
       <c r="H17">
-        <v>-2.16914197332471E-05</v>
+        <v>-2.169141978033616E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02133274637825936</v>
+        <v>-0.02133274647832749</v>
       </c>
       <c r="J17">
-        <v>-2.333581950101424</v>
+        <v>-2.333581953000543</v>
       </c>
       <c r="K17">
-        <v>0.0002297377310245317</v>
+        <v>0.0002297377325666485</v>
       </c>
       <c r="L17">
-        <v>-0.0003537209345194093</v>
+        <v>-0.0003537289686121801</v>
       </c>
       <c r="M17">
-        <v>-0.0002821146617221787</v>
+        <v>-0.0002821146926583237</v>
       </c>
       <c r="N17">
-        <v>-1.034697470699202E-06</v>
+        <v>-1.034697470834319E-06</v>
       </c>
       <c r="O17">
-        <v>-0.0001109728178228382</v>
+        <v>-0.0001109728199663801</v>
       </c>
       <c r="P17">
-        <v>-0.0006372333924028013</v>
+        <v>-0.0006372333946584558</v>
       </c>
       <c r="Q17">
-        <v>-0.0006445037550788699</v>
+        <v>-0.0006445037573645355</v>
       </c>
       <c r="R17">
-        <v>-0.003509081715122696</v>
+        <v>-0.003509081719714165</v>
       </c>
       <c r="S17">
-        <v>-6.988119999737776E-09</v>
+        <v>-6.988120074757718E-09</v>
       </c>
       <c r="T17">
-        <v>-2.907840503208805E-06</v>
+        <v>-2.907840506169766E-06</v>
       </c>
       <c r="U17">
-        <v>-0.005221392281284177</v>
+        <v>-0.005221392306932537</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>-0.0002036580931481954</v>
+        <v>-0.0002036580962383109</v>
       </c>
       <c r="B18">
-        <v>-3.040814378081319</v>
+        <v>-3.04081437853264</v>
       </c>
       <c r="C18">
-        <v>-0.1585628623770888</v>
+        <v>-0.1585628624674282</v>
       </c>
       <c r="D18">
-        <v>-0.2295784818169013</v>
+        <v>-0.2295784819374868</v>
       </c>
       <c r="E18">
-        <v>-8.828092779525329</v>
+        <v>-8.828092791132404</v>
       </c>
       <c r="F18">
-        <v>-0.01102871271355927</v>
+        <v>-0.01102871280426398</v>
       </c>
       <c r="G18">
-        <v>-4.700623286382514E-06</v>
+        <v>-4.700623608853769E-06</v>
       </c>
       <c r="H18">
-        <v>-4.72544503051568E-06</v>
+        <v>-4.725445061262674E-06</v>
       </c>
       <c r="I18">
-        <v>-0.007043862143775819</v>
+        <v>-0.00704386220449789</v>
       </c>
       <c r="J18">
-        <v>-1.913075139037359</v>
+        <v>-1.91307514103503</v>
       </c>
       <c r="K18">
-        <v>-2.86331848504656E-05</v>
+        <v>-2.863318409217094E-05</v>
       </c>
       <c r="L18">
-        <v>0.0006926481368041597</v>
+        <v>0.0006926504956243131</v>
       </c>
       <c r="M18">
-        <v>-0.0002833098962196368</v>
+        <v>-0.0002833099151572724</v>
       </c>
       <c r="N18">
-        <v>-2.358692474103207E-07</v>
+        <v>-2.358692475297279E-07</v>
       </c>
       <c r="O18">
-        <v>-7.002033417214239E-05</v>
+        <v>-7.002033562111107E-05</v>
       </c>
       <c r="P18">
-        <v>-0.0004926923045368686</v>
+        <v>-0.0004926923061560981</v>
       </c>
       <c r="Q18">
-        <v>-0.0004978085133002103</v>
+        <v>-0.0004978085149388425</v>
       </c>
       <c r="R18">
-        <v>-0.001299525934103604</v>
+        <v>-0.001299525937308134</v>
       </c>
       <c r="S18">
-        <v>-8.853898399900451E-09</v>
+        <v>-8.853898381515868E-09</v>
       </c>
       <c r="T18">
-        <v>-3.329123548733983E-06</v>
+        <v>-3.329123550729215E-06</v>
       </c>
       <c r="U18">
-        <v>-0.003800327446017988</v>
+        <v>-0.003800327463099976</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.0001734561906228907</v>
+        <v>-0.0001734561934105721</v>
       </c>
       <c r="B19">
-        <v>-2.568417787476558</v>
+        <v>-2.568417787885464</v>
       </c>
       <c r="C19">
-        <v>-0.133977600539473</v>
+        <v>-0.133977600619188</v>
       </c>
       <c r="D19">
-        <v>-0.1939677475898547</v>
+        <v>-0.1939677476961772</v>
       </c>
       <c r="E19">
-        <v>-7.457176028298286</v>
+        <v>-7.457176038251951</v>
       </c>
       <c r="F19">
-        <v>-0.009495873063274637</v>
+        <v>-0.009495873145182085</v>
       </c>
       <c r="G19">
-        <v>-4.302703511090423E-06</v>
+        <v>-4.30270379632713E-06</v>
       </c>
       <c r="H19">
-        <v>-4.005811040519524E-06</v>
+        <v>-4.005811068633613E-06</v>
       </c>
       <c r="I19">
-        <v>-0.005936573373158053</v>
+        <v>-0.005936573425017489</v>
       </c>
       <c r="J19">
-        <v>-1.61635214837506</v>
+        <v>-1.616352150146422</v>
       </c>
       <c r="K19">
-        <v>-1.813078237278837E-05</v>
+        <v>-1.813078144146797E-05</v>
       </c>
       <c r="L19">
-        <v>0.0005789278625653756</v>
+        <v>0.0005789268486416304</v>
       </c>
       <c r="M19">
-        <v>-0.0002663365766266731</v>
+        <v>-0.000266336593791931</v>
       </c>
       <c r="N19">
-        <v>-1.992672712229067E-07</v>
+        <v>-1.992672713293716E-07</v>
       </c>
       <c r="O19">
-        <v>-6.111853752627897E-05</v>
+        <v>-6.111853883264646E-05</v>
       </c>
       <c r="P19">
-        <v>-0.0004178069546854648</v>
+        <v>-0.0004178069561751727</v>
       </c>
       <c r="Q19">
-        <v>-0.000422341629337893</v>
+        <v>-0.0004223416308460651</v>
       </c>
       <c r="R19">
-        <v>-0.001257067179274364</v>
+        <v>-0.001257067182154466</v>
       </c>
       <c r="S19">
-        <v>-7.479295821766459E-09</v>
+        <v>-7.479295833068358E-09</v>
       </c>
       <c r="T19">
-        <v>-2.813601087106503E-06</v>
+        <v>-2.813601088890901E-06</v>
       </c>
       <c r="U19">
-        <v>-0.003260262433934596</v>
+        <v>-0.003260262449652133</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>-0.001500247654676032</v>
+        <v>-0.001500247659274148</v>
       </c>
       <c r="B20">
-        <v>-0.8922916431300176</v>
+        <v>-0.8922916438863665</v>
       </c>
       <c r="C20">
-        <v>-0.01610214888611649</v>
+        <v>-0.01610214901275308</v>
       </c>
       <c r="D20">
-        <v>-0.02149513489814382</v>
+        <v>-0.02149513506291084</v>
       </c>
       <c r="E20">
-        <v>-0.1080654569970864</v>
+        <v>-0.1080654672713721</v>
       </c>
       <c r="F20">
-        <v>-0.06652740350674126</v>
+        <v>-0.06652740369193633</v>
       </c>
       <c r="G20">
-        <v>-2.482020868435623E-05</v>
+        <v>-2.482020912606254E-05</v>
       </c>
       <c r="H20">
-        <v>-0.0002339127292220685</v>
+        <v>-0.000233912729274992</v>
       </c>
       <c r="I20">
-        <v>-0.002409499394005942</v>
+        <v>-0.002409499498252306</v>
       </c>
       <c r="J20">
-        <v>-0.3979764618975137</v>
+        <v>-0.3979764643724513</v>
       </c>
       <c r="K20">
-        <v>0.0004984779097201298</v>
+        <v>0.0004984779120849685</v>
       </c>
       <c r="L20">
-        <v>0.004533646499282918</v>
+        <v>0.004533644430092596</v>
       </c>
       <c r="M20">
-        <v>-0.0008352715053286635</v>
+        <v>-0.0008352715422634011</v>
       </c>
       <c r="N20">
-        <v>-1.177610179796188E-05</v>
+        <v>-1.177610179817104E-05</v>
       </c>
       <c r="O20">
-        <v>-0.000493666191681837</v>
+        <v>-0.0004936661938110971</v>
       </c>
       <c r="P20">
-        <v>-0.003348344078465858</v>
+        <v>-0.003348344081195306</v>
       </c>
       <c r="Q20">
-        <v>-0.003374372174505798</v>
+        <v>-0.0033743721773356</v>
       </c>
       <c r="R20">
-        <v>-0.0006539961467838691</v>
+        <v>-0.0006539961522081018</v>
       </c>
       <c r="S20">
-        <v>-3.243014283278094E-09</v>
+        <v>-3.243014305621405E-09</v>
       </c>
       <c r="T20">
-        <v>-1.248502588566138E-06</v>
+        <v>-1.248502591531555E-06</v>
       </c>
       <c r="U20">
-        <v>-0.02300218640510373</v>
+        <v>-0.02300218645242291</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>0.0001151940975817773</v>
+        <v>0.0001151940990927602</v>
       </c>
       <c r="B21">
-        <v>0.02731166433088522</v>
+        <v>0.0273116646664024</v>
       </c>
       <c r="C21">
-        <v>0.0008443485997623488</v>
+        <v>0.000844348663958428</v>
       </c>
       <c r="D21">
-        <v>0.0008955583516650354</v>
+        <v>0.000895558438371626</v>
       </c>
       <c r="E21">
-        <v>0.07253189091514975</v>
+        <v>0.07253190143608225</v>
       </c>
       <c r="F21">
-        <v>0.01628193687395474</v>
+        <v>0.01628193695164256</v>
       </c>
       <c r="G21">
-        <v>9.7907515744831E-06</v>
+        <v>9.790751786550252E-06</v>
       </c>
       <c r="H21">
-        <v>4.857733194200406E-05</v>
+        <v>4.857733195519374E-05</v>
       </c>
       <c r="I21">
-        <v>0.0007208152518058025</v>
+        <v>0.0007208153008853982</v>
       </c>
       <c r="J21">
-        <v>0.02021889264576679</v>
+        <v>0.02021889403806747</v>
       </c>
       <c r="K21">
-        <v>0.0006600925037269802</v>
+        <v>0.0006600925077088343</v>
       </c>
       <c r="L21">
-        <v>0.003555164791519318</v>
+        <v>0.003555164790992</v>
       </c>
       <c r="M21">
-        <v>3.578106118823171E-05</v>
+        <v>3.5781068623419E-05</v>
       </c>
       <c r="N21">
-        <v>4.925607577134691E-08</v>
+        <v>4.925607589126881E-08</v>
       </c>
       <c r="O21">
-        <v>3.620179378097992E-05</v>
+        <v>3.620179464038575E-05</v>
       </c>
       <c r="P21">
-        <v>0.0005415199793079073</v>
+        <v>0.0005415199805454137</v>
       </c>
       <c r="Q21">
-        <v>0.0008404220167739287</v>
+        <v>0.0008404220180452568</v>
       </c>
       <c r="R21">
-        <v>0.005430711175893698</v>
+        <v>0.005430711177746951</v>
       </c>
       <c r="S21">
-        <v>2.489757023177536E-10</v>
+        <v>2.489757040525624E-10</v>
       </c>
       <c r="T21">
-        <v>6.768402630740627E-08</v>
+        <v>6.768402764462924E-08</v>
       </c>
       <c r="U21">
-        <v>0.006300127224134995</v>
+        <v>0.006300127242785174</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
@@ -507,1302 +507,1302 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.000554650961291966</v>
+        <v>0.0005546509623908738</v>
       </c>
       <c r="B2">
-        <v>0.2183325576023956</v>
+        <v>0.2183325575242417</v>
       </c>
       <c r="C2">
-        <v>0.005876693268255438</v>
+        <v>0.005876693280781824</v>
       </c>
       <c r="D2">
-        <v>0.007822341302022574</v>
+        <v>0.007822341323354515</v>
       </c>
       <c r="E2">
-        <v>0.7548931368434122</v>
+        <v>0.7548931496497638</v>
       </c>
       <c r="F2">
-        <v>0.143219240642437</v>
+        <v>0.1432192406125239</v>
       </c>
       <c r="G2">
-        <v>4.971956247445752E-05</v>
+        <v>4.971956257531304E-05</v>
       </c>
       <c r="H2">
-        <v>5.551816891170517E-06</v>
+        <v>5.551816894361423E-06</v>
       </c>
       <c r="I2">
-        <v>0.006116426236658847</v>
+        <v>0.006116426235591773</v>
       </c>
       <c r="J2">
-        <v>0.1232933204296411</v>
+        <v>0.1232933215233541</v>
       </c>
       <c r="K2">
-        <v>0.007527498015198887</v>
+        <v>0.007527498021692145</v>
       </c>
       <c r="L2">
-        <v>0.0101233198885803</v>
+        <v>0.01012332002129519</v>
       </c>
       <c r="M2">
-        <v>0.000261264828552426</v>
+        <v>0.0002612648179187289</v>
       </c>
       <c r="N2">
-        <v>3.107943672080459E-08</v>
+        <v>3.107943681456653E-08</v>
       </c>
       <c r="O2">
-        <v>0.0002937187540471094</v>
+        <v>0.0002937187544875</v>
       </c>
       <c r="P2">
-        <v>0.0004875848637055429</v>
+        <v>0.0004875848636360645</v>
       </c>
       <c r="Q2">
-        <v>0.0005212374183691354</v>
+        <v>0.0005212374182051417</v>
       </c>
       <c r="R2">
-        <v>0.001802981154870495</v>
+        <v>0.001802981154975146</v>
       </c>
       <c r="S2">
-        <v>9.329891590716367E-10</v>
+        <v>9.329891604668997E-10</v>
       </c>
       <c r="T2">
-        <v>4.401419973907526E-07</v>
+        <v>4.401419978407263E-07</v>
       </c>
       <c r="U2">
-        <v>0.05619384663425862</v>
+        <v>0.05619384661433595</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.001589385777806803</v>
+        <v>0.001589385780653278</v>
       </c>
       <c r="B3">
-        <v>0.6251752943020052</v>
+        <v>0.6251752939774826</v>
       </c>
       <c r="C3">
-        <v>0.01682403352065734</v>
+        <v>0.01682403351388237</v>
       </c>
       <c r="D3">
-        <v>0.02239575487331208</v>
+        <v>0.0223957548766552</v>
       </c>
       <c r="E3">
-        <v>2.158865612717873</v>
+        <v>2.158865634459231</v>
       </c>
       <c r="F3">
-        <v>0.4098337206180414</v>
+        <v>0.4098337204665093</v>
       </c>
       <c r="G3">
-        <v>0.0001434399956464652</v>
+        <v>0.0001434399959538142</v>
       </c>
       <c r="H3">
-        <v>1.597355759089066E-05</v>
+        <v>1.597355760411184E-05</v>
       </c>
       <c r="I3">
-        <v>0.01754047242611424</v>
+        <v>0.01754047242180015</v>
       </c>
       <c r="J3">
-        <v>0.3534902901439402</v>
+        <v>0.3534902922030173</v>
       </c>
       <c r="K3">
-        <v>0.0215546700700864</v>
+        <v>0.02155467008738475</v>
       </c>
       <c r="L3">
-        <v>0.02981985488169428</v>
+        <v>0.02981985510405061</v>
       </c>
       <c r="M3">
-        <v>0.0007488848478615855</v>
+        <v>0.000748884834272438</v>
       </c>
       <c r="N3">
-        <v>8.915348368219524E-08</v>
+        <v>8.915348379034914E-08</v>
       </c>
       <c r="O3">
-        <v>0.0008425452251752265</v>
+        <v>0.0008425452267906769</v>
       </c>
       <c r="P3">
-        <v>0.001396529911458029</v>
+        <v>0.001396529911099827</v>
       </c>
       <c r="Q3">
-        <v>0.001493175615726857</v>
+        <v>0.001493175615027853</v>
       </c>
       <c r="R3">
-        <v>0.005190367476055936</v>
+        <v>0.005190367476401762</v>
       </c>
       <c r="S3">
-        <v>2.679934503795805E-09</v>
+        <v>2.679934505822763E-09</v>
       </c>
       <c r="T3">
-        <v>1.261507906972537E-06</v>
+        <v>1.261507908142072E-06</v>
       </c>
       <c r="U3">
-        <v>0.1607628554612132</v>
+        <v>0.1607628553779617</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.0007455731988910179</v>
+        <v>0.0007455732002176474</v>
       </c>
       <c r="B4">
-        <v>0.1801345609236966</v>
+        <v>0.1801345609314245</v>
       </c>
       <c r="C4">
-        <v>0.005239532312260503</v>
+        <v>0.005239532294622954</v>
       </c>
       <c r="D4">
-        <v>0.007207833473499987</v>
+        <v>0.007207833452520149</v>
       </c>
       <c r="E4">
-        <v>0.2410252627806815</v>
+        <v>0.2410252658964512</v>
       </c>
       <c r="F4">
-        <v>0.04165984133581276</v>
+        <v>0.04165984133890402</v>
       </c>
       <c r="G4">
-        <v>6.396521671035358E-05</v>
+        <v>6.396521660038101E-05</v>
       </c>
       <c r="H4">
-        <v>5.886832147154717E-06</v>
+        <v>5.886832141953604E-06</v>
       </c>
       <c r="I4">
-        <v>0.03173096433201898</v>
+        <v>0.03173096430702879</v>
       </c>
       <c r="J4">
-        <v>0.1617827560936841</v>
+        <v>0.1617827560804581</v>
       </c>
       <c r="K4">
-        <v>0.002825316771231771</v>
+        <v>0.002825316769406032</v>
       </c>
       <c r="L4">
-        <v>0.004497558041068301</v>
+        <v>0.004497558710571135</v>
       </c>
       <c r="M4">
-        <v>0.001973639847839466</v>
+        <v>0.001973639836448201</v>
       </c>
       <c r="N4">
-        <v>3.722272601853051E-08</v>
+        <v>3.722272609461125E-08</v>
       </c>
       <c r="O4">
-        <v>0.0003430673938509838</v>
+        <v>0.0003430673943244636</v>
       </c>
       <c r="P4">
-        <v>0.0004450694718864862</v>
+        <v>0.0004450694745067978</v>
       </c>
       <c r="Q4">
-        <v>0.0004580651623788757</v>
+        <v>0.0004580651650121825</v>
       </c>
       <c r="R4">
-        <v>0.001527990076844925</v>
+        <v>0.001527990075479413</v>
       </c>
       <c r="S4">
-        <v>8.115627840784888E-10</v>
+        <v>8.115627906115743E-10</v>
       </c>
       <c r="T4">
-        <v>5.287685211342481E-07</v>
+        <v>5.28768521352401E-07</v>
       </c>
       <c r="U4">
-        <v>0.008501642887800588</v>
+        <v>0.008501642897267486</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.0004450632856077018</v>
+        <v>0.0004450632861363645</v>
       </c>
       <c r="B5">
-        <v>0.1074058092660721</v>
+        <v>0.1074058092547111</v>
       </c>
       <c r="C5">
-        <v>0.003124723132448188</v>
+        <v>0.00312472312426367</v>
       </c>
       <c r="D5">
-        <v>0.004299108773885734</v>
+        <v>0.004299108764034674</v>
       </c>
       <c r="E5">
-        <v>0.1431449883843798</v>
+        <v>0.1431449905244089</v>
       </c>
       <c r="F5">
-        <v>0.02477905036516247</v>
+        <v>0.02477905036641722</v>
       </c>
       <c r="G5">
-        <v>3.819300012805019E-05</v>
+        <v>3.819300003717079E-05</v>
       </c>
       <c r="H5">
-        <v>3.507886967979789E-06</v>
+        <v>3.507886963412607E-06</v>
       </c>
       <c r="I5">
-        <v>0.01895452919930552</v>
+        <v>0.01895452918440838</v>
       </c>
       <c r="J5">
-        <v>0.09650962236507203</v>
+        <v>0.09650962231210754</v>
       </c>
       <c r="K5">
-        <v>0.001675778569665574</v>
+        <v>0.00167577856887594</v>
       </c>
       <c r="L5">
-        <v>0.002688309383603425</v>
+        <v>0.002688308402589196</v>
       </c>
       <c r="M5">
-        <v>0.001179049240460119</v>
+        <v>0.001179049232020598</v>
       </c>
       <c r="N5">
-        <v>2.215293507225033E-08</v>
+        <v>2.215293510655843E-08</v>
       </c>
       <c r="O5">
-        <v>0.0002047853507252954</v>
+        <v>0.0002047853508296448</v>
       </c>
       <c r="P5">
-        <v>0.0002655421687001384</v>
+        <v>0.0002655421699751811</v>
       </c>
       <c r="Q5">
-        <v>0.0002733020401419454</v>
+        <v>0.0002733020414359524</v>
       </c>
       <c r="R5">
-        <v>0.0009088932950374171</v>
+        <v>0.0009088932940394781</v>
       </c>
       <c r="S5">
-        <v>4.841175006533619E-10</v>
+        <v>4.841174921493054E-10</v>
       </c>
       <c r="T5">
-        <v>3.155460576901424E-07</v>
+        <v>3.155460576825336E-07</v>
       </c>
       <c r="U5">
-        <v>0.005036709162241238</v>
+        <v>0.005036709168993602</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>-0.007664669732332035</v>
+        <v>-0.007664669696140402</v>
       </c>
       <c r="B6">
-        <v>-0.909320330326454</v>
+        <v>-0.909320321991605</v>
       </c>
       <c r="C6">
-        <v>-0.1727463718356027</v>
+        <v>-0.1727463704950447</v>
       </c>
       <c r="D6">
-        <v>-0.2422503582691019</v>
+        <v>-0.2422503565673366</v>
       </c>
       <c r="E6">
-        <v>-60.93644488166991</v>
+        <v>-60.93644470872847</v>
       </c>
       <c r="F6">
-        <v>-0.3010449868438522</v>
+        <v>-0.3010449851290768</v>
       </c>
       <c r="G6">
-        <v>-0.000385186961333429</v>
+        <v>-0.0003851869563107858</v>
       </c>
       <c r="H6">
-        <v>-6.478146775594011E-06</v>
+        <v>-6.478146323609725E-06</v>
       </c>
       <c r="I6">
-        <v>-0.05528266940185463</v>
+        <v>-0.05528266831713712</v>
       </c>
       <c r="J6">
-        <v>-5.489513591943703</v>
+        <v>-5.489513562977473</v>
       </c>
       <c r="K6">
-        <v>0.01757161613434224</v>
+        <v>0.01757161622643976</v>
       </c>
       <c r="L6">
-        <v>0.0288447338255831</v>
+        <v>0.02884472676562702</v>
       </c>
       <c r="M6">
-        <v>0.02437850205583652</v>
+        <v>0.02437850215585421</v>
       </c>
       <c r="N6">
-        <v>-2.760316531929756E-07</v>
+        <v>-2.760316506589161E-07</v>
       </c>
       <c r="O6">
-        <v>-0.002471806566951134</v>
+        <v>-0.002471806548057885</v>
       </c>
       <c r="P6">
-        <v>-0.002334687866653532</v>
+        <v>-0.002334687844288568</v>
       </c>
       <c r="Q6">
-        <v>-0.002484924647610118</v>
+        <v>-0.002484924624192567</v>
       </c>
       <c r="R6">
-        <v>-0.00124221564348512</v>
+        <v>-0.001242215589284109</v>
       </c>
       <c r="S6">
-        <v>-5.335988655538444E-09</v>
+        <v>-5.335988677723653E-09</v>
       </c>
       <c r="T6">
-        <v>-3.835168607900128E-06</v>
+        <v>-3.835168577941314E-06</v>
       </c>
       <c r="U6">
-        <v>-0.08808345346600839</v>
+        <v>-0.08808345310223648</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.006959574551682034</v>
+        <v>0.006959573707427599</v>
       </c>
       <c r="B7">
-        <v>0.6155803708406971</v>
+        <v>0.6155802761515597</v>
       </c>
       <c r="C7">
-        <v>0.2690750959610262</v>
+        <v>0.2690750809062576</v>
       </c>
       <c r="D7">
-        <v>0.3180248896986269</v>
+        <v>0.3180248688615128</v>
       </c>
       <c r="E7">
-        <v>24.63805880172441</v>
+        <v>24.63805429314282</v>
       </c>
       <c r="F7">
-        <v>0.1593620523143366</v>
+        <v>0.1593620292547443</v>
       </c>
       <c r="G7">
-        <v>-0.0002195002764649341</v>
+        <v>-0.000219500313753054</v>
       </c>
       <c r="H7">
-        <v>0.001596620082236977</v>
+        <v>0.001596620079501404</v>
       </c>
       <c r="I7">
-        <v>0.03259464125501613</v>
+        <v>0.03259463393413959</v>
       </c>
       <c r="J7">
-        <v>1.379421360915042</v>
+        <v>1.379420917887586</v>
       </c>
       <c r="K7">
-        <v>0.01479103853462572</v>
+        <v>0.0147910376550427</v>
       </c>
       <c r="L7">
-        <v>2.123278747220276</v>
+        <v>2.123278691261084</v>
       </c>
       <c r="M7">
-        <v>0.003915595872412365</v>
+        <v>0.003915595916019874</v>
       </c>
       <c r="N7">
-        <v>-2.205771349496541E-06</v>
+        <v>-2.205771407491021E-06</v>
       </c>
       <c r="O7">
-        <v>0.002887217692710808</v>
+        <v>0.002887217324052446</v>
       </c>
       <c r="P7">
-        <v>0.004960198418495569</v>
+        <v>0.004960197513605653</v>
       </c>
       <c r="Q7">
-        <v>0.005064426346235728</v>
+        <v>0.005064425430789791</v>
       </c>
       <c r="R7">
-        <v>0.006986423745242993</v>
+        <v>0.006986423523162488</v>
       </c>
       <c r="S7">
-        <v>2.303650150729029E-08</v>
+        <v>2.303650035927706E-08</v>
       </c>
       <c r="T7">
-        <v>2.826953791628868E-06</v>
+        <v>2.826953345437766E-06</v>
       </c>
       <c r="U7">
-        <v>0.02732441544731213</v>
+        <v>0.02732440772801403</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>6.594770395654384E-05</v>
+        <v>7.15741162668244E-05</v>
       </c>
       <c r="B8">
-        <v>0.01915212099814577</v>
+        <v>0.0150600030290046</v>
       </c>
       <c r="C8">
-        <v>0.002370555525382727</v>
+        <v>0.002545512082574117</v>
       </c>
       <c r="D8">
-        <v>0.002997809033544799</v>
+        <v>0.003206823180980642</v>
       </c>
       <c r="E8">
-        <v>0.2222254310867167</v>
+        <v>0.2331785426042479</v>
       </c>
       <c r="F8">
-        <v>0.005090922423206409</v>
+        <v>0.003613911238009313</v>
       </c>
       <c r="G8">
-        <v>7.252054265833842E-06</v>
+        <v>7.300414447399498E-06</v>
       </c>
       <c r="H8">
-        <v>6.385781862776036E-07</v>
+        <v>6.45916537084128E-07</v>
       </c>
       <c r="I8">
-        <v>0.0007446738808564967</v>
+        <v>0.0007985164213937033</v>
       </c>
       <c r="J8">
-        <v>0.03061086937836116</v>
+        <v>0.03287199895467301</v>
       </c>
       <c r="K8">
-        <v>0.002922107623639313</v>
+        <v>0.002913619370766236</v>
       </c>
       <c r="L8">
-        <v>0.01503568890637148</v>
+        <v>0.01848404069804361</v>
       </c>
       <c r="M8">
-        <v>6.21739168777567E-06</v>
+        <v>7.368208146457447E-06</v>
       </c>
       <c r="N8">
-        <v>2.195597671908191E-08</v>
+        <v>2.321288088893122E-08</v>
       </c>
       <c r="O8">
-        <v>4.123148557310031E-05</v>
+        <v>4.285288606389478E-05</v>
       </c>
       <c r="P8">
-        <v>8.090110601829681E-05</v>
+        <v>8.472446830349652E-05</v>
       </c>
       <c r="Q8">
-        <v>8.362450508831821E-05</v>
+        <v>8.707721429151954E-05</v>
       </c>
       <c r="R8">
-        <v>0.0002613252187559281</v>
+        <v>0.0001217630396353725</v>
       </c>
       <c r="S8">
-        <v>2.210768784660136E-10</v>
+        <v>2.421303025903727E-10</v>
       </c>
       <c r="T8">
-        <v>5.383831463236314E-08</v>
+        <v>5.144876797459645E-08</v>
       </c>
       <c r="U8">
-        <v>0.001606038000189893</v>
+        <v>0.001084185285180462</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.08981716841928057</v>
+        <v>0.08981716848448365</v>
       </c>
       <c r="B9">
-        <v>20.59195231094616</v>
+        <v>20.59195229466225</v>
       </c>
       <c r="C9">
-        <v>0.4919298739604543</v>
+        <v>0.4919298700660452</v>
       </c>
       <c r="D9">
-        <v>0.6888601060604125</v>
+        <v>0.6888601009698846</v>
       </c>
       <c r="E9">
-        <v>17.46934452127774</v>
+        <v>17.46934456008256</v>
       </c>
       <c r="F9">
-        <v>4.469172454757582</v>
+        <v>4.469172452717025</v>
       </c>
       <c r="G9">
-        <v>0.006761205960254235</v>
+        <v>0.006761205932655251</v>
       </c>
       <c r="H9">
-        <v>0.0004877493719302989</v>
+        <v>0.0004877493705894296</v>
       </c>
       <c r="I9">
-        <v>4.028008004600856</v>
+        <v>4.028007999655706</v>
       </c>
       <c r="J9">
-        <v>17.21567198366773</v>
+        <v>17.2156719181725</v>
       </c>
       <c r="K9">
-        <v>0.1093007511116959</v>
+        <v>0.109300751087098</v>
       </c>
       <c r="L9">
-        <v>0.1981734831246853</v>
+        <v>0.1981736508695715</v>
       </c>
       <c r="M9">
-        <v>0.2522931488204644</v>
+        <v>0.252293146687021</v>
       </c>
       <c r="N9">
-        <v>3.887160996731081E-06</v>
+        <v>3.887161001558557E-06</v>
       </c>
       <c r="O9">
-        <v>0.04056656295063063</v>
+        <v>0.04056656294650343</v>
       </c>
       <c r="P9">
-        <v>0.05319574662859433</v>
+        <v>0.05319574686949574</v>
       </c>
       <c r="Q9">
-        <v>0.05450810993916626</v>
+        <v>0.05450811018341182</v>
       </c>
       <c r="R9">
-        <v>0.1170714404613726</v>
+        <v>0.117071440176479</v>
       </c>
       <c r="S9">
-        <v>9.064878906997007E-08</v>
+        <v>9.064879053745029E-08</v>
       </c>
       <c r="T9">
-        <v>6.220344170063443E-05</v>
+        <v>6.220344165115493E-05</v>
       </c>
       <c r="U9">
-        <v>0.8057023284323391</v>
+        <v>0.8057023295232227</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.0003736670229771529</v>
+        <v>0.0003736669546194388</v>
       </c>
       <c r="B10">
-        <v>0.03547839143958683</v>
+        <v>0.03547838541319424</v>
       </c>
       <c r="C10">
-        <v>0.01735694913594124</v>
+        <v>0.01735694782535807</v>
       </c>
       <c r="D10">
-        <v>0.02142888673644289</v>
+        <v>0.02142888491154499</v>
       </c>
       <c r="E10">
-        <v>1.087724668119769</v>
+        <v>1.087724247574344</v>
       </c>
       <c r="F10">
-        <v>0.00874584727859504</v>
+        <v>0.00874584583963315</v>
       </c>
       <c r="G10">
-        <v>1.429857804642269E-05</v>
+        <v>1.429857500303334E-05</v>
       </c>
       <c r="H10">
-        <v>1.527606188709171E-06</v>
+        <v>1.527606049091631E-06</v>
       </c>
       <c r="I10">
-        <v>0.005329533769230409</v>
+        <v>0.005329533073915223</v>
       </c>
       <c r="J10">
-        <v>0.1728108974570171</v>
+        <v>0.1728108580141201</v>
       </c>
       <c r="K10">
-        <v>8.878999497702615E-05</v>
+        <v>8.878992947531099E-05</v>
       </c>
       <c r="L10">
-        <v>0.1748642701592799</v>
+        <v>0.1748642638757812</v>
       </c>
       <c r="M10">
-        <v>0.000460913397376984</v>
+        <v>0.0004609134865554191</v>
       </c>
       <c r="N10">
-        <v>1.678931467537075E-07</v>
+        <v>1.678931433229784E-07</v>
       </c>
       <c r="O10">
-        <v>0.0001317687005912705</v>
+        <v>0.0001317686744171931</v>
       </c>
       <c r="P10">
-        <v>0.0004362982531822818</v>
+        <v>0.0004362982054131717</v>
       </c>
       <c r="Q10">
-        <v>0.0004458788729530996</v>
+        <v>0.0004458788245669928</v>
       </c>
       <c r="R10">
-        <v>0.0003881229395145606</v>
+        <v>0.000388122922606841</v>
       </c>
       <c r="S10">
-        <v>1.822862669201976E-09</v>
+        <v>1.82286256787814E-09</v>
       </c>
       <c r="T10">
-        <v>1.742287660837607E-07</v>
+        <v>1.742287326676156E-07</v>
       </c>
       <c r="U10">
-        <v>0.002905566030365626</v>
+        <v>0.002905565621630039</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.00464016426796909</v>
+        <v>0.004640164271131315</v>
       </c>
       <c r="B11">
-        <v>2.136862493486532</v>
+        <v>2.136862493347238</v>
       </c>
       <c r="C11">
-        <v>0.03628000080148726</v>
+        <v>0.03628000083879953</v>
       </c>
       <c r="D11">
-        <v>0.04922742021126948</v>
+        <v>0.0492274202786982</v>
       </c>
       <c r="E11">
-        <v>5.981469720083307</v>
+        <v>5.981469784682248</v>
       </c>
       <c r="F11">
-        <v>1.655948789395215</v>
+        <v>1.655948789207973</v>
       </c>
       <c r="G11">
-        <v>0.0002268687833315451</v>
+        <v>0.0002268687835157406</v>
       </c>
       <c r="H11">
-        <v>2.661409659639985E-05</v>
+        <v>2.661409657903324E-05</v>
       </c>
       <c r="I11">
-        <v>0.04953876717953376</v>
+        <v>0.04953876723314272</v>
       </c>
       <c r="J11">
-        <v>0.8264105058650749</v>
+        <v>0.8264105099361583</v>
       </c>
       <c r="K11">
-        <v>0.03176549731600053</v>
+        <v>0.03176549731435574</v>
       </c>
       <c r="L11">
-        <v>0.02394491443417984</v>
+        <v>0.02394491192951384</v>
       </c>
       <c r="M11">
-        <v>0.002175076818357809</v>
+        <v>0.002175076756617658</v>
       </c>
       <c r="N11">
-        <v>1.604287267848699E-07</v>
+        <v>1.604287271825772E-07</v>
       </c>
       <c r="O11">
-        <v>0.001995633398061727</v>
+        <v>0.00199563339850525</v>
       </c>
       <c r="P11">
-        <v>0.004134859004359903</v>
+        <v>0.004134859001134466</v>
       </c>
       <c r="Q11">
-        <v>0.004473835898245491</v>
+        <v>0.004473835894548414</v>
       </c>
       <c r="R11">
-        <v>0.01576991024351548</v>
+        <v>0.01576991024244286</v>
       </c>
       <c r="S11">
-        <v>8.009723923628232E-09</v>
+        <v>8.009723902091667E-09</v>
       </c>
       <c r="T11">
-        <v>3.628826863559807E-06</v>
+        <v>3.628826864807216E-06</v>
       </c>
       <c r="U11">
-        <v>0.6748054539777011</v>
+        <v>0.67480545387762</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.008446596681755712</v>
+        <v>0.008446596342082852</v>
       </c>
       <c r="B12">
-        <v>0.8152284355311107</v>
+        <v>0.8152284437696917</v>
       </c>
       <c r="C12">
-        <v>0.5096466958453856</v>
+        <v>0.5096466956078868</v>
       </c>
       <c r="D12">
-        <v>0.6197107023115399</v>
+        <v>0.6197107013954319</v>
       </c>
       <c r="E12">
-        <v>34.24860614714736</v>
+        <v>34.24860432685583</v>
       </c>
       <c r="F12">
-        <v>0.1986025896171922</v>
+        <v>0.1986025936530261</v>
       </c>
       <c r="G12">
-        <v>0.0004588961658077504</v>
+        <v>0.0004588961693338718</v>
       </c>
       <c r="H12">
-        <v>0.001235671649100448</v>
+        <v>0.001235671650674605</v>
       </c>
       <c r="I12">
-        <v>0.1042438585277083</v>
+        <v>0.104243861171716</v>
       </c>
       <c r="J12">
-        <v>4.278608322464048</v>
+        <v>4.278608225440406</v>
       </c>
       <c r="K12">
-        <v>0.01762965216164799</v>
+        <v>0.01762965201679735</v>
       </c>
       <c r="L12">
-        <v>2.822853502519021</v>
+        <v>2.822853483806216</v>
       </c>
       <c r="M12">
-        <v>0.002063281770026668</v>
+        <v>0.002063283520487083</v>
       </c>
       <c r="N12">
-        <v>1.929764467891878E-06</v>
+        <v>1.929764454317503E-06</v>
       </c>
       <c r="O12">
-        <v>0.003115942812379982</v>
+        <v>0.003115942706342687</v>
       </c>
       <c r="P12">
-        <v>0.007495162057423115</v>
+        <v>0.007495161821760059</v>
       </c>
       <c r="Q12">
-        <v>0.00766998151648997</v>
+        <v>0.00766998129177284</v>
       </c>
       <c r="R12">
-        <v>0.00804758432419974</v>
+        <v>0.008047584506457931</v>
       </c>
       <c r="S12">
-        <v>3.121155959967163E-08</v>
+        <v>3.121155933697483E-08</v>
       </c>
       <c r="T12">
-        <v>4.062328171609358E-06</v>
+        <v>4.062328099544349E-06</v>
       </c>
       <c r="U12">
-        <v>0.05658618220573539</v>
+        <v>0.05658618346515937</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>-0.0003588602571520118</v>
+        <v>-0.0003588602650873413</v>
       </c>
       <c r="B13">
-        <v>-0.1647369034584676</v>
+        <v>-0.1647369049087132</v>
       </c>
       <c r="C13">
-        <v>-0.03997487669429451</v>
+        <v>-0.03997487712311258</v>
       </c>
       <c r="D13">
-        <v>-0.05149222039798589</v>
+        <v>-0.05149222096175664</v>
       </c>
       <c r="E13">
-        <v>-1.249387403873883</v>
+        <v>-1.2493874512969</v>
       </c>
       <c r="F13">
-        <v>-0.04853409538285583</v>
+        <v>-0.04853409570953739</v>
       </c>
       <c r="G13">
-        <v>-5.55467836930579E-05</v>
+        <v>-5.554678512804239E-05</v>
       </c>
       <c r="H13">
-        <v>-3.397164157868805E-05</v>
+        <v>-3.397164166020614E-05</v>
       </c>
       <c r="I13">
-        <v>-0.009524399905857746</v>
+        <v>-0.009524400176536163</v>
       </c>
       <c r="J13">
-        <v>-0.6402985373937242</v>
+        <v>-0.6402985448447609</v>
       </c>
       <c r="K13">
-        <v>-0.03219664021132351</v>
+        <v>-0.03219664017150884</v>
       </c>
       <c r="L13">
-        <v>-0.009609946280961207</v>
+        <v>-0.009609946303004218</v>
       </c>
       <c r="M13">
-        <v>-0.0002753878620071698</v>
+        <v>-0.0002753879514987875</v>
       </c>
       <c r="N13">
-        <v>-9.526177484490311E-08</v>
+        <v>-9.526177516286135E-08</v>
       </c>
       <c r="O13">
-        <v>-0.0002486555673872567</v>
+        <v>-0.0002486555721057175</v>
       </c>
       <c r="P13">
-        <v>-0.0002489437994671142</v>
+        <v>-0.0002489438050175817</v>
       </c>
       <c r="Q13">
-        <v>-0.0002687332884480734</v>
+        <v>-0.0002687332941384712</v>
       </c>
       <c r="R13">
-        <v>-0.0009053003326215797</v>
+        <v>-0.000905300345476812</v>
       </c>
       <c r="S13">
-        <v>-7.419529711646929E-10</v>
+        <v>-7.419529796959824E-10</v>
       </c>
       <c r="T13">
-        <v>-4.89398580341712E-07</v>
+        <v>-4.893985872844178E-07</v>
       </c>
       <c r="U13">
-        <v>-0.01596443590292443</v>
+        <v>-0.01596443596268018</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.004780964440512429</v>
+        <v>0.004780964434238475</v>
       </c>
       <c r="B14">
-        <v>2.178995773336873</v>
+        <v>2.178995772759341</v>
       </c>
       <c r="C14">
-        <v>0.03811096865938857</v>
+        <v>0.03811096837885958</v>
       </c>
       <c r="D14">
-        <v>0.05165170279362007</v>
+        <v>0.0516517024273193</v>
       </c>
       <c r="E14">
-        <v>6.356138736488902</v>
+        <v>6.356138700377132</v>
       </c>
       <c r="F14">
-        <v>1.625557051357041</v>
+        <v>1.625557051035332</v>
       </c>
       <c r="G14">
-        <v>0.0002562462269276415</v>
+        <v>0.0002562462264405389</v>
       </c>
       <c r="H14">
-        <v>2.84623065268002E-05</v>
+        <v>2.846230651483234E-05</v>
       </c>
       <c r="I14">
-        <v>0.06626840123993448</v>
+        <v>0.06626840111652466</v>
       </c>
       <c r="J14">
-        <v>0.8811122928830343</v>
+        <v>0.8811122875303917</v>
       </c>
       <c r="K14">
-        <v>0.03940658049101711</v>
+        <v>0.03940658050002056</v>
       </c>
       <c r="L14">
-        <v>0.02488069276645899</v>
+        <v>0.02488070092391492</v>
       </c>
       <c r="M14">
-        <v>0.001691993648458816</v>
+        <v>0.001691993608880477</v>
       </c>
       <c r="N14">
-        <v>3.273022417893233E-07</v>
+        <v>3.27302241810965E-07</v>
       </c>
       <c r="O14">
-        <v>0.002113792913227216</v>
+        <v>0.002113792911514898</v>
       </c>
       <c r="P14">
-        <v>0.004469588986192723</v>
+        <v>0.004469588983198295</v>
       </c>
       <c r="Q14">
-        <v>0.004864475232354375</v>
+        <v>0.004864475228917188</v>
       </c>
       <c r="R14">
-        <v>0.01792902229732169</v>
+        <v>0.01792902229285319</v>
       </c>
       <c r="S14">
-        <v>8.241577620504778E-09</v>
+        <v>8.241577688555081E-09</v>
       </c>
       <c r="T14">
-        <v>3.815500276581607E-06</v>
+        <v>3.815500273328109E-06</v>
       </c>
       <c r="U14">
-        <v>0.6571808938855022</v>
+        <v>0.6571808937771234</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>-0.0006754251624440538</v>
+        <v>-0.0006754251660805203</v>
       </c>
       <c r="B15">
-        <v>-0.6003455728296977</v>
+        <v>-0.6003455744346523</v>
       </c>
       <c r="C15">
-        <v>-0.07474441523401672</v>
+        <v>-0.07474441560776993</v>
       </c>
       <c r="D15">
-        <v>-0.09792270260341873</v>
+        <v>-0.09792270309861892</v>
       </c>
       <c r="E15">
-        <v>-1.483742952017328</v>
+        <v>-1.483742992492737</v>
       </c>
       <c r="F15">
-        <v>-0.2011402808492314</v>
+        <v>-0.2011402810092254</v>
       </c>
       <c r="G15">
-        <v>-0.0001090717271107536</v>
+        <v>-0.0001090717286417872</v>
       </c>
       <c r="H15">
-        <v>-8.143851286284748E-05</v>
+        <v>-8.14385129239782E-05</v>
       </c>
       <c r="I15">
-        <v>-0.01684666629496585</v>
+        <v>-0.01684666645951853</v>
       </c>
       <c r="J15">
-        <v>-1.46838904854305</v>
+        <v>-1.468389054884563</v>
       </c>
       <c r="K15">
-        <v>-0.02414078603841563</v>
+        <v>-0.02414078593845291</v>
       </c>
       <c r="L15">
-        <v>0.04254330003271533</v>
+        <v>0.04254329926911907</v>
       </c>
       <c r="M15">
-        <v>-0.0001798799589829894</v>
+        <v>-0.0001798800794441176</v>
       </c>
       <c r="N15">
-        <v>-1.291790960439398E-07</v>
+        <v>-1.291790959207389E-07</v>
       </c>
       <c r="O15">
-        <v>-0.0004922859842429026</v>
+        <v>-0.0004922859864658563</v>
       </c>
       <c r="P15">
-        <v>-0.000586722766979903</v>
+        <v>-0.0005867227612788094</v>
       </c>
       <c r="Q15">
-        <v>-0.0006631586582509832</v>
+        <v>-0.0006631586524126771</v>
       </c>
       <c r="R15">
-        <v>-0.002564824187553906</v>
+        <v>-0.002564824201564906</v>
       </c>
       <c r="S15">
-        <v>-1.685099474134285E-09</v>
+        <v>-1.685099487226948E-09</v>
       </c>
       <c r="T15">
-        <v>-1.263970486853191E-06</v>
+        <v>-1.263970491755616E-06</v>
       </c>
       <c r="U15">
-        <v>-0.06971537042368472</v>
+        <v>-0.06971537041287605</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.01870085536660266</v>
+        <v>0.01870085539270694</v>
       </c>
       <c r="B16">
-        <v>2.600151717222314</v>
+        <v>2.600151714156568</v>
       </c>
       <c r="C16">
-        <v>0.0983457835911682</v>
+        <v>0.09834578179986483</v>
       </c>
       <c r="D16">
-        <v>0.1434096257558349</v>
+        <v>0.1434096234770953</v>
       </c>
       <c r="E16">
-        <v>2.961762384581088</v>
+        <v>2.961762263220343</v>
       </c>
       <c r="F16">
-        <v>0.5841420255158062</v>
+        <v>0.5841420242940208</v>
       </c>
       <c r="G16">
-        <v>0.00478088696676837</v>
+        <v>0.004780886965277053</v>
       </c>
       <c r="H16">
-        <v>0.0003655604699256524</v>
+        <v>0.0003655604695510819</v>
       </c>
       <c r="I16">
-        <v>0.2403620325218969</v>
+        <v>0.2403620309628763</v>
       </c>
       <c r="J16">
-        <v>5.152090329071616</v>
+        <v>5.152090304110802</v>
       </c>
       <c r="K16">
-        <v>-0.1600185455672537</v>
+        <v>-0.1600185459188844</v>
       </c>
       <c r="L16">
-        <v>1.563731853068351</v>
+        <v>1.56373188635147</v>
       </c>
       <c r="M16">
-        <v>0.01012748999517152</v>
+        <v>0.01012748975915334</v>
       </c>
       <c r="N16">
-        <v>5.243888198285099E-07</v>
+        <v>5.24388821575194E-07</v>
       </c>
       <c r="O16">
-        <v>0.01293046417474099</v>
+        <v>0.01293046419163785</v>
       </c>
       <c r="P16">
-        <v>0.008469883919494469</v>
+        <v>0.008469883980199058</v>
       </c>
       <c r="Q16">
-        <v>0.008495035467093258</v>
+        <v>0.008495035525414885</v>
       </c>
       <c r="R16">
-        <v>0.04183000724807909</v>
+        <v>0.04183000721497069</v>
       </c>
       <c r="S16">
-        <v>2.952603130578881E-08</v>
+        <v>2.952603160183568E-08</v>
       </c>
       <c r="T16">
-        <v>1.261208118516925E-05</v>
+        <v>1.261208118206039E-05</v>
       </c>
       <c r="U16">
-        <v>0.0001347748319418286</v>
+        <v>0.0001347744571652543</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0003009920817994881</v>
+        <v>-0.0003009920786660878</v>
       </c>
       <c r="B17">
-        <v>-2.398654597459513</v>
+        <v>-2.398654596919505</v>
       </c>
       <c r="C17">
-        <v>-0.1196209911848463</v>
+        <v>-0.1196209910594239</v>
       </c>
       <c r="D17">
-        <v>-0.159272001083608</v>
+        <v>-0.1592720009184816</v>
       </c>
       <c r="E17">
-        <v>-1.253169223302413</v>
+        <v>-1.253169210131518</v>
       </c>
       <c r="F17">
-        <v>-0.01544141130765882</v>
+        <v>-0.01544141118614898</v>
       </c>
       <c r="G17">
-        <v>-1.152841521787803E-05</v>
+        <v>-1.15284148332514E-05</v>
       </c>
       <c r="H17">
-        <v>-2.169141978033616E-05</v>
+        <v>-2.169141974600936E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02133274647832749</v>
+        <v>-0.02133274637719469</v>
       </c>
       <c r="J17">
-        <v>-2.333581953000543</v>
+        <v>-2.333581950656568</v>
       </c>
       <c r="K17">
-        <v>0.0002297377325666485</v>
+        <v>0.0002297377313890798</v>
       </c>
       <c r="L17">
-        <v>-0.0003537289686121801</v>
+        <v>-0.0003537229576163687</v>
       </c>
       <c r="M17">
-        <v>-0.0002821146926583237</v>
+        <v>-0.0002821146647636314</v>
       </c>
       <c r="N17">
-        <v>-1.034697470834319E-06</v>
+        <v>-1.034697470745748E-06</v>
       </c>
       <c r="O17">
-        <v>-0.0001109728199663801</v>
+        <v>-0.0001109728185654767</v>
       </c>
       <c r="P17">
-        <v>-0.0006372333946584558</v>
+        <v>-0.000637233393926786</v>
       </c>
       <c r="Q17">
-        <v>-0.0006445037573645355</v>
+        <v>-0.000644503756544538</v>
       </c>
       <c r="R17">
-        <v>-0.003509081719714165</v>
+        <v>-0.003509081715284024</v>
       </c>
       <c r="S17">
-        <v>-6.988120074757718E-09</v>
+        <v>-6.988120018605394E-09</v>
       </c>
       <c r="T17">
-        <v>-2.907840506169766E-06</v>
+        <v>-2.907840503907581E-06</v>
       </c>
       <c r="U17">
-        <v>-0.005221392306932537</v>
+        <v>-0.005221392281144373</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>-0.0002036580962383109</v>
+        <v>-0.0002036580946189989</v>
       </c>
       <c r="B18">
-        <v>-3.04081437853264</v>
+        <v>-3.040814378190334</v>
       </c>
       <c r="C18">
-        <v>-0.1585628624674282</v>
+        <v>-0.1585628623988141</v>
       </c>
       <c r="D18">
-        <v>-0.2295784819374868</v>
+        <v>-0.2295784818476242</v>
       </c>
       <c r="E18">
-        <v>-8.828092791132404</v>
+        <v>-8.828092785443232</v>
       </c>
       <c r="F18">
-        <v>-0.01102871280426398</v>
+        <v>-0.01102871272330867</v>
       </c>
       <c r="G18">
-        <v>-4.700623608853769E-06</v>
+        <v>-4.700623394919925E-06</v>
       </c>
       <c r="H18">
-        <v>-4.725445061262674E-06</v>
+        <v>-4.725445040619233E-06</v>
       </c>
       <c r="I18">
-        <v>-0.00704386220449789</v>
+        <v>-0.007043862146020977</v>
       </c>
       <c r="J18">
-        <v>-1.91307514103503</v>
+        <v>-1.913075139853461</v>
       </c>
       <c r="K18">
-        <v>-2.863318409217094E-05</v>
+        <v>-2.863318319151449E-05</v>
       </c>
       <c r="L18">
-        <v>0.0006926504956243131</v>
+        <v>0.0006926485707055141</v>
       </c>
       <c r="M18">
-        <v>-0.0002833099151572724</v>
+        <v>-0.000283309898149485</v>
       </c>
       <c r="N18">
-        <v>-2.358692475297279E-07</v>
+        <v>-2.358692474535249E-07</v>
       </c>
       <c r="O18">
-        <v>-7.002033562111107E-05</v>
+        <v>-7.002033476212274E-05</v>
       </c>
       <c r="P18">
-        <v>-0.0004926923061560981</v>
+        <v>-0.0004926923051417056</v>
       </c>
       <c r="Q18">
-        <v>-0.0004978085149388425</v>
+        <v>-0.0004978085138559736</v>
       </c>
       <c r="R18">
-        <v>-0.001299525937308134</v>
+        <v>-0.001299525934749016</v>
       </c>
       <c r="S18">
-        <v>-8.853898381515868E-09</v>
+        <v>-8.853898396896033E-09</v>
       </c>
       <c r="T18">
-        <v>-3.329123550729215E-06</v>
+        <v>-3.329123549401369E-06</v>
       </c>
       <c r="U18">
-        <v>-0.003800327463099976</v>
+        <v>-0.003800327442323596</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.0001734561934105721</v>
+        <v>-0.0001734561926722255</v>
       </c>
       <c r="B19">
-        <v>-2.568417787885464</v>
+        <v>-2.568417787661454</v>
       </c>
       <c r="C19">
-        <v>-0.133977600619188</v>
+        <v>-0.133977600575899</v>
       </c>
       <c r="D19">
-        <v>-0.1939677476961772</v>
+        <v>-0.1939677476405809</v>
       </c>
       <c r="E19">
-        <v>-7.457176038251951</v>
+        <v>-7.457176037927859</v>
       </c>
       <c r="F19">
-        <v>-0.009495873145182085</v>
+        <v>-0.009495873094397582</v>
       </c>
       <c r="G19">
-        <v>-4.30270379632713E-06</v>
+        <v>-4.302703647135183E-06</v>
       </c>
       <c r="H19">
-        <v>-4.005811068633613E-06</v>
+        <v>-4.005811052235501E-06</v>
       </c>
       <c r="I19">
-        <v>-0.005936573425017489</v>
+        <v>-0.005936573386650136</v>
       </c>
       <c r="J19">
-        <v>-1.616352150146422</v>
+        <v>-1.616352149566679</v>
       </c>
       <c r="K19">
-        <v>-1.813078144146797E-05</v>
+        <v>-1.813078084940475E-05</v>
       </c>
       <c r="L19">
-        <v>0.0005789268486416304</v>
+        <v>0.0005789275524361104</v>
       </c>
       <c r="M19">
-        <v>-0.000266336593791931</v>
+        <v>-0.0002663365788739536</v>
       </c>
       <c r="N19">
-        <v>-1.992672713293716E-07</v>
+        <v>-1.992672712972664E-07</v>
       </c>
       <c r="O19">
-        <v>-6.111853883264646E-05</v>
+        <v>-6.111853835532555E-05</v>
       </c>
       <c r="P19">
-        <v>-0.0004178069561751727</v>
+        <v>-0.0004178069557683407</v>
       </c>
       <c r="Q19">
-        <v>-0.0004223416308460651</v>
+        <v>-0.0004223416303939995</v>
       </c>
       <c r="R19">
-        <v>-0.001257067182154466</v>
+        <v>-0.001257067180169154</v>
       </c>
       <c r="S19">
-        <v>-7.479295833068358E-09</v>
+        <v>-7.479295825839352E-09</v>
       </c>
       <c r="T19">
-        <v>-2.813601088890901E-06</v>
+        <v>-2.813601088118448E-06</v>
       </c>
       <c r="U19">
-        <v>-0.003260262449652133</v>
+        <v>-0.003260262437488469</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>-0.001500247659274148</v>
+        <v>-0.001500247659027945</v>
       </c>
       <c r="B20">
-        <v>-0.8922916438863665</v>
+        <v>-0.8922916434526466</v>
       </c>
       <c r="C20">
-        <v>-0.01610214901275308</v>
+        <v>-0.01610214893565749</v>
       </c>
       <c r="D20">
-        <v>-0.02149513506291084</v>
+        <v>-0.02149513496521062</v>
       </c>
       <c r="E20">
-        <v>-0.1080654672713721</v>
+        <v>-0.108065470787135</v>
       </c>
       <c r="F20">
-        <v>-0.06652740369193633</v>
+        <v>-0.0665274035775209</v>
       </c>
       <c r="G20">
-        <v>-2.482020912606254E-05</v>
+        <v>-2.482020887065318E-05</v>
       </c>
       <c r="H20">
-        <v>-0.000233912729274992</v>
+        <v>-0.0002339127292471035</v>
       </c>
       <c r="I20">
-        <v>-0.002409499498252306</v>
+        <v>-0.002409499403733727</v>
       </c>
       <c r="J20">
-        <v>-0.3979764643724513</v>
+        <v>-0.397976463655996</v>
       </c>
       <c r="K20">
-        <v>0.0004984779120849685</v>
+        <v>0.000498477907952533</v>
       </c>
       <c r="L20">
-        <v>0.004533644430092596</v>
+        <v>0.004533645914078591</v>
       </c>
       <c r="M20">
-        <v>-0.0008352715422634011</v>
+        <v>-0.0008352715108092276</v>
       </c>
       <c r="N20">
-        <v>-1.177610179817104E-05</v>
+        <v>-1.177610179812918E-05</v>
       </c>
       <c r="O20">
-        <v>-0.0004936661938110971</v>
+        <v>-0.0004936661933177578</v>
       </c>
       <c r="P20">
-        <v>-0.003348344081195306</v>
+        <v>-0.003348344080647232</v>
       </c>
       <c r="Q20">
-        <v>-0.0033743721773356</v>
+        <v>-0.003374372176663866</v>
       </c>
       <c r="R20">
-        <v>-0.0006539961522081018</v>
+        <v>-0.0006539961484504765</v>
       </c>
       <c r="S20">
-        <v>-3.243014305621405E-09</v>
+        <v>-3.243014290900422E-09</v>
       </c>
       <c r="T20">
-        <v>-1.248502591531555E-06</v>
+        <v>-1.24850259033233E-06</v>
       </c>
       <c r="U20">
-        <v>-0.02300218645242291</v>
+        <v>-0.02300218641961606</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>0.0001151940990927602</v>
+        <v>0.0001151940984545962</v>
       </c>
       <c r="B21">
-        <v>0.0273116646664024</v>
+        <v>0.02731166461882529</v>
       </c>
       <c r="C21">
-        <v>0.000844348663958428</v>
+        <v>0.000844348652161269</v>
       </c>
       <c r="D21">
-        <v>0.000895558438371626</v>
+        <v>0.0008955584205525039</v>
       </c>
       <c r="E21">
-        <v>0.07253190143608225</v>
+        <v>0.07253189829999784</v>
       </c>
       <c r="F21">
-        <v>0.01628193695164256</v>
+        <v>0.01628193693716696</v>
       </c>
       <c r="G21">
-        <v>9.790751786550252E-06</v>
+        <v>9.790751736250044E-06</v>
       </c>
       <c r="H21">
-        <v>4.857733195519374E-05</v>
+        <v>4.857733195254613E-05</v>
       </c>
       <c r="I21">
-        <v>0.0007208153008853982</v>
+        <v>0.0007208152805300257</v>
       </c>
       <c r="J21">
-        <v>0.02021889403806747</v>
+        <v>0.02021889369440248</v>
       </c>
       <c r="K21">
-        <v>0.0006600925077088343</v>
+        <v>0.0006600925078370804</v>
       </c>
       <c r="L21">
-        <v>0.003555164790992</v>
+        <v>0.003555164750518044</v>
       </c>
       <c r="M21">
-        <v>3.5781068623419E-05</v>
+        <v>3.578106655380762E-05</v>
       </c>
       <c r="N21">
-        <v>4.925607589126881E-08</v>
+        <v>4.925607587196274E-08</v>
       </c>
       <c r="O21">
-        <v>3.620179464038575E-05</v>
+        <v>3.620179436263877E-05</v>
       </c>
       <c r="P21">
-        <v>0.0005415199805454137</v>
+        <v>0.0005415199802825227</v>
       </c>
       <c r="Q21">
-        <v>0.0008404220180452568</v>
+        <v>0.0008404220177769857</v>
       </c>
       <c r="R21">
-        <v>0.005430711177746951</v>
+        <v>0.005430711177411571</v>
       </c>
       <c r="S21">
-        <v>2.489757040525624E-10</v>
+        <v>2.48975703310721E-10</v>
       </c>
       <c r="T21">
-        <v>6.768402764462924E-08</v>
+        <v>6.768402727905089E-08</v>
       </c>
       <c r="U21">
-        <v>0.006300127242785174</v>
+        <v>0.006300127238478158</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
@@ -507,1302 +507,1302 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0005546509623908738</v>
+        <v>0.0005546509584447492</v>
       </c>
       <c r="B2">
-        <v>0.2183325575242417</v>
+        <v>0.2183325568740978</v>
       </c>
       <c r="C2">
-        <v>0.005876693280781824</v>
+        <v>0.005876693090266931</v>
       </c>
       <c r="D2">
-        <v>0.007822341323354515</v>
+        <v>0.007822341071062385</v>
       </c>
       <c r="E2">
-        <v>0.7548931496497638</v>
+        <v>0.7548931196024554</v>
       </c>
       <c r="F2">
-        <v>0.1432192406125239</v>
+        <v>0.1432192404296181</v>
       </c>
       <c r="G2">
-        <v>4.971956257531304E-05</v>
+        <v>4.971956209597833E-05</v>
       </c>
       <c r="H2">
-        <v>5.551816894361423E-06</v>
+        <v>5.551816859417255E-06</v>
       </c>
       <c r="I2">
-        <v>0.006116426235591773</v>
+        <v>0.006116426159045564</v>
       </c>
       <c r="J2">
-        <v>0.1232933215233541</v>
+        <v>0.123293317451023</v>
       </c>
       <c r="K2">
-        <v>0.007527498021692145</v>
+        <v>0.007527498015225494</v>
       </c>
       <c r="L2">
-        <v>0.01012332002129519</v>
+        <v>0.01012332009023658</v>
       </c>
       <c r="M2">
-        <v>0.0002612648179187289</v>
+        <v>0.0002612647988680958</v>
       </c>
       <c r="N2">
-        <v>3.107943681456653E-08</v>
+        <v>3.107943658656377E-08</v>
       </c>
       <c r="O2">
-        <v>0.0002937187544875</v>
+        <v>0.0002937187527027142</v>
       </c>
       <c r="P2">
-        <v>0.0004875848636360645</v>
+        <v>0.0004875848616736726</v>
       </c>
       <c r="Q2">
-        <v>0.0005212374182051417</v>
+        <v>0.0005212374161010825</v>
       </c>
       <c r="R2">
-        <v>0.001802981154975146</v>
+        <v>0.001802981149936201</v>
       </c>
       <c r="S2">
-        <v>9.329891604668997E-10</v>
+        <v>9.329891573280512E-10</v>
       </c>
       <c r="T2">
-        <v>4.401419978407263E-07</v>
+        <v>4.401419949201748E-07</v>
       </c>
       <c r="U2">
-        <v>0.05619384661433595</v>
+        <v>0.05619384657055907</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.001589385780653278</v>
+        <v>0.001589385770546687</v>
       </c>
       <c r="B3">
-        <v>0.6251752939774826</v>
+        <v>0.6251752922034259</v>
       </c>
       <c r="C3">
-        <v>0.01682403351388237</v>
+        <v>0.01682403301253739</v>
       </c>
       <c r="D3">
-        <v>0.0223957548766552</v>
+        <v>0.02239575421089156</v>
       </c>
       <c r="E3">
-        <v>2.158865634459231</v>
+        <v>2.158865557855223</v>
       </c>
       <c r="F3">
-        <v>0.4098337204665093</v>
+        <v>0.4098337199908204</v>
       </c>
       <c r="G3">
-        <v>0.0001434399959538142</v>
+        <v>0.0001434399947021301</v>
       </c>
       <c r="H3">
-        <v>1.597355760411184E-05</v>
+        <v>1.597355750739085E-05</v>
       </c>
       <c r="I3">
-        <v>0.01754047242180015</v>
+        <v>0.01754047220339426</v>
       </c>
       <c r="J3">
-        <v>0.3534902922030173</v>
+        <v>0.3534902816667242</v>
       </c>
       <c r="K3">
-        <v>0.02155467008738475</v>
+        <v>0.02155467006962049</v>
       </c>
       <c r="L3">
-        <v>0.02981985510405061</v>
+        <v>0.0298198539857026</v>
       </c>
       <c r="M3">
-        <v>0.000748884834272438</v>
+        <v>0.0007488847827643197</v>
       </c>
       <c r="N3">
-        <v>8.915348379034914E-08</v>
+        <v>8.915348323724744E-08</v>
       </c>
       <c r="O3">
-        <v>0.0008425452267906769</v>
+        <v>0.0008425452225295803</v>
       </c>
       <c r="P3">
-        <v>0.001396529911099827</v>
+        <v>0.00139652990763049</v>
       </c>
       <c r="Q3">
-        <v>0.001493175615027853</v>
+        <v>0.001493175611186031</v>
       </c>
       <c r="R3">
-        <v>0.005190367476401762</v>
+        <v>0.005190367462603101</v>
       </c>
       <c r="S3">
-        <v>2.679934505822763E-09</v>
+        <v>2.679934486159692E-09</v>
       </c>
       <c r="T3">
-        <v>1.261507908142072E-06</v>
+        <v>1.261507900657069E-06</v>
       </c>
       <c r="U3">
-        <v>0.1607628553779617</v>
+        <v>0.1607628552666888</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.0007455732002176474</v>
+        <v>0.3856107710393729</v>
       </c>
       <c r="B4">
-        <v>0.1801345609314245</v>
+        <v>93.15396625678795</v>
       </c>
       <c r="C4">
-        <v>0.005239532294622954</v>
+        <v>2.753542348343091</v>
       </c>
       <c r="D4">
-        <v>0.007207833452520149</v>
+        <v>3.781842132261292</v>
       </c>
       <c r="E4">
-        <v>0.2410252658964512</v>
+        <v>126.7681404660074</v>
       </c>
       <c r="F4">
-        <v>0.04165984133890402</v>
+        <v>21.59916728113279</v>
       </c>
       <c r="G4">
-        <v>6.396521660038101E-05</v>
+        <v>0.03322869644540515</v>
       </c>
       <c r="H4">
-        <v>5.886832141953604E-06</v>
+        <v>0.003064188240455718</v>
       </c>
       <c r="I4">
-        <v>0.03173096430702879</v>
+        <v>16.31174876370586</v>
       </c>
       <c r="J4">
-        <v>0.1617827560804581</v>
+        <v>84.08557418515117</v>
       </c>
       <c r="K4">
-        <v>0.002825316769406032</v>
+        <v>1.628405311319381</v>
       </c>
       <c r="L4">
-        <v>0.004497558710571135</v>
+        <v>2.49522806781614</v>
       </c>
       <c r="M4">
-        <v>0.001973639836448201</v>
+        <v>1.021915238366053</v>
       </c>
       <c r="N4">
-        <v>3.722272609461125E-08</v>
+        <v>1.942427937744794E-05</v>
       </c>
       <c r="O4">
-        <v>0.0003430673943244636</v>
+        <v>0.1776069427252566</v>
       </c>
       <c r="P4">
-        <v>0.0004450694745067978</v>
+        <v>0.2303092937211908</v>
       </c>
       <c r="Q4">
-        <v>0.0004580651650121825</v>
+        <v>0.2371040683081201</v>
       </c>
       <c r="R4">
-        <v>0.001527990075479413</v>
+        <v>0.788406805981282</v>
       </c>
       <c r="S4">
-        <v>8.115627906115743E-10</v>
+        <v>4.213902224675778E-07</v>
       </c>
       <c r="T4">
-        <v>5.28768521352401E-07</v>
+        <v>0.0002733380989064707</v>
       </c>
       <c r="U4">
-        <v>0.008501642897267486</v>
+        <v>4.431042518779119</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.0004450632861363645</v>
+        <v>0.2301887402852643</v>
       </c>
       <c r="B5">
-        <v>0.1074058092547111</v>
+        <v>55.54429691050436</v>
       </c>
       <c r="C5">
-        <v>0.00312472312426367</v>
+        <v>1.642217919615161</v>
       </c>
       <c r="D5">
-        <v>0.004299108764034674</v>
+        <v>2.255768606231102</v>
       </c>
       <c r="E5">
-        <v>0.1431449905244089</v>
+        <v>75.2989652026793</v>
       </c>
       <c r="F5">
-        <v>0.02477905036641722</v>
+        <v>12.84769043683983</v>
       </c>
       <c r="G5">
-        <v>3.819300003717079E-05</v>
+        <v>0.01984070727870087</v>
       </c>
       <c r="H5">
-        <v>3.507886963412607E-06</v>
+        <v>0.001825982561030601</v>
       </c>
       <c r="I5">
-        <v>0.01895452918440838</v>
+        <v>9.743847765478835</v>
       </c>
       <c r="J5">
-        <v>0.09650962231210754</v>
+        <v>50.16134832043239</v>
       </c>
       <c r="K5">
-        <v>0.00167577856887594</v>
+        <v>0.9666425306360978</v>
       </c>
       <c r="L5">
-        <v>0.002688308402589196</v>
+        <v>1.49142559853571</v>
       </c>
       <c r="M5">
-        <v>0.001179049232020598</v>
+        <v>0.6104916834763983</v>
       </c>
       <c r="N5">
-        <v>2.215293510655843E-08</v>
+        <v>1.156105421103344E-05</v>
       </c>
       <c r="O5">
-        <v>0.0002047853508296448</v>
+        <v>0.1060189112876083</v>
       </c>
       <c r="P5">
-        <v>0.0002655421699751811</v>
+        <v>0.1374114000162011</v>
       </c>
       <c r="Q5">
-        <v>0.0002733020414359524</v>
+        <v>0.1414686886614104</v>
       </c>
       <c r="R5">
-        <v>0.0009088932940394781</v>
+        <v>0.4689797434962416</v>
       </c>
       <c r="S5">
-        <v>4.841174921493054E-10</v>
+        <v>2.513748579772703E-07</v>
       </c>
       <c r="T5">
-        <v>3.155460576825336E-07</v>
+        <v>0.0001631178838053356</v>
       </c>
       <c r="U5">
-        <v>0.005036709168993602</v>
+        <v>2.62547917815856</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>-0.007664669696140402</v>
+        <v>-0.007664669685584015</v>
       </c>
       <c r="B6">
-        <v>-0.909320321991605</v>
+        <v>-0.9093203224203231</v>
       </c>
       <c r="C6">
-        <v>-0.1727463704950447</v>
+        <v>-0.1727463704111412</v>
       </c>
       <c r="D6">
-        <v>-0.2422503565673366</v>
+        <v>-0.242250356433225</v>
       </c>
       <c r="E6">
-        <v>-60.93644470872847</v>
+        <v>-60.93644462935239</v>
       </c>
       <c r="F6">
-        <v>-0.3010449851290768</v>
+        <v>-0.3010449852446601</v>
       </c>
       <c r="G6">
-        <v>-0.0003851869563107858</v>
+        <v>-0.0003851869565584517</v>
       </c>
       <c r="H6">
-        <v>-6.478146323609725E-06</v>
+        <v>-6.478146317644373E-06</v>
       </c>
       <c r="I6">
-        <v>-0.05528266831713712</v>
+        <v>-0.05528266847100834</v>
       </c>
       <c r="J6">
-        <v>-5.489513562977473</v>
+        <v>-5.489513556244153</v>
       </c>
       <c r="K6">
-        <v>0.01757161622643976</v>
+        <v>0.01757161622829284</v>
       </c>
       <c r="L6">
-        <v>0.02884472676562702</v>
+        <v>0.02884472737703695</v>
       </c>
       <c r="M6">
-        <v>0.02437850215585421</v>
+        <v>0.02437850209777627</v>
       </c>
       <c r="N6">
-        <v>-2.760316506589161E-07</v>
+        <v>-2.760316503567335E-07</v>
       </c>
       <c r="O6">
-        <v>-0.002471806548057885</v>
+        <v>-0.002471806546921608</v>
       </c>
       <c r="P6">
-        <v>-0.002334687844288568</v>
+        <v>-0.002334687843421447</v>
       </c>
       <c r="Q6">
-        <v>-0.002484924624192567</v>
+        <v>-0.002484924623574578</v>
       </c>
       <c r="R6">
-        <v>-0.001242215589284109</v>
+        <v>-0.001242215592557259</v>
       </c>
       <c r="S6">
-        <v>-5.335988677723653E-09</v>
+        <v>-5.335988670367245E-09</v>
       </c>
       <c r="T6">
-        <v>-3.835168577941314E-06</v>
+        <v>-3.835168576610902E-06</v>
       </c>
       <c r="U6">
-        <v>-0.08808345310223648</v>
+        <v>-0.08808345313685673</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.006959573707427599</v>
+        <v>0.006959574285326795</v>
       </c>
       <c r="B7">
-        <v>0.6155802761515597</v>
+        <v>0.6155803786403695</v>
       </c>
       <c r="C7">
-        <v>0.2690750809062576</v>
+        <v>0.2690751007437128</v>
       </c>
       <c r="D7">
-        <v>0.3180248688615128</v>
+        <v>0.3180248958433786</v>
       </c>
       <c r="E7">
-        <v>24.63805429314282</v>
+        <v>24.63805906518181</v>
       </c>
       <c r="F7">
-        <v>0.1593620292547443</v>
+        <v>0.1593620556489335</v>
       </c>
       <c r="G7">
-        <v>-0.000219500313753054</v>
+        <v>-0.0002195002637615956</v>
       </c>
       <c r="H7">
-        <v>0.001596620079501404</v>
+        <v>0.001596620082444029</v>
       </c>
       <c r="I7">
-        <v>0.03259463393413959</v>
+        <v>0.03259464737557124</v>
       </c>
       <c r="J7">
-        <v>1.379420917887586</v>
+        <v>1.379421431140307</v>
       </c>
       <c r="K7">
-        <v>0.0147910376550427</v>
+        <v>0.01479103998884844</v>
       </c>
       <c r="L7">
-        <v>2.123278691261084</v>
+        <v>2.123278704443977</v>
       </c>
       <c r="M7">
-        <v>0.003915595916019874</v>
+        <v>0.003915595790450126</v>
       </c>
       <c r="N7">
-        <v>-2.205771407491021E-06</v>
+        <v>-2.205771354996922E-06</v>
       </c>
       <c r="O7">
-        <v>0.002887217324052446</v>
+        <v>0.002887217606972166</v>
       </c>
       <c r="P7">
-        <v>0.004960197513605653</v>
+        <v>0.004960198239980839</v>
       </c>
       <c r="Q7">
-        <v>0.005064425430789791</v>
+        <v>0.005064426174712752</v>
       </c>
       <c r="R7">
-        <v>0.006986423523162488</v>
+        <v>0.006986423884602301</v>
       </c>
       <c r="S7">
-        <v>2.303650035927706E-08</v>
+        <v>2.303650108630966E-08</v>
       </c>
       <c r="T7">
-        <v>2.826953345437766E-06</v>
+        <v>2.826953781510045E-06</v>
       </c>
       <c r="U7">
-        <v>0.02732440772801403</v>
+        <v>0.02732441592917184</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>7.15741162668244E-05</v>
+        <v>7.157411586798978E-05</v>
       </c>
       <c r="B8">
-        <v>0.0150600030290046</v>
+        <v>0.01506000272059048</v>
       </c>
       <c r="C8">
-        <v>0.002545512082574117</v>
+        <v>0.002545512011195416</v>
       </c>
       <c r="D8">
-        <v>0.003206823180980642</v>
+        <v>0.003206823088782026</v>
       </c>
       <c r="E8">
-        <v>0.2331785426042479</v>
+        <v>0.233178538573205</v>
       </c>
       <c r="F8">
-        <v>0.003613911238009313</v>
+        <v>0.003613911137374347</v>
       </c>
       <c r="G8">
-        <v>7.300414447399498E-06</v>
+        <v>7.300414208096325E-06</v>
       </c>
       <c r="H8">
-        <v>6.45916537084128E-07</v>
+        <v>6.459165310016648E-07</v>
       </c>
       <c r="I8">
-        <v>0.0007985164213937033</v>
+        <v>0.0007985163701149712</v>
       </c>
       <c r="J8">
-        <v>0.03287199895467301</v>
+        <v>0.03287199805135821</v>
       </c>
       <c r="K8">
-        <v>0.002913619370766236</v>
+        <v>0.002913619376964664</v>
       </c>
       <c r="L8">
-        <v>0.01848404069804361</v>
+        <v>0.01848404079362176</v>
       </c>
       <c r="M8">
-        <v>7.368208146457447E-06</v>
+        <v>7.36818915819386E-06</v>
       </c>
       <c r="N8">
-        <v>2.321288088893122E-08</v>
+        <v>2.321288086647067E-08</v>
       </c>
       <c r="O8">
-        <v>4.285288606389478E-05</v>
+        <v>4.2852885559954E-05</v>
       </c>
       <c r="P8">
-        <v>8.472446830349652E-05</v>
+        <v>8.472446792152748E-05</v>
       </c>
       <c r="Q8">
-        <v>8.707721429151954E-05</v>
+        <v>8.70772138148869E-05</v>
       </c>
       <c r="R8">
-        <v>0.0001217630396353725</v>
+        <v>0.0001217630368967704</v>
       </c>
       <c r="S8">
-        <v>2.421303025903727E-10</v>
+        <v>2.421303021639797E-10</v>
       </c>
       <c r="T8">
-        <v>5.144876797459645E-08</v>
+        <v>5.144876698895185E-08</v>
       </c>
       <c r="U8">
-        <v>0.001084185285180462</v>
+        <v>0.001084185258054697</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.08981716848448365</v>
+        <v>0.08981716796292778</v>
       </c>
       <c r="B9">
-        <v>20.59195229466225</v>
+        <v>20.59195223276823</v>
       </c>
       <c r="C9">
-        <v>0.4919298700660452</v>
+        <v>0.4919298582652749</v>
       </c>
       <c r="D9">
-        <v>0.6888601009698846</v>
+        <v>0.6888600849072067</v>
       </c>
       <c r="E9">
-        <v>17.46934456008256</v>
+        <v>17.46934182655274</v>
       </c>
       <c r="F9">
-        <v>4.469172452717025</v>
+        <v>4.469172435550137</v>
       </c>
       <c r="G9">
-        <v>0.006761205932655251</v>
+        <v>0.006761205913085587</v>
       </c>
       <c r="H9">
-        <v>0.0004877493705894296</v>
+        <v>0.0004877493682739324</v>
       </c>
       <c r="I9">
-        <v>4.028007999655706</v>
+        <v>4.028007995022338</v>
       </c>
       <c r="J9">
-        <v>17.2156719181725</v>
+        <v>17.21567161332926</v>
       </c>
       <c r="K9">
-        <v>0.109300751087098</v>
+        <v>0.1093007498203016</v>
       </c>
       <c r="L9">
-        <v>0.1981736508695715</v>
+        <v>0.1981736581824075</v>
       </c>
       <c r="M9">
-        <v>0.252293146687021</v>
+        <v>0.2522931474544932</v>
       </c>
       <c r="N9">
-        <v>3.887161001558557E-06</v>
+        <v>3.887160969223812E-06</v>
       </c>
       <c r="O9">
-        <v>0.04056656294650343</v>
+        <v>0.04056656273505524</v>
       </c>
       <c r="P9">
-        <v>0.05319574686949574</v>
+        <v>0.0531957463152982</v>
       </c>
       <c r="Q9">
-        <v>0.05450811018341182</v>
+        <v>0.05450810961604142</v>
       </c>
       <c r="R9">
-        <v>0.117071440176479</v>
+        <v>0.1170714399826543</v>
       </c>
       <c r="S9">
-        <v>9.064879053745029E-08</v>
+        <v>9.064879019109323E-08</v>
       </c>
       <c r="T9">
-        <v>6.220344165115493E-05</v>
+        <v>6.220344137500195E-05</v>
       </c>
       <c r="U9">
-        <v>0.8057023295232227</v>
+        <v>0.8057023236137895</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.0003736669546194388</v>
+        <v>0.0003736670050831104</v>
       </c>
       <c r="B10">
-        <v>0.03547838541319424</v>
+        <v>0.03547838983170603</v>
       </c>
       <c r="C10">
-        <v>0.01735694782535807</v>
+        <v>0.01735694919883438</v>
       </c>
       <c r="D10">
-        <v>0.02142888491154499</v>
+        <v>0.02142888680162993</v>
       </c>
       <c r="E10">
-        <v>1.087724247574344</v>
+        <v>1.087724627579765</v>
       </c>
       <c r="F10">
-        <v>0.00874584583963315</v>
+        <v>0.008745846780357171</v>
       </c>
       <c r="G10">
-        <v>1.429857500303334E-05</v>
+        <v>1.42985783166762E-05</v>
       </c>
       <c r="H10">
-        <v>1.527606049091631E-06</v>
+        <v>1.527606219471847E-06</v>
       </c>
       <c r="I10">
-        <v>0.005329533073915223</v>
+        <v>0.005329533557567661</v>
       </c>
       <c r="J10">
-        <v>0.1728108580141201</v>
+        <v>0.1728108968555432</v>
       </c>
       <c r="K10">
-        <v>8.878992947531099E-05</v>
+        <v>8.879004205207612E-05</v>
       </c>
       <c r="L10">
-        <v>0.1748642638757812</v>
+        <v>0.1748642683053626</v>
       </c>
       <c r="M10">
-        <v>0.0004609134865554191</v>
+        <v>0.0004609133918243076</v>
       </c>
       <c r="N10">
-        <v>1.678931433229784E-07</v>
+        <v>1.678931451931732E-07</v>
       </c>
       <c r="O10">
-        <v>0.0001317686744171931</v>
+        <v>0.0001317686912273928</v>
       </c>
       <c r="P10">
-        <v>0.0004362982054131717</v>
+        <v>0.0004362982220201086</v>
       </c>
       <c r="Q10">
-        <v>0.0004458788245669928</v>
+        <v>0.0004458788414069401</v>
       </c>
       <c r="R10">
-        <v>0.000388122922606841</v>
+        <v>0.0003881229447997396</v>
       </c>
       <c r="S10">
-        <v>1.82286256787814E-09</v>
+        <v>1.822862640148604E-09</v>
       </c>
       <c r="T10">
-        <v>1.742287326676156E-07</v>
+        <v>1.742287578488498E-07</v>
       </c>
       <c r="U10">
-        <v>0.002905565621630039</v>
+        <v>0.002905565773500049</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.004640164271131315</v>
+        <v>0.004640164252033126</v>
       </c>
       <c r="B11">
-        <v>2.136862493347238</v>
+        <v>2.136862488816856</v>
       </c>
       <c r="C11">
-        <v>0.03628000083879953</v>
+        <v>0.03627999967184593</v>
       </c>
       <c r="D11">
-        <v>0.0492274202786982</v>
+        <v>0.04922741873219707</v>
       </c>
       <c r="E11">
-        <v>5.981469784682248</v>
+        <v>5.981469606415613</v>
       </c>
       <c r="F11">
-        <v>1.655948789207973</v>
+        <v>1.655948788130919</v>
       </c>
       <c r="G11">
-        <v>0.0002268687835157406</v>
+        <v>0.0002268687804375229</v>
       </c>
       <c r="H11">
-        <v>2.661409657903324E-05</v>
+        <v>2.66140963600388E-05</v>
       </c>
       <c r="I11">
-        <v>0.04953876723314272</v>
+        <v>0.04953876666401649</v>
       </c>
       <c r="J11">
-        <v>0.8264105099361583</v>
+        <v>0.8264104853782261</v>
       </c>
       <c r="K11">
-        <v>0.03176549731435574</v>
+        <v>0.03176549726614046</v>
       </c>
       <c r="L11">
-        <v>0.02394491192951384</v>
+        <v>0.02394491229809324</v>
       </c>
       <c r="M11">
-        <v>0.002175076756617658</v>
+        <v>0.002175076624525677</v>
       </c>
       <c r="N11">
-        <v>1.604287271825772E-07</v>
+        <v>1.604287258009161E-07</v>
       </c>
       <c r="O11">
-        <v>0.00199563339850525</v>
+        <v>0.001995633390017498</v>
       </c>
       <c r="P11">
-        <v>0.004134859001134466</v>
+        <v>0.004134858996330632</v>
       </c>
       <c r="Q11">
-        <v>0.004473835894548414</v>
+        <v>0.004473835889018002</v>
       </c>
       <c r="R11">
-        <v>0.01576991024244286</v>
+        <v>0.01576991020995487</v>
       </c>
       <c r="S11">
-        <v>8.009723902091667E-09</v>
+        <v>8.009723882846393E-09</v>
       </c>
       <c r="T11">
-        <v>3.628826864807216E-06</v>
+        <v>3.628826847704604E-06</v>
       </c>
       <c r="U11">
-        <v>0.67480545387762</v>
+        <v>0.6748054536449154</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.008446596342082852</v>
+        <v>0.008446596955809195</v>
       </c>
       <c r="B12">
-        <v>0.8152284437696917</v>
+        <v>0.8152285798767331</v>
       </c>
       <c r="C12">
-        <v>0.5096466956078868</v>
+        <v>0.5096467058196466</v>
       </c>
       <c r="D12">
-        <v>0.6197107013954319</v>
+        <v>0.6197107148713552</v>
       </c>
       <c r="E12">
-        <v>34.24860432685583</v>
+        <v>34.24860568673053</v>
       </c>
       <c r="F12">
-        <v>0.1986025936530261</v>
+        <v>0.1986026328799093</v>
       </c>
       <c r="G12">
-        <v>0.0004588961693338718</v>
+        <v>0.0004588961975893625</v>
       </c>
       <c r="H12">
-        <v>0.001235671650674605</v>
+        <v>0.001235671653469255</v>
       </c>
       <c r="I12">
-        <v>0.104243861171716</v>
+        <v>0.1042438684759089</v>
       </c>
       <c r="J12">
-        <v>4.278608225440406</v>
+        <v>4.278608407530314</v>
       </c>
       <c r="K12">
-        <v>0.01762965201679735</v>
+        <v>0.01762965351680261</v>
       </c>
       <c r="L12">
-        <v>2.822853483806216</v>
+        <v>2.822853493147068</v>
       </c>
       <c r="M12">
-        <v>0.002063283520487083</v>
+        <v>0.002063284628165305</v>
       </c>
       <c r="N12">
-        <v>1.929764454317503E-06</v>
+        <v>1.929764542017424E-06</v>
       </c>
       <c r="O12">
-        <v>0.003115942706342687</v>
+        <v>0.003115943117691484</v>
       </c>
       <c r="P12">
-        <v>0.007495161821760059</v>
+        <v>0.007495163504336954</v>
       </c>
       <c r="Q12">
-        <v>0.00766998129177284</v>
+        <v>0.007669983007429376</v>
       </c>
       <c r="R12">
-        <v>0.008047584506457931</v>
+        <v>0.008047584766839325</v>
       </c>
       <c r="S12">
-        <v>3.121155933697483E-08</v>
+        <v>3.121156019539396E-08</v>
       </c>
       <c r="T12">
-        <v>4.062328099544349E-06</v>
+        <v>4.062328552527172E-06</v>
       </c>
       <c r="U12">
-        <v>0.05658618346515937</v>
+        <v>0.05658619932563141</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>-0.0003588602650873413</v>
+        <v>-0.0003588602426150501</v>
       </c>
       <c r="B13">
-        <v>-0.1647369049087132</v>
+        <v>-0.1647368993488378</v>
       </c>
       <c r="C13">
-        <v>-0.03997487712311258</v>
+        <v>-0.03997487600996898</v>
       </c>
       <c r="D13">
-        <v>-0.05149222096175664</v>
+        <v>-0.05149221949641247</v>
       </c>
       <c r="E13">
-        <v>-1.2493874512969</v>
+        <v>-1.249387320174895</v>
       </c>
       <c r="F13">
-        <v>-0.04853409570953739</v>
+        <v>-0.04853409425040264</v>
       </c>
       <c r="G13">
-        <v>-5.554678512804239E-05</v>
+        <v>-5.554678152910233E-05</v>
       </c>
       <c r="H13">
-        <v>-3.397164166020614E-05</v>
+        <v>-3.397164145034957E-05</v>
       </c>
       <c r="I13">
-        <v>-0.009524400176536163</v>
+        <v>-0.00952439906112928</v>
       </c>
       <c r="J13">
-        <v>-0.6402985448447609</v>
+        <v>-0.640298525832333</v>
       </c>
       <c r="K13">
-        <v>-0.03219664017150884</v>
+        <v>-0.03219664019997145</v>
       </c>
       <c r="L13">
-        <v>-0.009609946303004218</v>
+        <v>-0.009609945961862985</v>
       </c>
       <c r="M13">
-        <v>-0.0002753879514987875</v>
+        <v>-0.0002753877143714493</v>
       </c>
       <c r="N13">
-        <v>-9.526177516286135E-08</v>
+        <v>-9.526177383565878E-08</v>
       </c>
       <c r="O13">
-        <v>-0.0002486555721057175</v>
+        <v>-0.0002486555580223461</v>
       </c>
       <c r="P13">
-        <v>-0.0002489438050175817</v>
+        <v>-0.0002489437855527747</v>
       </c>
       <c r="Q13">
-        <v>-0.0002687332941384712</v>
+        <v>-0.0002687332735602593</v>
       </c>
       <c r="R13">
-        <v>-0.000905300345476812</v>
+        <v>-0.0009053003095305806</v>
       </c>
       <c r="S13">
-        <v>-7.419529796959824E-10</v>
+        <v>-7.419529488487261E-10</v>
       </c>
       <c r="T13">
-        <v>-4.893985872844178E-07</v>
+        <v>-4.893985651359396E-07</v>
       </c>
       <c r="U13">
-        <v>-0.01596443596268018</v>
+        <v>-0.01596443557272213</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.004780964434238475</v>
+        <v>0.004780964411313857</v>
       </c>
       <c r="B14">
-        <v>2.178995772759341</v>
+        <v>2.178995767775528</v>
       </c>
       <c r="C14">
-        <v>0.03811096837885958</v>
+        <v>0.03811096713442019</v>
       </c>
       <c r="D14">
-        <v>0.0516517024273193</v>
+        <v>0.05165170077171709</v>
       </c>
       <c r="E14">
-        <v>6.356138700377132</v>
+        <v>6.356138503963497</v>
       </c>
       <c r="F14">
-        <v>1.625557051035332</v>
+        <v>1.62555704987945</v>
       </c>
       <c r="G14">
-        <v>0.0002562462264405389</v>
+        <v>0.0002562462232301776</v>
       </c>
       <c r="H14">
-        <v>2.846230651483234E-05</v>
+        <v>2.84623062878562E-05</v>
       </c>
       <c r="I14">
-        <v>0.06626840111652466</v>
+        <v>0.06626840050527291</v>
       </c>
       <c r="J14">
-        <v>0.8811122875303917</v>
+        <v>0.8811122611978115</v>
       </c>
       <c r="K14">
-        <v>0.03940658050002056</v>
+        <v>0.03940658045604757</v>
       </c>
       <c r="L14">
-        <v>0.02488070092391492</v>
+        <v>0.02488070050698557</v>
       </c>
       <c r="M14">
-        <v>0.001691993608880477</v>
+        <v>0.001691993483074652</v>
       </c>
       <c r="N14">
-        <v>3.27302241810965E-07</v>
+        <v>3.273022402535715E-07</v>
       </c>
       <c r="O14">
-        <v>0.002113792911514898</v>
+        <v>0.002113792901280701</v>
       </c>
       <c r="P14">
-        <v>0.004469588983198295</v>
+        <v>0.00446958897560132</v>
       </c>
       <c r="Q14">
-        <v>0.004864475228917188</v>
+        <v>0.004864475220550873</v>
       </c>
       <c r="R14">
-        <v>0.01792902229285319</v>
+        <v>0.01792902225880019</v>
       </c>
       <c r="S14">
-        <v>8.241577688555081E-09</v>
+        <v>8.241577659528511E-09</v>
       </c>
       <c r="T14">
-        <v>3.815500273328109E-06</v>
+        <v>3.815500254156783E-06</v>
       </c>
       <c r="U14">
-        <v>0.6571808937771234</v>
+        <v>0.6571808935204451</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>-0.0006754251660805203</v>
+        <v>-0.0006754251314631185</v>
       </c>
       <c r="B15">
-        <v>-0.6003455744346523</v>
+        <v>-0.6003455660419683</v>
       </c>
       <c r="C15">
-        <v>-0.07474441560776993</v>
+        <v>-0.07474441369462974</v>
       </c>
       <c r="D15">
-        <v>-0.09792270309861892</v>
+        <v>-0.09792270054119798</v>
       </c>
       <c r="E15">
-        <v>-1.483742992492737</v>
+        <v>-1.483742667784544</v>
       </c>
       <c r="F15">
-        <v>-0.2011402810092254</v>
+        <v>-0.2011402788639658</v>
       </c>
       <c r="G15">
-        <v>-0.0001090717286417872</v>
+        <v>-0.0001090717224454314</v>
       </c>
       <c r="H15">
-        <v>-8.14385129239782E-05</v>
+        <v>-8.143851262806088E-05</v>
       </c>
       <c r="I15">
-        <v>-0.01684666645951853</v>
+        <v>-0.01684666450937969</v>
       </c>
       <c r="J15">
-        <v>-1.468389054884563</v>
+        <v>-1.468389015621179</v>
       </c>
       <c r="K15">
-        <v>-0.02414078593845291</v>
+        <v>-0.02414078588108533</v>
       </c>
       <c r="L15">
-        <v>0.04254329926911907</v>
+        <v>0.04254329949633728</v>
       </c>
       <c r="M15">
-        <v>-0.0001798800794441176</v>
+        <v>-0.000179879738212677</v>
       </c>
       <c r="N15">
-        <v>-1.291790959207389E-07</v>
+        <v>-1.291790941511049E-07</v>
       </c>
       <c r="O15">
-        <v>-0.0004922859864658563</v>
+        <v>-0.0004922859668427173</v>
       </c>
       <c r="P15">
-        <v>-0.0005867227612788094</v>
+        <v>-0.0005867227506836983</v>
       </c>
       <c r="Q15">
-        <v>-0.0006631586524126771</v>
+        <v>-0.0006631586405575573</v>
       </c>
       <c r="R15">
-        <v>-0.002564824201564906</v>
+        <v>-0.002564824142374824</v>
       </c>
       <c r="S15">
-        <v>-1.685099487226948E-09</v>
+        <v>-1.68509944339079E-09</v>
       </c>
       <c r="T15">
-        <v>-1.263970491755616E-06</v>
+        <v>-1.26397045606852E-06</v>
       </c>
       <c r="U15">
-        <v>-0.06971537041287605</v>
+        <v>-0.06971536992802059</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.01870085539270694</v>
+        <v>0.01870085519024656</v>
       </c>
       <c r="B16">
-        <v>2.600151714156568</v>
+        <v>2.600151693352132</v>
       </c>
       <c r="C16">
-        <v>0.09834578179986483</v>
+        <v>0.09834577856618362</v>
       </c>
       <c r="D16">
-        <v>0.1434096234770953</v>
+        <v>0.1434096190048675</v>
       </c>
       <c r="E16">
-        <v>2.961762263220343</v>
+        <v>2.961761259586011</v>
       </c>
       <c r="F16">
-        <v>0.5841420242940208</v>
+        <v>0.584142018805776</v>
       </c>
       <c r="G16">
-        <v>0.004780886965277053</v>
+        <v>0.00478088695743887</v>
       </c>
       <c r="H16">
-        <v>0.0003655604695510819</v>
+        <v>0.0003655604691267909</v>
       </c>
       <c r="I16">
-        <v>0.2403620309628763</v>
+        <v>0.2403620284863537</v>
       </c>
       <c r="J16">
-        <v>5.152090304110802</v>
+        <v>5.152090209654925</v>
       </c>
       <c r="K16">
-        <v>-0.1600185459188844</v>
+        <v>-0.160018546286019</v>
       </c>
       <c r="L16">
-        <v>1.56373188635147</v>
+        <v>1.563731892341681</v>
       </c>
       <c r="M16">
-        <v>0.01012748975915334</v>
+        <v>0.01012748983094279</v>
       </c>
       <c r="N16">
-        <v>5.24388821575194E-07</v>
+        <v>5.243888082772156E-07</v>
       </c>
       <c r="O16">
-        <v>0.01293046419163785</v>
+        <v>0.0129304640988835</v>
       </c>
       <c r="P16">
-        <v>0.008469883980199058</v>
+        <v>0.008469883761390492</v>
       </c>
       <c r="Q16">
-        <v>0.008495035525414885</v>
+        <v>0.008495035303390918</v>
       </c>
       <c r="R16">
-        <v>0.04183000721497069</v>
+        <v>0.04183000716678475</v>
       </c>
       <c r="S16">
-        <v>2.952603160183568E-08</v>
+        <v>2.952603150577516E-08</v>
       </c>
       <c r="T16">
-        <v>1.261208118206039E-05</v>
+        <v>1.261208107439492E-05</v>
       </c>
       <c r="U16">
-        <v>0.0001347744571652543</v>
+        <v>0.0001347725586292245</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0003009920786660878</v>
+        <v>-0.000300992079742142</v>
       </c>
       <c r="B17">
-        <v>-2.398654596919505</v>
+        <v>-2.398654597127381</v>
       </c>
       <c r="C17">
-        <v>-0.1196209910594239</v>
+        <v>-0.1196209910522385</v>
       </c>
       <c r="D17">
-        <v>-0.1592720009184816</v>
+        <v>-0.1592720009095115</v>
       </c>
       <c r="E17">
-        <v>-1.253169210131518</v>
+        <v>-1.253169209719651</v>
       </c>
       <c r="F17">
-        <v>-0.01544141118614898</v>
+        <v>-0.01544141124644691</v>
       </c>
       <c r="G17">
-        <v>-1.15284148332514E-05</v>
+        <v>-1.152841484042495E-05</v>
       </c>
       <c r="H17">
-        <v>-2.169141974600936E-05</v>
+        <v>-2.169141974704943E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02133274637719469</v>
+        <v>-0.02133274640306858</v>
       </c>
       <c r="J17">
-        <v>-2.333581950656568</v>
+        <v>-2.33358195053138</v>
       </c>
       <c r="K17">
-        <v>0.0002297377313890798</v>
+        <v>0.0002297377343965448</v>
       </c>
       <c r="L17">
-        <v>-0.0003537229576163687</v>
+        <v>-0.000353723288797677</v>
       </c>
       <c r="M17">
-        <v>-0.0002821146647636314</v>
+        <v>-0.0002821146681016802</v>
       </c>
       <c r="N17">
-        <v>-1.034697470745748E-06</v>
+        <v>-1.034697470878429E-06</v>
       </c>
       <c r="O17">
-        <v>-0.0001109728185654767</v>
+        <v>-0.000110972819318254</v>
       </c>
       <c r="P17">
-        <v>-0.000637233393926786</v>
+        <v>-0.0006372333967459915</v>
       </c>
       <c r="Q17">
-        <v>-0.000644503756544538</v>
+        <v>-0.0006445037594108012</v>
       </c>
       <c r="R17">
-        <v>-0.003509081715284024</v>
+        <v>-0.003509081715278272</v>
       </c>
       <c r="S17">
-        <v>-6.988120018605394E-09</v>
+        <v>-6.988120022719384E-09</v>
       </c>
       <c r="T17">
-        <v>-2.907840503907581E-06</v>
+        <v>-2.907840504633971E-06</v>
       </c>
       <c r="U17">
-        <v>-0.005221392281144373</v>
+        <v>-0.005221392308296071</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>-0.0002036580946189989</v>
+        <v>-0.0002036580949438403</v>
       </c>
       <c r="B18">
-        <v>-3.040814378190334</v>
+        <v>-3.040814378214259</v>
       </c>
       <c r="C18">
-        <v>-0.1585628623988141</v>
+        <v>-0.1585628623882033</v>
       </c>
       <c r="D18">
-        <v>-0.2295784818476242</v>
+        <v>-0.2295784818338943</v>
       </c>
       <c r="E18">
-        <v>-8.828092785443232</v>
+        <v>-8.82809278446639</v>
       </c>
       <c r="F18">
-        <v>-0.01102871272330867</v>
+        <v>-0.01102871273194739</v>
       </c>
       <c r="G18">
-        <v>-4.700623394919925E-06</v>
+        <v>-4.700623374005197E-06</v>
       </c>
       <c r="H18">
-        <v>-4.725445040619233E-06</v>
+        <v>-4.7254450396097E-06</v>
       </c>
       <c r="I18">
-        <v>-0.007043862146020977</v>
+        <v>-0.007043862148032747</v>
       </c>
       <c r="J18">
-        <v>-1.913075139853461</v>
+        <v>-1.913075139656838</v>
       </c>
       <c r="K18">
-        <v>-2.863318319151449E-05</v>
+        <v>-2.863318155542897E-05</v>
       </c>
       <c r="L18">
-        <v>0.0006926485707055141</v>
+        <v>0.0006926485950906235</v>
       </c>
       <c r="M18">
-        <v>-0.000283309898149485</v>
+        <v>-0.0002833098970936047</v>
       </c>
       <c r="N18">
-        <v>-2.358692474535249E-07</v>
+        <v>-2.358692474993563E-07</v>
       </c>
       <c r="O18">
-        <v>-7.002033476212274E-05</v>
+        <v>-7.00203350020077E-05</v>
       </c>
       <c r="P18">
-        <v>-0.0004926923051417056</v>
+        <v>-0.0004926923062311304</v>
       </c>
       <c r="Q18">
-        <v>-0.0004978085138559736</v>
+        <v>-0.0004978085149501103</v>
       </c>
       <c r="R18">
-        <v>-0.001299525934749016</v>
+        <v>-0.00129952593446437</v>
       </c>
       <c r="S18">
-        <v>-8.853898396896033E-09</v>
+        <v>-8.853898396922604E-09</v>
       </c>
       <c r="T18">
-        <v>-3.329123549401369E-06</v>
+        <v>-3.329123549536693E-06</v>
       </c>
       <c r="U18">
-        <v>-0.003800327442323596</v>
+        <v>-0.003800327448494265</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.0001734561926722255</v>
+        <v>-0.0001734561932386161</v>
       </c>
       <c r="B19">
-        <v>-2.568417787661454</v>
+        <v>-2.568417787704756</v>
       </c>
       <c r="C19">
-        <v>-0.133977600575899</v>
+        <v>-0.1339776005779659</v>
       </c>
       <c r="D19">
-        <v>-0.1939677476405809</v>
+        <v>-0.1939677476440727</v>
       </c>
       <c r="E19">
-        <v>-7.457176037927859</v>
+        <v>-7.457176040007384</v>
       </c>
       <c r="F19">
-        <v>-0.009495873094397582</v>
+        <v>-0.009495873104284829</v>
       </c>
       <c r="G19">
-        <v>-4.302703647135183E-06</v>
+        <v>-4.302703653323491E-06</v>
       </c>
       <c r="H19">
-        <v>-4.005811052235501E-06</v>
+        <v>-4.005811051471361E-06</v>
       </c>
       <c r="I19">
-        <v>-0.005936573386650136</v>
+        <v>-0.005936573391794827</v>
       </c>
       <c r="J19">
-        <v>-1.616352149566679</v>
+        <v>-1.616352149687497</v>
       </c>
       <c r="K19">
-        <v>-1.813078084940475E-05</v>
+        <v>-1.813078021256531E-05</v>
       </c>
       <c r="L19">
-        <v>0.0005789275524361104</v>
+        <v>0.0005789275415922759</v>
       </c>
       <c r="M19">
-        <v>-0.0002663365788739536</v>
+        <v>-0.0002663365776067788</v>
       </c>
       <c r="N19">
-        <v>-1.992672712972664E-07</v>
+        <v>-1.99267271336778E-07</v>
       </c>
       <c r="O19">
-        <v>-6.111853835532555E-05</v>
+        <v>-6.111853861999783E-05</v>
       </c>
       <c r="P19">
-        <v>-0.0004178069557683407</v>
+        <v>-0.0004178069565293675</v>
       </c>
       <c r="Q19">
-        <v>-0.0004223416303939995</v>
+        <v>-0.0004223416311580592</v>
       </c>
       <c r="R19">
-        <v>-0.001257067180169154</v>
+        <v>-0.001257067180107585</v>
       </c>
       <c r="S19">
-        <v>-7.479295825839352E-09</v>
+        <v>-7.479295826305189E-09</v>
       </c>
       <c r="T19">
-        <v>-2.813601088118448E-06</v>
+        <v>-2.813601088370145E-06</v>
       </c>
       <c r="U19">
-        <v>-0.003260262437488469</v>
+        <v>-0.003260262441759303</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>-0.001500247659027945</v>
+        <v>-0.00150024765752426</v>
       </c>
       <c r="B20">
-        <v>-0.8922916434526466</v>
+        <v>-0.8922916433231022</v>
       </c>
       <c r="C20">
-        <v>-0.01610214893565749</v>
+        <v>-0.01610214890280659</v>
       </c>
       <c r="D20">
-        <v>-0.02149513496521062</v>
+        <v>-0.02149513492043932</v>
       </c>
       <c r="E20">
-        <v>-0.108065470787135</v>
+        <v>-0.1080654632442283</v>
       </c>
       <c r="F20">
-        <v>-0.0665274035775209</v>
+        <v>-0.0665274035454083</v>
       </c>
       <c r="G20">
-        <v>-2.482020887065318E-05</v>
+        <v>-2.482020882676417E-05</v>
       </c>
       <c r="H20">
-        <v>-0.0002339127292471035</v>
+        <v>-0.0002339127292402902</v>
       </c>
       <c r="I20">
-        <v>-0.002409499403733727</v>
+        <v>-0.00240949940962197</v>
       </c>
       <c r="J20">
-        <v>-0.397976463655996</v>
+        <v>-0.3979764627756691</v>
       </c>
       <c r="K20">
-        <v>0.000498477907952533</v>
+        <v>0.0004984779114374994</v>
       </c>
       <c r="L20">
-        <v>0.004533645914078591</v>
+        <v>0.004533645983374231</v>
       </c>
       <c r="M20">
-        <v>-0.0008352715108092276</v>
+        <v>-0.0008352715120450107</v>
       </c>
       <c r="N20">
-        <v>-1.177610179812918E-05</v>
+        <v>-1.17761017981026E-05</v>
       </c>
       <c r="O20">
-        <v>-0.0004936661933177578</v>
+        <v>-0.000493666192965121</v>
       </c>
       <c r="P20">
-        <v>-0.003348344080647232</v>
+        <v>-0.003348344080534756</v>
       </c>
       <c r="Q20">
-        <v>-0.003374372176663866</v>
+        <v>-0.003374372176522793</v>
       </c>
       <c r="R20">
-        <v>-0.0006539961484504765</v>
+        <v>-0.0006539961478166545</v>
       </c>
       <c r="S20">
-        <v>-3.243014290900422E-09</v>
+        <v>-3.243014289442528E-09</v>
       </c>
       <c r="T20">
-        <v>-1.24850259033233E-06</v>
+        <v>-1.248502589808174E-06</v>
       </c>
       <c r="U20">
-        <v>-0.02300218641961606</v>
+        <v>-0.02300218641130846</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>0.0001151940984545962</v>
+        <v>0.0001151940980506077</v>
       </c>
       <c r="B21">
-        <v>0.02731166461882529</v>
+        <v>0.02731166439790885</v>
       </c>
       <c r="C21">
-        <v>0.000844348652161269</v>
+        <v>0.0008443486209040487</v>
       </c>
       <c r="D21">
-        <v>0.0008955584205525039</v>
+        <v>0.000895558379705278</v>
       </c>
       <c r="E21">
-        <v>0.07253189829999784</v>
+        <v>0.07253189508215033</v>
       </c>
       <c r="F21">
-        <v>0.01628193693716696</v>
+        <v>0.01628193689191839</v>
       </c>
       <c r="G21">
-        <v>9.790751736250044E-06</v>
+        <v>9.790751637423071E-06</v>
       </c>
       <c r="H21">
-        <v>4.857733195254613E-05</v>
+        <v>4.857733194569351E-05</v>
       </c>
       <c r="I21">
-        <v>0.0007208152805300257</v>
+        <v>0.0007208152680938675</v>
       </c>
       <c r="J21">
-        <v>0.02021889369440248</v>
+        <v>0.02021889311659993</v>
       </c>
       <c r="K21">
-        <v>0.0006600925078370804</v>
+        <v>0.0006600925049359084</v>
       </c>
       <c r="L21">
-        <v>0.003555164750518044</v>
+        <v>0.003555164776405341</v>
       </c>
       <c r="M21">
-        <v>3.578106655380762E-05</v>
+        <v>3.578106194024369E-05</v>
       </c>
       <c r="N21">
-        <v>4.925607587196274E-08</v>
+        <v>4.92560758248307E-08</v>
       </c>
       <c r="O21">
-        <v>3.620179436263877E-05</v>
+        <v>3.620179403755092E-05</v>
       </c>
       <c r="P21">
-        <v>0.0005415199802825227</v>
+        <v>0.0005415199798197371</v>
       </c>
       <c r="Q21">
-        <v>0.0008404220177769857</v>
+        <v>0.000840422017288186</v>
       </c>
       <c r="R21">
-        <v>0.005430711177411571</v>
+        <v>0.005430711176378245</v>
       </c>
       <c r="S21">
-        <v>2.48975703310721E-10</v>
+        <v>2.489757026442641E-10</v>
       </c>
       <c r="T21">
-        <v>6.768402727905089E-08</v>
+        <v>6.76840266938557E-08</v>
       </c>
       <c r="U21">
-        <v>0.006300127238478158</v>
+        <v>0.006300127228179458</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
@@ -507,1302 +507,1302 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0005546509584447492</v>
+        <v>0.0005546509585530258</v>
       </c>
       <c r="B2">
-        <v>0.2183325568740978</v>
+        <v>0.2183325567843465</v>
       </c>
       <c r="C2">
-        <v>0.005876693090266931</v>
+        <v>0.0058766930876585</v>
       </c>
       <c r="D2">
-        <v>0.007822341071062385</v>
+        <v>0.007822341065606205</v>
       </c>
       <c r="E2">
-        <v>0.7548931196024554</v>
+        <v>0.7548931177910816</v>
       </c>
       <c r="F2">
-        <v>0.1432192404296181</v>
+        <v>0.1432192404144263</v>
       </c>
       <c r="G2">
-        <v>4.971956209597833E-05</v>
+        <v>4.971956204267672E-05</v>
       </c>
       <c r="H2">
-        <v>5.551816859417255E-06</v>
+        <v>5.551816857589734E-06</v>
       </c>
       <c r="I2">
-        <v>0.006116426159045564</v>
+        <v>0.006116426127638029</v>
       </c>
       <c r="J2">
-        <v>0.123293317451023</v>
+        <v>0.1232933173298051</v>
       </c>
       <c r="K2">
-        <v>0.007527498015225494</v>
+        <v>0.007527498010742</v>
       </c>
       <c r="L2">
-        <v>0.01012332009023658</v>
+        <v>0.01012332106336622</v>
       </c>
       <c r="M2">
-        <v>0.0002612647988680958</v>
+        <v>0.0002612647987361922</v>
       </c>
       <c r="N2">
-        <v>3.107943658656377E-08</v>
+        <v>3.10794365528885E-08</v>
       </c>
       <c r="O2">
-        <v>0.0002937187527027142</v>
+        <v>0.0002937187526076833</v>
       </c>
       <c r="P2">
-        <v>0.0004875848616736726</v>
+        <v>0.0004875848613104029</v>
       </c>
       <c r="Q2">
-        <v>0.0005212374161010825</v>
+        <v>0.0005212374157356989</v>
       </c>
       <c r="R2">
-        <v>0.001802981149936201</v>
+        <v>0.001802981150043788</v>
       </c>
       <c r="S2">
-        <v>9.329891573280512E-10</v>
+        <v>9.329891656317931E-10</v>
       </c>
       <c r="T2">
-        <v>4.401419949201748E-07</v>
+        <v>4.40141994645053E-07</v>
       </c>
       <c r="U2">
-        <v>0.05619384657055907</v>
+        <v>0.05619384656616871</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.001589385770546687</v>
+        <v>0.001589385768288942</v>
       </c>
       <c r="B3">
-        <v>0.6251752922034259</v>
+        <v>0.6251752917135578</v>
       </c>
       <c r="C3">
-        <v>0.01682403301253739</v>
+        <v>0.01682403296558492</v>
       </c>
       <c r="D3">
-        <v>0.02239575421089156</v>
+        <v>0.02239575414475009</v>
       </c>
       <c r="E3">
-        <v>2.158865557855223</v>
+        <v>2.158865545025357</v>
       </c>
       <c r="F3">
-        <v>0.4098337199908204</v>
+        <v>0.4098337198855755</v>
       </c>
       <c r="G3">
-        <v>0.0001434399947021301</v>
+        <v>0.0001434399944210107</v>
       </c>
       <c r="H3">
-        <v>1.597355750739085E-05</v>
+        <v>1.59735574945872E-05</v>
       </c>
       <c r="I3">
-        <v>0.01754047220339426</v>
+        <v>0.01754047208732205</v>
       </c>
       <c r="J3">
-        <v>0.3534902816667242</v>
+        <v>0.3534902804086997</v>
       </c>
       <c r="K3">
-        <v>0.02155467006962049</v>
+        <v>0.02155467004805675</v>
       </c>
       <c r="L3">
-        <v>0.0298198539857026</v>
+        <v>0.02981985175133248</v>
       </c>
       <c r="M3">
-        <v>0.0007488847827643197</v>
+        <v>0.0007488847746822613</v>
       </c>
       <c r="N3">
-        <v>8.915348323724744E-08</v>
+        <v>8.915348306423969E-08</v>
       </c>
       <c r="O3">
-        <v>0.0008425452225295803</v>
+        <v>0.0008425452205622064</v>
       </c>
       <c r="P3">
-        <v>0.00139652990763049</v>
+        <v>0.001396529903910647</v>
       </c>
       <c r="Q3">
-        <v>0.001493175611186031</v>
+        <v>0.001493175607401839</v>
       </c>
       <c r="R3">
-        <v>0.005190367462603101</v>
+        <v>0.005190367461559987</v>
       </c>
       <c r="S3">
-        <v>2.679934486159692E-09</v>
+        <v>2.679934463612432E-09</v>
       </c>
       <c r="T3">
-        <v>1.261507900657069E-06</v>
+        <v>1.261507898287252E-06</v>
       </c>
       <c r="U3">
-        <v>0.1607628552666888</v>
+        <v>0.1607628552364363</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.3856107710393729</v>
+        <v>0.3856107706359945</v>
       </c>
       <c r="B4">
-        <v>93.15396625678795</v>
+        <v>93.15396610889513</v>
       </c>
       <c r="C4">
-        <v>2.753542348343091</v>
+        <v>2.753542333023</v>
       </c>
       <c r="D4">
-        <v>3.781842132261292</v>
+        <v>3.781842112475242</v>
       </c>
       <c r="E4">
-        <v>126.7681404660074</v>
+        <v>126.7681399982286</v>
       </c>
       <c r="F4">
-        <v>21.59916728113279</v>
+        <v>21.5991672514875</v>
       </c>
       <c r="G4">
-        <v>0.03322869644540515</v>
+        <v>0.03322869638049969</v>
       </c>
       <c r="H4">
-        <v>0.003064188240455718</v>
+        <v>0.003064188235759082</v>
       </c>
       <c r="I4">
-        <v>16.31174876370586</v>
+        <v>16.31174875278548</v>
       </c>
       <c r="J4">
-        <v>84.08557418515117</v>
+        <v>84.08557400833099</v>
       </c>
       <c r="K4">
-        <v>1.628405311319381</v>
+        <v>1.62840531234325</v>
       </c>
       <c r="L4">
-        <v>2.49522806781614</v>
+        <v>2.495227976149827</v>
       </c>
       <c r="M4">
-        <v>1.021915238366053</v>
+        <v>1.021915233597116</v>
       </c>
       <c r="N4">
-        <v>1.942427937744794E-05</v>
+        <v>1.942427934780742E-05</v>
       </c>
       <c r="O4">
-        <v>0.1776069427252566</v>
+        <v>0.1776069424181146</v>
       </c>
       <c r="P4">
-        <v>0.2303092937211908</v>
+        <v>0.2303092933473212</v>
       </c>
       <c r="Q4">
-        <v>0.2371040683081201</v>
+        <v>0.2371040679175076</v>
       </c>
       <c r="R4">
-        <v>0.788406805981282</v>
+        <v>0.7884068053611778</v>
       </c>
       <c r="S4">
-        <v>4.213902224675778E-07</v>
+        <v>4.213902210423371E-07</v>
       </c>
       <c r="T4">
-        <v>0.0002733380989064707</v>
+        <v>0.0002733380984978324</v>
       </c>
       <c r="U4">
-        <v>4.431042518779119</v>
+        <v>4.431042510626893</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.2301887402852643</v>
+        <v>0.2301887400216455</v>
       </c>
       <c r="B5">
-        <v>55.54429691050436</v>
+        <v>55.54429682402536</v>
       </c>
       <c r="C5">
-        <v>1.642217919615161</v>
+        <v>1.642217910820321</v>
       </c>
       <c r="D5">
-        <v>2.255768606231102</v>
+        <v>2.255768594962906</v>
       </c>
       <c r="E5">
-        <v>75.2989652026793</v>
+        <v>75.2989649764653</v>
       </c>
       <c r="F5">
-        <v>12.84769043683983</v>
+        <v>12.84769041907757</v>
       </c>
       <c r="G5">
-        <v>0.01984070727870087</v>
+        <v>0.01984070724174387</v>
       </c>
       <c r="H5">
-        <v>0.001825982561030601</v>
+        <v>0.001825982558406197</v>
       </c>
       <c r="I5">
-        <v>9.743847765478835</v>
+        <v>9.743847759476427</v>
       </c>
       <c r="J5">
-        <v>50.16134832043239</v>
+        <v>50.16134822436642</v>
       </c>
       <c r="K5">
-        <v>0.9666425306360978</v>
+        <v>0.9666425320095773</v>
       </c>
       <c r="L5">
-        <v>1.49142559853571</v>
+        <v>1.491425635035448</v>
       </c>
       <c r="M5">
-        <v>0.6104916834763983</v>
+        <v>0.610491680764766</v>
       </c>
       <c r="N5">
-        <v>1.156105421103344E-05</v>
+        <v>1.156105419604585E-05</v>
       </c>
       <c r="O5">
-        <v>0.1060189112876083</v>
+        <v>0.1060189110994671</v>
       </c>
       <c r="P5">
-        <v>0.1374114000162011</v>
+        <v>0.1374113998037859</v>
       </c>
       <c r="Q5">
-        <v>0.1414686886614104</v>
+        <v>0.1414686884359929</v>
       </c>
       <c r="R5">
-        <v>0.4689797434962416</v>
+        <v>0.4689797431239809</v>
       </c>
       <c r="S5">
-        <v>2.513748579772703E-07</v>
+        <v>2.513748579395261E-07</v>
       </c>
       <c r="T5">
-        <v>0.0001631178838053356</v>
+        <v>0.0001631178835639579</v>
       </c>
       <c r="U5">
-        <v>2.62547917815856</v>
+        <v>2.625479173158896</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>-0.007664669685584015</v>
+        <v>-0.007664669686909761</v>
       </c>
       <c r="B6">
-        <v>-0.9093203224203231</v>
+        <v>-0.9093203228345048</v>
       </c>
       <c r="C6">
-        <v>-0.1727463704111412</v>
+        <v>-0.1727463704619696</v>
       </c>
       <c r="D6">
-        <v>-0.242250356433225</v>
+        <v>-0.2422503565006272</v>
       </c>
       <c r="E6">
-        <v>-60.93644462935239</v>
+        <v>-60.93644463119112</v>
       </c>
       <c r="F6">
-        <v>-0.3010449852446601</v>
+        <v>-0.3010449853520649</v>
       </c>
       <c r="G6">
-        <v>-0.0003851869565584517</v>
+        <v>-0.0003851869567159066</v>
       </c>
       <c r="H6">
-        <v>-6.478146317644373E-06</v>
+        <v>-6.478146334091434E-06</v>
       </c>
       <c r="I6">
-        <v>-0.05528266847100834</v>
+        <v>-0.0552826685237541</v>
       </c>
       <c r="J6">
-        <v>-5.489513556244153</v>
+        <v>-5.489513556825424</v>
       </c>
       <c r="K6">
-        <v>0.01757161622829284</v>
+        <v>0.01757161623036648</v>
       </c>
       <c r="L6">
-        <v>0.02884472737703695</v>
+        <v>0.02884472553234994</v>
       </c>
       <c r="M6">
-        <v>0.02437850209777627</v>
+        <v>0.02437850207265107</v>
       </c>
       <c r="N6">
-        <v>-2.760316503567335E-07</v>
+        <v>-2.760316504631157E-07</v>
       </c>
       <c r="O6">
-        <v>-0.002471806546921608</v>
+        <v>-0.002471806547751773</v>
       </c>
       <c r="P6">
-        <v>-0.002334687843421447</v>
+        <v>-0.002334687845523712</v>
       </c>
       <c r="Q6">
-        <v>-0.002484924623574578</v>
+        <v>-0.002484924625760674</v>
       </c>
       <c r="R6">
-        <v>-0.001242215592557259</v>
+        <v>-0.001242215594836616</v>
       </c>
       <c r="S6">
-        <v>-5.335988670367245E-09</v>
+        <v>-5.335988688634037E-09</v>
       </c>
       <c r="T6">
-        <v>-3.835168576610902E-06</v>
+        <v>-3.835168577831946E-06</v>
       </c>
       <c r="U6">
-        <v>-0.08808345313685673</v>
+        <v>-0.08808345317467621</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.006959574285326795</v>
+        <v>0.006959573890957494</v>
       </c>
       <c r="B7">
-        <v>0.6155803786403695</v>
+        <v>0.6155803255034015</v>
       </c>
       <c r="C7">
-        <v>0.2690751007437128</v>
+        <v>0.2690751027121424</v>
       </c>
       <c r="D7">
-        <v>0.3180248958433786</v>
+        <v>0.3180248983435108</v>
       </c>
       <c r="E7">
-        <v>24.63805906518181</v>
+        <v>24.63805943753162</v>
       </c>
       <c r="F7">
-        <v>0.1593620556489335</v>
+        <v>0.1593620398485482</v>
       </c>
       <c r="G7">
-        <v>-0.0002195002637615956</v>
+        <v>-0.0002195002593406385</v>
       </c>
       <c r="H7">
-        <v>0.001596620082444029</v>
+        <v>0.00159662008119806</v>
       </c>
       <c r="I7">
-        <v>0.03259464737557124</v>
+        <v>0.03259464603755615</v>
       </c>
       <c r="J7">
-        <v>1.379421431140307</v>
+        <v>1.379421475681972</v>
       </c>
       <c r="K7">
-        <v>0.01479103998884844</v>
+        <v>0.01479104060514026</v>
       </c>
       <c r="L7">
-        <v>2.123278704443977</v>
+        <v>2.12327869544642</v>
       </c>
       <c r="M7">
-        <v>0.003915595790450126</v>
+        <v>0.003915595509898367</v>
       </c>
       <c r="N7">
-        <v>-2.205771354996922E-06</v>
+        <v>-2.205771394022781E-06</v>
       </c>
       <c r="O7">
-        <v>0.002887217606972166</v>
+        <v>0.002887217382455706</v>
       </c>
       <c r="P7">
-        <v>0.004960198239980839</v>
+        <v>0.00496019737139746</v>
       </c>
       <c r="Q7">
-        <v>0.005064426174712752</v>
+        <v>0.005064425292248469</v>
       </c>
       <c r="R7">
-        <v>0.006986423884602301</v>
+        <v>0.00698642389881469</v>
       </c>
       <c r="S7">
-        <v>2.303650108630966E-08</v>
+        <v>2.303650066903448E-08</v>
       </c>
       <c r="T7">
-        <v>2.826953781510045E-06</v>
+        <v>2.82695359593132E-06</v>
       </c>
       <c r="U7">
-        <v>0.02732441592917184</v>
+        <v>0.0273244085311743</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>7.157411586798978E-05</v>
+        <v>7.157411654436616E-05</v>
       </c>
       <c r="B8">
-        <v>0.01506000272059048</v>
+        <v>0.01506000278117647</v>
       </c>
       <c r="C8">
-        <v>0.002545512011195416</v>
+        <v>0.002545512018946429</v>
       </c>
       <c r="D8">
-        <v>0.003206823088782026</v>
+        <v>0.003206823099381619</v>
       </c>
       <c r="E8">
-        <v>0.233178538573205</v>
+        <v>0.2331785394802673</v>
       </c>
       <c r="F8">
-        <v>0.003613911137374347</v>
+        <v>0.003613911158225294</v>
       </c>
       <c r="G8">
-        <v>7.300414208096325E-06</v>
+        <v>7.30041424420296E-06</v>
       </c>
       <c r="H8">
-        <v>6.459165310016648E-07</v>
+        <v>6.459165360079818E-07</v>
       </c>
       <c r="I8">
-        <v>0.0007985163701149712</v>
+        <v>0.000798516370363074</v>
       </c>
       <c r="J8">
-        <v>0.03287199805135821</v>
+        <v>0.03287199829713882</v>
       </c>
       <c r="K8">
-        <v>0.002913619376964664</v>
+        <v>0.00291361937859251</v>
       </c>
       <c r="L8">
-        <v>0.01848404079362176</v>
+        <v>0.01848404056596267</v>
       </c>
       <c r="M8">
-        <v>7.36818915819386E-06</v>
+        <v>7.368191703161539E-06</v>
       </c>
       <c r="N8">
-        <v>2.321288086647067E-08</v>
+        <v>2.321288086796577E-08</v>
       </c>
       <c r="O8">
-        <v>4.2852885559954E-05</v>
+        <v>4.285288581319903E-05</v>
       </c>
       <c r="P8">
-        <v>8.472446792152748E-05</v>
+        <v>8.472446815122534E-05</v>
       </c>
       <c r="Q8">
-        <v>8.70772138148869E-05</v>
+        <v>8.707721406310899E-05</v>
       </c>
       <c r="R8">
-        <v>0.0001217630368967704</v>
+        <v>0.0001217630372437014</v>
       </c>
       <c r="S8">
-        <v>2.421303021639797E-10</v>
+        <v>2.421303005291648E-10</v>
       </c>
       <c r="T8">
-        <v>5.144876698895185E-08</v>
+        <v>5.144876726214845E-08</v>
       </c>
       <c r="U8">
-        <v>0.001084185258054697</v>
+        <v>0.001084185263977334</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.08981716796292778</v>
+        <v>0.08981716783021235</v>
       </c>
       <c r="B9">
-        <v>20.59195223276823</v>
+        <v>20.59195219789223</v>
       </c>
       <c r="C9">
-        <v>0.4919298582652749</v>
+        <v>0.4919298541295806</v>
       </c>
       <c r="D9">
-        <v>0.6888600849072067</v>
+        <v>0.6888600796245435</v>
       </c>
       <c r="E9">
-        <v>17.46934182655274</v>
+        <v>17.46934159820444</v>
       </c>
       <c r="F9">
-        <v>4.469172435550137</v>
+        <v>4.46917242760058</v>
       </c>
       <c r="G9">
-        <v>0.006761205913085587</v>
+        <v>0.006761205897140692</v>
       </c>
       <c r="H9">
-        <v>0.0004877493682739324</v>
+        <v>0.0004877493671795014</v>
       </c>
       <c r="I9">
-        <v>4.028007995022338</v>
+        <v>4.028007992006227</v>
       </c>
       <c r="J9">
-        <v>17.21567161332926</v>
+        <v>17.21567156194823</v>
       </c>
       <c r="K9">
-        <v>0.1093007498203016</v>
+        <v>0.1093007499712692</v>
       </c>
       <c r="L9">
-        <v>0.1981736581824075</v>
+        <v>0.1981736228047662</v>
       </c>
       <c r="M9">
-        <v>0.2522931474544932</v>
+        <v>0.2522931462880202</v>
       </c>
       <c r="N9">
-        <v>3.887160969223812E-06</v>
+        <v>3.887160962224682E-06</v>
       </c>
       <c r="O9">
-        <v>0.04056656273505524</v>
+        <v>0.04056656264802629</v>
       </c>
       <c r="P9">
-        <v>0.0531957463152982</v>
+        <v>0.05319574621880525</v>
       </c>
       <c r="Q9">
-        <v>0.05450810961604142</v>
+        <v>0.05450810951302093</v>
       </c>
       <c r="R9">
-        <v>0.1170714399826543</v>
+        <v>0.1170714398284474</v>
       </c>
       <c r="S9">
-        <v>9.064879019109323E-08</v>
+        <v>9.064878972127241E-08</v>
       </c>
       <c r="T9">
-        <v>6.220344137500195E-05</v>
+        <v>6.220344126576906E-05</v>
       </c>
       <c r="U9">
-        <v>0.8057023236137895</v>
+        <v>0.8057023212759786</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.0003736670050831104</v>
+        <v>0.0003736670052885399</v>
       </c>
       <c r="B10">
-        <v>0.03547838983170603</v>
+        <v>0.03547838973139805</v>
       </c>
       <c r="C10">
-        <v>0.01735694919883438</v>
+        <v>0.01735694917121118</v>
       </c>
       <c r="D10">
-        <v>0.02142888680162993</v>
+        <v>0.02142888676467895</v>
       </c>
       <c r="E10">
-        <v>1.087724627579765</v>
+        <v>1.087724626146413</v>
       </c>
       <c r="F10">
-        <v>0.008745846780357171</v>
+        <v>0.008745846753948626</v>
       </c>
       <c r="G10">
-        <v>1.42985783166762E-05</v>
+        <v>1.429857823510212E-05</v>
       </c>
       <c r="H10">
-        <v>1.527606219471847E-06</v>
+        <v>1.527606216138651E-06</v>
       </c>
       <c r="I10">
-        <v>0.005329533557567661</v>
+        <v>0.005329533536836389</v>
       </c>
       <c r="J10">
-        <v>0.1728108968555432</v>
+        <v>0.1728108964398022</v>
       </c>
       <c r="K10">
-        <v>8.879004205207612E-05</v>
+        <v>8.879003610838789E-05</v>
       </c>
       <c r="L10">
-        <v>0.1748642683053626</v>
+        <v>0.174864263020734</v>
       </c>
       <c r="M10">
-        <v>0.0004609133918243076</v>
+        <v>0.000460913389110941</v>
       </c>
       <c r="N10">
-        <v>1.678931451931732E-07</v>
+        <v>1.678931451766096E-07</v>
       </c>
       <c r="O10">
-        <v>0.0001317686912273928</v>
+        <v>0.0001317686910870759</v>
       </c>
       <c r="P10">
-        <v>0.0004362982220201086</v>
+        <v>0.0004362982214380623</v>
       </c>
       <c r="Q10">
-        <v>0.0004458788414069401</v>
+        <v>0.000445878840803023</v>
       </c>
       <c r="R10">
-        <v>0.0003881229447997396</v>
+        <v>0.0003881229445037204</v>
       </c>
       <c r="S10">
-        <v>1.822862640148604E-09</v>
+        <v>1.822862592829171E-09</v>
       </c>
       <c r="T10">
-        <v>1.742287578488498E-07</v>
+        <v>1.742287575024322E-07</v>
       </c>
       <c r="U10">
-        <v>0.002905565773500049</v>
+        <v>0.0029055657656609</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.004640164252033126</v>
+        <v>0.004640164248493613</v>
       </c>
       <c r="B11">
-        <v>2.136862488816856</v>
+        <v>2.136862487967792</v>
       </c>
       <c r="C11">
-        <v>0.03627999967184593</v>
+        <v>0.0362799995806334</v>
       </c>
       <c r="D11">
-        <v>0.04922741873219707</v>
+        <v>0.04922741860327723</v>
       </c>
       <c r="E11">
-        <v>5.981469606415613</v>
+        <v>5.981469582334658</v>
       </c>
       <c r="F11">
-        <v>1.655948788130919</v>
+        <v>1.655948787942174</v>
       </c>
       <c r="G11">
-        <v>0.0002268687804375229</v>
+        <v>0.0002268687799206019</v>
       </c>
       <c r="H11">
-        <v>2.66140963600388E-05</v>
+        <v>2.661409633454274E-05</v>
       </c>
       <c r="I11">
-        <v>0.04953876666401649</v>
+        <v>0.04953876647459534</v>
       </c>
       <c r="J11">
-        <v>0.8264104853782261</v>
+        <v>0.8264104831577279</v>
       </c>
       <c r="K11">
-        <v>0.03176549726614046</v>
+        <v>0.0317654972071031</v>
       </c>
       <c r="L11">
-        <v>0.02394491229809324</v>
+        <v>0.02394491102407624</v>
       </c>
       <c r="M11">
-        <v>0.002175076624525677</v>
+        <v>0.002175076614927962</v>
       </c>
       <c r="N11">
-        <v>1.604287258009161E-07</v>
+        <v>1.604287254768936E-07</v>
       </c>
       <c r="O11">
-        <v>0.001995633390017498</v>
+        <v>0.001995633387116205</v>
       </c>
       <c r="P11">
-        <v>0.004134858996330632</v>
+        <v>0.004134858990847793</v>
       </c>
       <c r="Q11">
-        <v>0.004473835889018002</v>
+        <v>0.004473835883442865</v>
       </c>
       <c r="R11">
-        <v>0.01576991020995487</v>
+        <v>0.01576991020803157</v>
       </c>
       <c r="S11">
-        <v>8.009723882846393E-09</v>
+        <v>8.009723866991487E-09</v>
       </c>
       <c r="T11">
-        <v>3.628826847704604E-06</v>
+        <v>3.628826843947563E-06</v>
       </c>
       <c r="U11">
-        <v>0.6748054536449154</v>
+        <v>0.6748054535921805</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.008446596955809195</v>
+        <v>0.008446597319691313</v>
       </c>
       <c r="B12">
-        <v>0.8152285798767331</v>
+        <v>0.8152286400058839</v>
       </c>
       <c r="C12">
-        <v>0.5096467058196466</v>
+        <v>0.5096467132296931</v>
       </c>
       <c r="D12">
-        <v>0.6197107148713552</v>
+        <v>0.6197107249090184</v>
       </c>
       <c r="E12">
-        <v>34.24860568673053</v>
+        <v>34.24860738435642</v>
       </c>
       <c r="F12">
-        <v>0.1986026328799093</v>
+        <v>0.1986026490613609</v>
       </c>
       <c r="G12">
-        <v>0.0004588961975893625</v>
+        <v>0.0004588962172584528</v>
       </c>
       <c r="H12">
-        <v>0.001235671653469255</v>
+        <v>0.001235671655173974</v>
       </c>
       <c r="I12">
-        <v>0.1042438684759089</v>
+        <v>0.1042438735679801</v>
       </c>
       <c r="J12">
-        <v>4.278608407530314</v>
+        <v>4.278608591651567</v>
       </c>
       <c r="K12">
-        <v>0.01762965351680261</v>
+        <v>0.01762965412805632</v>
       </c>
       <c r="L12">
-        <v>2.822853493147068</v>
+        <v>2.822853470479421</v>
       </c>
       <c r="M12">
-        <v>0.002063284628165305</v>
+        <v>0.002063284774881879</v>
       </c>
       <c r="N12">
-        <v>1.929764542017424E-06</v>
+        <v>1.929764574985739E-06</v>
       </c>
       <c r="O12">
-        <v>0.003115943117691484</v>
+        <v>0.00311594330962577</v>
       </c>
       <c r="P12">
-        <v>0.007495163504336954</v>
+        <v>0.007495164063640848</v>
       </c>
       <c r="Q12">
-        <v>0.007669983007429376</v>
+        <v>0.007669983579557155</v>
       </c>
       <c r="R12">
-        <v>0.008047584766839325</v>
+        <v>0.008047584925651965</v>
       </c>
       <c r="S12">
-        <v>3.121156019539396E-08</v>
+        <v>3.121156035225034E-08</v>
       </c>
       <c r="T12">
-        <v>4.062328552527172E-06</v>
+        <v>4.062328788751414E-06</v>
       </c>
       <c r="U12">
-        <v>0.05658619932563141</v>
+        <v>0.05658620505636104</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>-0.0003588602426150501</v>
+        <v>-0.000358860253599046</v>
       </c>
       <c r="B13">
-        <v>-0.1647368993488378</v>
+        <v>-0.164736901269565</v>
       </c>
       <c r="C13">
-        <v>-0.03997487600996898</v>
+        <v>-0.03997487626384055</v>
       </c>
       <c r="D13">
-        <v>-0.05149221949641247</v>
+        <v>-0.05149221983953884</v>
       </c>
       <c r="E13">
-        <v>-1.249387320174895</v>
+        <v>-1.249387374388688</v>
       </c>
       <c r="F13">
-        <v>-0.04853409425040264</v>
+        <v>-0.04853409484110558</v>
       </c>
       <c r="G13">
-        <v>-5.554678152910233E-05</v>
+        <v>-5.554678271589881E-05</v>
       </c>
       <c r="H13">
-        <v>-3.397164145034957E-05</v>
+        <v>-3.397164151425511E-05</v>
       </c>
       <c r="I13">
-        <v>-0.00952439906112928</v>
+        <v>-0.009524399620902808</v>
       </c>
       <c r="J13">
-        <v>-0.640298525832333</v>
+        <v>-0.640298531177558</v>
       </c>
       <c r="K13">
-        <v>-0.03219664019997145</v>
+        <v>-0.03219664025237041</v>
       </c>
       <c r="L13">
-        <v>-0.009609945961862985</v>
+        <v>-0.009609946008241495</v>
       </c>
       <c r="M13">
-        <v>-0.0002753877143714493</v>
+        <v>-0.0002753877713096372</v>
       </c>
       <c r="N13">
-        <v>-9.526177383565878E-08</v>
+        <v>-9.526177473131668E-08</v>
       </c>
       <c r="O13">
-        <v>-0.0002486555580223461</v>
+        <v>-0.0002486555654522348</v>
       </c>
       <c r="P13">
-        <v>-0.0002489437855527747</v>
+        <v>-0.0002489438007716873</v>
       </c>
       <c r="Q13">
-        <v>-0.0002687332735602593</v>
+        <v>-0.0002687332891638226</v>
       </c>
       <c r="R13">
-        <v>-0.0009053003095305806</v>
+        <v>-0.0009053003180007545</v>
       </c>
       <c r="S13">
-        <v>-7.419529488487261E-10</v>
+        <v>-7.419529606039594E-10</v>
       </c>
       <c r="T13">
-        <v>-4.893985651359396E-07</v>
+        <v>-4.893985747002188E-07</v>
       </c>
       <c r="U13">
-        <v>-0.01596443557272213</v>
+        <v>-0.0159644357542786</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.004780964411313857</v>
+        <v>0.004780964408294905</v>
       </c>
       <c r="B14">
-        <v>2.178995767775528</v>
+        <v>2.178995766832666</v>
       </c>
       <c r="C14">
-        <v>0.03811096713442019</v>
+        <v>0.03811096703301045</v>
       </c>
       <c r="D14">
-        <v>0.05165170077171709</v>
+        <v>0.051651700631763</v>
       </c>
       <c r="E14">
-        <v>6.356138503963497</v>
+        <v>6.356138480357468</v>
       </c>
       <c r="F14">
-        <v>1.62555704987945</v>
+        <v>1.625557049692001</v>
       </c>
       <c r="G14">
-        <v>0.0002562462232301776</v>
+        <v>0.000256246222724617</v>
       </c>
       <c r="H14">
-        <v>2.84623062878562E-05</v>
+        <v>2.846230626581104E-05</v>
       </c>
       <c r="I14">
-        <v>0.06626840050527291</v>
+        <v>0.06626840029829244</v>
       </c>
       <c r="J14">
-        <v>0.8811122611978115</v>
+        <v>0.8811122589899607</v>
       </c>
       <c r="K14">
-        <v>0.03940658045604757</v>
+        <v>0.03940658040076092</v>
       </c>
       <c r="L14">
-        <v>0.02488070050698557</v>
+        <v>0.02488069795978546</v>
       </c>
       <c r="M14">
-        <v>0.001691993483074652</v>
+        <v>0.001691993471143688</v>
       </c>
       <c r="N14">
-        <v>3.273022402535715E-07</v>
+        <v>3.273022399988373E-07</v>
       </c>
       <c r="O14">
-        <v>0.002113792901280701</v>
+        <v>0.002113792898272066</v>
       </c>
       <c r="P14">
-        <v>0.00446958897560132</v>
+        <v>0.004469588969694507</v>
       </c>
       <c r="Q14">
-        <v>0.004864475220550873</v>
+        <v>0.00486447521452484</v>
       </c>
       <c r="R14">
-        <v>0.01792902225880019</v>
+        <v>0.01792902225727505</v>
       </c>
       <c r="S14">
-        <v>8.241577659528511E-09</v>
+        <v>8.24157763216554E-09</v>
       </c>
       <c r="T14">
-        <v>3.815500254156783E-06</v>
+        <v>3.815500250189989E-06</v>
       </c>
       <c r="U14">
-        <v>0.6571808935204451</v>
+        <v>0.6571808934664006</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>-0.0006754251314631185</v>
+        <v>-0.000675425136144826</v>
       </c>
       <c r="B15">
-        <v>-0.6003455660419683</v>
+        <v>-0.6003455659272106</v>
       </c>
       <c r="C15">
-        <v>-0.07474441369462974</v>
+        <v>-0.07474441358690023</v>
       </c>
       <c r="D15">
-        <v>-0.09792270054119798</v>
+        <v>-0.09792270041693849</v>
       </c>
       <c r="E15">
-        <v>-1.483742667784544</v>
+        <v>-1.48374269466088</v>
       </c>
       <c r="F15">
-        <v>-0.2011402788639658</v>
+        <v>-0.2011402790803219</v>
       </c>
       <c r="G15">
-        <v>-0.0001090717224454314</v>
+        <v>-0.0001090717221884887</v>
       </c>
       <c r="H15">
-        <v>-8.143851262806088E-05</v>
+        <v>-8.14385126319371E-05</v>
       </c>
       <c r="I15">
-        <v>-0.01684666450937969</v>
+        <v>-0.01684666489676636</v>
       </c>
       <c r="J15">
-        <v>-1.468389015621179</v>
+        <v>-1.468389016497872</v>
       </c>
       <c r="K15">
-        <v>-0.02414078588108533</v>
+        <v>-0.02414078594475304</v>
       </c>
       <c r="L15">
-        <v>0.04254329949633728</v>
+        <v>0.04254329948910269</v>
       </c>
       <c r="M15">
-        <v>-0.000179879738212677</v>
+        <v>-0.0001798797262406606</v>
       </c>
       <c r="N15">
-        <v>-1.291790941511049E-07</v>
+        <v>-1.29179095108639E-07</v>
       </c>
       <c r="O15">
-        <v>-0.0004922859668427173</v>
+        <v>-0.0004922859698884337</v>
       </c>
       <c r="P15">
-        <v>-0.0005867227506836983</v>
+        <v>-0.0005867227717380577</v>
       </c>
       <c r="Q15">
-        <v>-0.0006631586405575573</v>
+        <v>-0.0006631586617581361</v>
       </c>
       <c r="R15">
-        <v>-0.002564824142374824</v>
+        <v>-0.002564824136131152</v>
       </c>
       <c r="S15">
-        <v>-1.68509944339079E-09</v>
+        <v>-1.685099446904403E-09</v>
       </c>
       <c r="T15">
-        <v>-1.26397045606852E-06</v>
+        <v>-1.263970459371082E-06</v>
       </c>
       <c r="U15">
-        <v>-0.06971536992802059</v>
+        <v>-0.06971537006896013</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.01870085519024656</v>
+        <v>0.01876847743791081</v>
       </c>
       <c r="B16">
-        <v>2.600151693352132</v>
+        <v>2.605610394960207</v>
       </c>
       <c r="C16">
-        <v>0.09834577856618362</v>
+        <v>0.09887684263735641</v>
       </c>
       <c r="D16">
-        <v>0.1434096190048675</v>
+        <v>0.1441898438923941</v>
       </c>
       <c r="E16">
-        <v>2.961761259586011</v>
+        <v>3.007641664289731</v>
       </c>
       <c r="F16">
-        <v>0.584142018805776</v>
+        <v>0.587038623899356</v>
       </c>
       <c r="G16">
-        <v>0.00478088695743887</v>
+        <v>0.004798027271344505</v>
       </c>
       <c r="H16">
-        <v>0.0003655604691267909</v>
+        <v>0.0003763201931097976</v>
       </c>
       <c r="I16">
-        <v>0.2403620284863537</v>
+        <v>0.2412069148879311</v>
       </c>
       <c r="J16">
-        <v>5.152090209654925</v>
+        <v>5.186938779315988</v>
       </c>
       <c r="K16">
-        <v>-0.160018546286019</v>
+        <v>-0.1597306187669978</v>
       </c>
       <c r="L16">
-        <v>1.563731892341681</v>
+        <v>1.56642435122715</v>
       </c>
       <c r="M16">
-        <v>0.01012748983094279</v>
+        <v>0.01012733369423547</v>
       </c>
       <c r="N16">
-        <v>5.243888082772156E-07</v>
+        <v>5.227407324543246E-07</v>
       </c>
       <c r="O16">
-        <v>0.0129304640988835</v>
+        <v>0.01299576782239378</v>
       </c>
       <c r="P16">
-        <v>0.008469883761390492</v>
+        <v>0.008510923279755649</v>
       </c>
       <c r="Q16">
-        <v>0.008495035303390918</v>
+        <v>0.008536512461887682</v>
       </c>
       <c r="R16">
-        <v>0.04183000716678475</v>
+        <v>0.04191399070448897</v>
       </c>
       <c r="S16">
-        <v>2.952603150577516E-08</v>
+        <v>2.9597355699573E-08</v>
       </c>
       <c r="T16">
-        <v>1.261208107439492E-05</v>
+        <v>1.266917866011376E-05</v>
       </c>
       <c r="U16">
-        <v>0.0001347725586292245</v>
+        <v>0.0001948929106414636</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.000300992079742142</v>
+        <v>-0.000300992079794704</v>
       </c>
       <c r="B17">
-        <v>-2.398654597127381</v>
+        <v>-2.398654597128257</v>
       </c>
       <c r="C17">
-        <v>-0.1196209910522385</v>
+        <v>-0.1196209910518972</v>
       </c>
       <c r="D17">
-        <v>-0.1592720009095115</v>
+        <v>-0.1592720009090521</v>
       </c>
       <c r="E17">
-        <v>-1.253169209719651</v>
+        <v>-1.253169209700207</v>
       </c>
       <c r="F17">
-        <v>-0.01544141124644691</v>
+        <v>-0.0154414112471166</v>
       </c>
       <c r="G17">
-        <v>-1.152841484042495E-05</v>
+        <v>-1.152841484298265E-05</v>
       </c>
       <c r="H17">
-        <v>-2.169141974704943E-05</v>
+        <v>-2.169141974716137E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02133274640306858</v>
+        <v>-0.02133274640284997</v>
       </c>
       <c r="J17">
-        <v>-2.33358195053138</v>
+        <v>-2.333581950529077</v>
       </c>
       <c r="K17">
-        <v>0.0002297377343965448</v>
+        <v>0.000229737733985416</v>
       </c>
       <c r="L17">
-        <v>-0.000353723288797677</v>
+        <v>-0.0003537230864127208</v>
       </c>
       <c r="M17">
-        <v>-0.0002821146681016802</v>
+        <v>-0.0002821146681851195</v>
       </c>
       <c r="N17">
-        <v>-1.034697470878429E-06</v>
+        <v>-1.034697470878485E-06</v>
       </c>
       <c r="O17">
-        <v>-0.000110972819318254</v>
+        <v>-0.0001109728193407425</v>
       </c>
       <c r="P17">
-        <v>-0.0006372333967459915</v>
+        <v>-0.0006372333967320412</v>
       </c>
       <c r="Q17">
-        <v>-0.0006445037594108012</v>
+        <v>-0.0006445037593967362</v>
       </c>
       <c r="R17">
-        <v>-0.003509081715278272</v>
+        <v>-0.003509081715301091</v>
       </c>
       <c r="S17">
-        <v>-6.988120022719384E-09</v>
+        <v>-6.988120020935844E-09</v>
       </c>
       <c r="T17">
-        <v>-2.907840504633971E-06</v>
+        <v>-2.907840504647699E-06</v>
       </c>
       <c r="U17">
-        <v>-0.005221392308296071</v>
+        <v>-0.005221392308302853</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>-0.0002036580949438403</v>
+        <v>-0.0002036580949746336</v>
       </c>
       <c r="B18">
-        <v>-3.040814378214259</v>
+        <v>-3.040814378217911</v>
       </c>
       <c r="C18">
-        <v>-0.1585628623882033</v>
+        <v>-0.1585628623884468</v>
       </c>
       <c r="D18">
-        <v>-0.2295784818338943</v>
+        <v>-0.2295784818341913</v>
       </c>
       <c r="E18">
-        <v>-8.82809278446639</v>
+        <v>-8.82809278456031</v>
       </c>
       <c r="F18">
-        <v>-0.01102871273194739</v>
+        <v>-0.01102871273323895</v>
       </c>
       <c r="G18">
-        <v>-4.700623374005197E-06</v>
+        <v>-4.700623377708418E-06</v>
       </c>
       <c r="H18">
-        <v>-4.7254450396097E-06</v>
+        <v>-4.725445039846663E-06</v>
       </c>
       <c r="I18">
-        <v>-0.007043862148032747</v>
+        <v>-0.00704386214861413</v>
       </c>
       <c r="J18">
-        <v>-1.913075139656838</v>
+        <v>-1.913075139668363</v>
       </c>
       <c r="K18">
-        <v>-2.863318155542897E-05</v>
+        <v>-2.863318231164311E-05</v>
       </c>
       <c r="L18">
-        <v>0.0006926485950906235</v>
+        <v>0.0006926486148096221</v>
       </c>
       <c r="M18">
-        <v>-0.0002833098970936047</v>
+        <v>-0.0002833098971742104</v>
       </c>
       <c r="N18">
-        <v>-2.358692474993563E-07</v>
+        <v>-2.358692475006195E-07</v>
       </c>
       <c r="O18">
-        <v>-7.00203350020077E-05</v>
+        <v>-7.002033501837178E-05</v>
       </c>
       <c r="P18">
-        <v>-0.0004926923062311304</v>
+        <v>-0.0004926923062331788</v>
       </c>
       <c r="Q18">
-        <v>-0.0004978085149501103</v>
+        <v>-0.0004978085149524883</v>
       </c>
       <c r="R18">
-        <v>-0.00129952593446437</v>
+        <v>-0.001299525934496194</v>
       </c>
       <c r="S18">
-        <v>-8.853898396922604E-09</v>
+        <v>-8.853898396768353E-09</v>
       </c>
       <c r="T18">
-        <v>-3.329123549536693E-06</v>
+        <v>-3.329123549554999E-06</v>
       </c>
       <c r="U18">
-        <v>-0.003800327448494265</v>
+        <v>-0.003800327448670622</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.0001734561932386161</v>
+        <v>-0.0001734561932315836</v>
       </c>
       <c r="B19">
-        <v>-2.568417787704756</v>
+        <v>-2.568417787701706</v>
       </c>
       <c r="C19">
-        <v>-0.1339776005779659</v>
+        <v>-0.133977600577499</v>
       </c>
       <c r="D19">
-        <v>-0.1939677476440727</v>
+        <v>-0.1939677476434213</v>
       </c>
       <c r="E19">
-        <v>-7.457176040007384</v>
+        <v>-7.457176039968715</v>
       </c>
       <c r="F19">
-        <v>-0.009495873104284829</v>
+        <v>-0.009495873103484069</v>
       </c>
       <c r="G19">
-        <v>-4.302703653323491E-06</v>
+        <v>-4.302703652473209E-06</v>
       </c>
       <c r="H19">
-        <v>-4.005811051471361E-06</v>
+        <v>-4.005811051398427E-06</v>
       </c>
       <c r="I19">
-        <v>-0.005936573391794827</v>
+        <v>-0.005936573391243769</v>
       </c>
       <c r="J19">
-        <v>-1.616352149687497</v>
+        <v>-1.6163521496818</v>
       </c>
       <c r="K19">
-        <v>-1.813078021256531E-05</v>
+        <v>-1.81307803663609E-05</v>
       </c>
       <c r="L19">
-        <v>0.0005789275415922759</v>
+        <v>0.0005789275467173024</v>
       </c>
       <c r="M19">
-        <v>-0.0002663365776067788</v>
+        <v>-0.0002663365774609948</v>
       </c>
       <c r="N19">
-        <v>-1.99267271336778E-07</v>
+        <v>-1.99267271336037E-07</v>
       </c>
       <c r="O19">
-        <v>-6.111853861999783E-05</v>
+        <v>-6.111853861568304E-05</v>
       </c>
       <c r="P19">
-        <v>-0.0004178069565293675</v>
+        <v>-0.0004178069565122789</v>
       </c>
       <c r="Q19">
-        <v>-0.0004223416311580592</v>
+        <v>-0.0004223416311401153</v>
       </c>
       <c r="R19">
-        <v>-0.001257067180107585</v>
+        <v>-0.001257067180094704</v>
       </c>
       <c r="S19">
-        <v>-7.479295826305189E-09</v>
+        <v>-7.479295826245943E-09</v>
       </c>
       <c r="T19">
-        <v>-2.813601088370145E-06</v>
+        <v>-2.813601088361433E-06</v>
       </c>
       <c r="U19">
-        <v>-0.003260262441759303</v>
+        <v>-0.003260262441441121</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>-0.00150024765752426</v>
+        <v>-0.001500247657469065</v>
       </c>
       <c r="B20">
-        <v>-0.8922916433231022</v>
+        <v>-0.8922916433168302</v>
       </c>
       <c r="C20">
-        <v>-0.01610214890280659</v>
+        <v>-0.01610214890096191</v>
       </c>
       <c r="D20">
-        <v>-0.02149513492043932</v>
+        <v>-0.02149513491788164</v>
       </c>
       <c r="E20">
-        <v>-0.1080654632442283</v>
+        <v>-0.1080654629106654</v>
       </c>
       <c r="F20">
-        <v>-0.0665274035454083</v>
+        <v>-0.06652740354458576</v>
       </c>
       <c r="G20">
-        <v>-2.482020882676417E-05</v>
+        <v>-2.482020882572148E-05</v>
       </c>
       <c r="H20">
-        <v>-0.0002339127292402902</v>
+        <v>-0.0002339127292402954</v>
       </c>
       <c r="I20">
-        <v>-0.00240949940962197</v>
+        <v>-0.002409499407744269</v>
       </c>
       <c r="J20">
-        <v>-0.3979764627756691</v>
+        <v>-0.3979764627462862</v>
       </c>
       <c r="K20">
-        <v>0.0004984779114374994</v>
+        <v>0.0004984779105138168</v>
       </c>
       <c r="L20">
-        <v>0.004533645983374231</v>
+        <v>0.004533645922133913</v>
       </c>
       <c r="M20">
-        <v>-0.0008352715120450107</v>
+        <v>-0.0008352715119155664</v>
       </c>
       <c r="N20">
-        <v>-1.17761017981026E-05</v>
+        <v>-1.177610179810219E-05</v>
       </c>
       <c r="O20">
-        <v>-0.000493666192965121</v>
+        <v>-0.0004936661929463075</v>
       </c>
       <c r="P20">
-        <v>-0.003348344080534756</v>
+        <v>-0.003348344080507853</v>
       </c>
       <c r="Q20">
-        <v>-0.003374372176522793</v>
+        <v>-0.003374372176494154</v>
       </c>
       <c r="R20">
-        <v>-0.0006539961478166545</v>
+        <v>-0.0006539961478009768</v>
       </c>
       <c r="S20">
-        <v>-3.243014289442528E-09</v>
+        <v>-3.243014289947109E-09</v>
       </c>
       <c r="T20">
-        <v>-1.248502589808174E-06</v>
+        <v>-1.248502589777555E-06</v>
       </c>
       <c r="U20">
-        <v>-0.02300218641130846</v>
+        <v>-0.02300218641083603</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>0.0001151940980506077</v>
+        <v>0.0001151940983347315</v>
       </c>
       <c r="B21">
-        <v>0.02731166439790885</v>
+        <v>0.02731166452864731</v>
       </c>
       <c r="C21">
-        <v>0.0008443486209040487</v>
+        <v>0.0008443486316054604</v>
       </c>
       <c r="D21">
-        <v>0.000895558379705278</v>
+        <v>0.0008955583936553943</v>
       </c>
       <c r="E21">
-        <v>0.07253189508215033</v>
+        <v>0.07253189587601849</v>
       </c>
       <c r="F21">
-        <v>0.01628193689191839</v>
+        <v>0.0162819369189688</v>
       </c>
       <c r="G21">
-        <v>9.790751637423071E-06</v>
+        <v>9.790751691096376E-06</v>
       </c>
       <c r="H21">
-        <v>4.857733194569351E-05</v>
+        <v>4.857733194926313E-05</v>
       </c>
       <c r="I21">
-        <v>0.0007208152680938675</v>
+        <v>0.000720815278533141</v>
       </c>
       <c r="J21">
-        <v>0.02021889311659993</v>
+        <v>0.02021889329044706</v>
       </c>
       <c r="K21">
-        <v>0.0006600925049359084</v>
+        <v>0.0006600925062834514</v>
       </c>
       <c r="L21">
-        <v>0.003555164776405341</v>
+        <v>0.003555164701702611</v>
       </c>
       <c r="M21">
-        <v>3.578106194024369E-05</v>
+        <v>3.578106489210588E-05</v>
       </c>
       <c r="N21">
-        <v>4.92560758248307E-08</v>
+        <v>4.925607585703475E-08</v>
       </c>
       <c r="O21">
-        <v>3.620179403755092E-05</v>
+        <v>3.62017942673692E-05</v>
       </c>
       <c r="P21">
-        <v>0.0005415199798197371</v>
+        <v>0.0005415199801396083</v>
       </c>
       <c r="Q21">
-        <v>0.000840422017288186</v>
+        <v>0.0008404220176230126</v>
       </c>
       <c r="R21">
-        <v>0.005430711176378245</v>
+        <v>0.005430711176905234</v>
       </c>
       <c r="S21">
-        <v>2.489757026442641E-10</v>
+        <v>2.489757025045657E-10</v>
       </c>
       <c r="T21">
-        <v>6.76840266938557E-08</v>
+        <v>6.768402703545844E-08</v>
       </c>
       <c r="U21">
-        <v>0.006300127228179458</v>
+        <v>0.006300127234796417</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
@@ -14,69 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'climate change', 'global warming potential (GWP1000)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'land use', 'agricultural land occupation (LOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'water use', 'water consumption potential (WCP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: ecosystem quality', 'ecosystem quality')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: human health', 'human health')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: natural resources', 'natural resources')</t>
+  </si>
+  <si>
+    <t>'H200' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'H400' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'alubox (large)' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'alubox (small)' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'aluminium scrap' (kilogram, RER, None)</t>
+  </si>
+  <si>
+    <t>'autoclave' (unit, DK, None)</t>
+  </si>
+  <si>
+    <t>'marginal heating grid' (megajoule, DK, None)</t>
+  </si>
+  <si>
+    <t>'market for aluminium, cast alloy' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'market for electricity, high voltage' (kilowatt hour, DK, None)</t>
+  </si>
+  <si>
+    <t>'market for polypropylene, granulate' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'mechanical disinfection' (unit, DK, None)</t>
+  </si>
+  <si>
+    <t>'polyethylene recycling' (kilogram, Europe without Switzerland, None)</t>
+  </si>
+  <si>
+    <t>'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)</t>
+  </si>
+  <si>
+    <t>'polypropylene recycling' (kilogram, Europe without Switzerland, None)</t>
+  </si>
+  <si>
+    <t>'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)</t>
+  </si>
+  <si>
+    <t>'waste plastic, mixture' (kilogram, CH, None)</t>
+  </si>
+  <si>
+    <t>'waste polyethylene' (kilogram, CH, None)</t>
+  </si>
+  <si>
+    <t>'waste polypropylene' (kilogram, CH, None)</t>
+  </si>
+  <si>
+    <t>'waste wipe incineration' (kilogram, CH, None)</t>
+  </si>
+  <si>
+    <t>'wet wipe' (unit, GLO, None)</t>
   </si>
 </sst>
 </file>
@@ -434,1374 +494,1434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
         <v>0.0005546509585530258</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.2183325567843465</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.0058766930876585</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.007822341065606205</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.7548931177910816</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1432192404144263</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>4.971956204267672E-05</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5.551816857589734E-06</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.006116426127638029</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.1232933173298051</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.007527498010742</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.01012332106336622</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.0002612647987361922</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3.10794365528885E-08</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.0002937187526076833</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.0004875848613104029</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.0005212374157356989</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.001802981150043788</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>9.329891656317931E-10</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4.40141994645053E-07</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.05619384656616871</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
-        <v>0.001589385768288942</v>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>0.6251752917135578</v>
+        <v>0.001589385768799599</v>
       </c>
       <c r="C3">
-        <v>0.01682403296558492</v>
+        <v>0.6251752917304875</v>
       </c>
       <c r="D3">
-        <v>0.02239575414475009</v>
+        <v>0.01682403296965695</v>
       </c>
       <c r="E3">
-        <v>2.158865545025357</v>
+        <v>0.02239575415011756</v>
       </c>
       <c r="F3">
-        <v>0.4098337198855755</v>
+        <v>2.158865545374508</v>
       </c>
       <c r="G3">
-        <v>0.0001434399944210107</v>
+        <v>0.4098337198844534</v>
       </c>
       <c r="H3">
-        <v>1.59735574945872E-05</v>
+        <v>0.0001434399944216296</v>
       </c>
       <c r="I3">
-        <v>0.01754047208732205</v>
+        <v>1.597355749470606E-05</v>
       </c>
       <c r="J3">
-        <v>0.3534902804086997</v>
+        <v>0.01754047208453272</v>
       </c>
       <c r="K3">
-        <v>0.02155467004805675</v>
+        <v>0.3534902804270386</v>
       </c>
       <c r="L3">
-        <v>0.02981985175133248</v>
+        <v>0.02155467005289416</v>
       </c>
       <c r="M3">
-        <v>0.0007488847746822613</v>
+        <v>0.02981985196710944</v>
       </c>
       <c r="N3">
-        <v>8.915348306423969E-08</v>
+        <v>0.0007488847738535434</v>
       </c>
       <c r="O3">
-        <v>0.0008425452205622064</v>
+        <v>8.915348307337927E-08</v>
       </c>
       <c r="P3">
-        <v>0.001396529903910647</v>
+        <v>0.0008425452210399818</v>
       </c>
       <c r="Q3">
-        <v>0.001493175607401839</v>
+        <v>0.001396529904804517</v>
       </c>
       <c r="R3">
-        <v>0.005190367461559987</v>
+        <v>0.001493175608306901</v>
       </c>
       <c r="S3">
-        <v>2.679934463612432E-09</v>
+        <v>0.00519036746155282</v>
       </c>
       <c r="T3">
-        <v>1.261507898287252E-06</v>
+        <v>2.679934465808188E-09</v>
       </c>
       <c r="U3">
-        <v>0.1607628552364363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4">
+        <v>1.261507898599279E-06</v>
+      </c>
+      <c r="V3">
+        <v>0.1607628552357955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
         <v>0.3856107706359945</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>93.15396610889513</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2.753542333023</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3.781842112475242</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>126.7681399982286</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>21.5991672514875</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.03322869638049969</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.003064188235759082</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>16.31174875278548</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>84.08557400833099</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1.62840531234325</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2.495227976149827</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1.021915233597116</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1.942427934780742E-05</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.1776069424181146</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.2303092933473212</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.2371040679175076</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.7884068053611778</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>4.213902210423371E-07</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.0002733380984978324</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>4.431042510626893</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
         <v>0.2301887400216455</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>55.54429682402536</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.642217910820321</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2.255768594962906</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>75.2989649764653</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>12.84769041907757</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.01984070724174387</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.001825982558406197</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>9.743847759476427</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>50.16134822436642</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.9666425320095773</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1.491425635035448</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.610491680764766</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1.156105419604585E-05</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.1060189110994671</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.1374113998037859</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.1414686884359929</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.4689797431239809</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>2.513748579395261E-07</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.0001631178835639579</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>2.625479173158896</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6">
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
         <v>-0.007664669686909761</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>-0.9093203228345048</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.1727463704619696</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.2422503565006272</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-60.93644463119112</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.3010449853520649</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.0003851869567159066</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-6.478146334091434E-06</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.0552826685237541</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-5.489513556825424</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.01757161623036648</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.02884472553234994</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.02437850207265107</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-2.760316504631157E-07</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-0.002471806547751773</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-0.002334687845523712</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-0.002484924625760674</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-0.001242215594836616</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>-5.335988688634037E-09</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>-3.835168577831946E-06</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-0.08808345317467621</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
         <v>0.006959573890957494</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.6155803255034015</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.2690751027121424</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.3180248983435108</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24.63805943753162</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.1593620398485482</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.0002195002593406385</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.00159662008119806</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.03259464603755615</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1.379421475681972</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.01479104060514026</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2.12327869544642</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.003915595509898367</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-2.205771394022781E-06</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.002887217382455706</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.00496019737139746</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.005064425292248469</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.00698642389881469</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2.303650066903448E-08</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>2.82695359593132E-06</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.0273244085311743</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8">
-        <v>7.157411654436616E-05</v>
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>0.01506000278117647</v>
+        <v>7.157411591340311E-05</v>
       </c>
       <c r="C8">
-        <v>0.002545512018946429</v>
+        <v>0.01506000269468755</v>
       </c>
       <c r="D8">
-        <v>0.003206823099381619</v>
+        <v>0.002545512015787026</v>
       </c>
       <c r="E8">
-        <v>0.2331785394802673</v>
+        <v>0.003206823094957527</v>
       </c>
       <c r="F8">
-        <v>0.003613911158225294</v>
+        <v>0.2331785387342941</v>
       </c>
       <c r="G8">
-        <v>7.30041424420296E-06</v>
+        <v>0.003613911152709084</v>
       </c>
       <c r="H8">
-        <v>6.459165360079818E-07</v>
+        <v>7.300414230715846E-06</v>
       </c>
       <c r="I8">
-        <v>0.000798516370363074</v>
+        <v>6.459165330559423E-07</v>
       </c>
       <c r="J8">
-        <v>0.03287199829713882</v>
+        <v>0.0007985163706794275</v>
       </c>
       <c r="K8">
-        <v>0.00291361937859251</v>
+        <v>0.03287199817526916</v>
       </c>
       <c r="L8">
-        <v>0.01848404056596267</v>
+        <v>0.002913619372897974</v>
       </c>
       <c r="M8">
-        <v>7.368191703161539E-06</v>
+        <v>0.01848404064986991</v>
       </c>
       <c r="N8">
-        <v>2.321288086796577E-08</v>
+        <v>7.368193773671248E-06</v>
       </c>
       <c r="O8">
-        <v>4.285288581319903E-05</v>
+        <v>2.321288085497447E-08</v>
       </c>
       <c r="P8">
-        <v>8.472446815122534E-05</v>
+        <v>4.28528856290957E-05</v>
       </c>
       <c r="Q8">
-        <v>8.707721406310899E-05</v>
+        <v>8.472446782218945E-05</v>
       </c>
       <c r="R8">
-        <v>0.0001217630372437014</v>
+        <v>8.707721373437145E-05</v>
       </c>
       <c r="S8">
-        <v>2.421303005291648E-10</v>
+        <v>0.0001217630373764515</v>
       </c>
       <c r="T8">
-        <v>5.144876726214845E-08</v>
+        <v>2.421303008350713E-10</v>
       </c>
       <c r="U8">
-        <v>0.001084185263977334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9">
+        <v>5.144876703952095E-08</v>
+      </c>
+      <c r="V8">
+        <v>0.001084185263099106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
         <v>0.08981716783021235</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>20.59195219789223</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.4919298541295806</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.6888600796245435</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>17.46934159820444</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4.46917242760058</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.006761205897140692</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.0004877493671795014</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4.028007992006227</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>17.21567156194823</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.1093007499712692</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.1981736228047662</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.2522931462880202</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>3.887160962224682E-06</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.04056656264802629</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.05319574621880525</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.05450810951302093</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.1170714398284474</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>9.064878972127241E-08</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>6.220344126576906E-05</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.8057023212759786</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10">
+    <row r="10" spans="1:22">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
         <v>0.0003736670052885399</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>0.03547838973139805</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.01735694917121118</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.02142888676467895</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.087724626146413</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.008745846753948626</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.429857823510212E-05</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.527606216138651E-06</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.005329533536836389</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.1728108964398022</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>8.879003610838789E-05</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.174864263020734</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.000460913389110941</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1.678931451766096E-07</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.0001317686910870759</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.0004362982214380623</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>0.000445878840803023</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>0.0003881229445037204</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1.822862592829171E-09</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1.742287575024322E-07</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.0029055657656609</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
         <v>0.004640164248493613</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2.136862487967792</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.0362799995806334</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.04922741860327723</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>5.981469582334658</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.655948787942174</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.0002268687799206019</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2.661409633454274E-05</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.04953876647459534</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.8264104831577279</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.0317654972071031</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.02394491102407624</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.002175076614927962</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1.604287254768936E-07</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.001995633387116205</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.004134858990847793</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.004473835883442865</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.01576991020803157</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>8.009723866991487E-09</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>3.628826843947563E-06</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>0.6748054535921805</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12">
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
         <v>0.008446597319691313</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.8152286400058839</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.5096467132296931</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.6197107249090184</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>34.24860738435642</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.1986026490613609</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.0004588962172584528</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.001235671655173974</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.1042438735679801</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4.278608591651567</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.01762965412805632</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2.822853470479421</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.002063284774881879</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1.929764574985739E-06</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.00311594330962577</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.007495164063640848</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.007669983579557155</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.008047584925651965</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>3.121156035225034E-08</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>4.062328788751414E-06</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>0.05658620505636104</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13">
+    <row r="13" spans="1:22">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
         <v>-0.000358860253599046</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>-0.164736901269565</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-0.03997487626384055</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.05149221983953884</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-1.249387374388688</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.04853409484110558</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-5.554678271589881E-05</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-3.397164151425511E-05</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.009524399620902808</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-0.640298531177558</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-0.03219664025237041</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-0.009609946008241495</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-0.0002753877713096372</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-9.526177473131668E-08</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-0.0002486555654522348</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-0.0002489438007716873</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-0.0002687332891638226</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-0.0009053003180007545</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-7.419529606039594E-10</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-4.893985747002188E-07</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-0.0159644357542786</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14">
+    <row r="14" spans="1:22">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
         <v>0.004780964408294905</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>2.178995766832666</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.03811096703301045</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.051651700631763</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>6.356138480357468</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.625557049692001</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.000256246222724617</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2.846230626581104E-05</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.06626840029829244</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.8811122589899607</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.03940658040076092</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.02488069795978546</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.001691993471143688</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>3.273022399988373E-07</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.002113792898272066</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.004469588969694507</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.00486447521452484</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>0.01792902225727505</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>8.24157763216554E-09</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>3.815500250189989E-06</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>0.6571808934664006</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15">
+    <row r="15" spans="1:22">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
         <v>-0.000675425136144826</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>-0.6003455659272106</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.07474441358690023</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-0.09792270041693849</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-1.48374269466088</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-0.2011402790803219</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-0.0001090717221884887</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-8.14385126319371E-05</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-0.01684666489676636</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-1.468389016497872</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-0.02414078594475304</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.04254329948910269</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-0.0001798797262406606</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-1.29179095108639E-07</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-0.0004922859698884337</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-0.0005867227717380577</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-0.0006631586617581361</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-0.002564824136131152</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-1.685099446904403E-09</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-1.263970459371082E-06</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-0.06971537006896013</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16">
+    <row r="16" spans="1:22">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
         <v>0.01876847743791081</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>2.605610394960207</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.09887684263735641</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.1441898438923941</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3.007641664289731</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.587038623899356</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.004798027271344505</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.0003763201931097976</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.2412069148879311</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>5.186938779315988</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-0.1597306187669978</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1.56642435122715</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.01012733369423547</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>5.227407324543246E-07</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.01299576782239378</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.008510923279755649</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.008536512461887682</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>0.04191399070448897</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2.9597355699573E-08</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1.266917866011376E-05</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>0.0001948929106414636</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
-      <c r="A17">
+    <row r="17" spans="1:22">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
         <v>-0.000300992079794704</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>-2.398654597128257</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.1196209910518972</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.1592720009090521</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-1.253169209700207</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-0.0154414112471166</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-1.152841484298265E-05</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-2.169141974716137E-05</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.02133274640284997</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-2.333581950529077</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.000229737733985416</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-0.0003537230864127208</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-0.0002821146681851195</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-1.034697470878485E-06</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-0.0001109728193407425</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-0.0006372333967320412</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-0.0006445037593967362</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-0.003509081715301091</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-6.988120020935844E-09</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-2.907840504647699E-06</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-0.005221392308302853</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
-      <c r="A18">
+    <row r="18" spans="1:22">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
         <v>-0.0002036580949746336</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>-3.040814378217911</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.1585628623884468</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.2295784818341913</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-8.82809278456031</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.01102871273323895</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-4.700623377708418E-06</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-4.725445039846663E-06</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-0.00704386214861413</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-1.913075139668363</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-2.863318231164311E-05</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.0006926486148096221</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-0.0002833098971742104</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-2.358692475006195E-07</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-7.002033501837178E-05</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-0.0004926923062331788</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-0.0004978085149524883</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-0.001299525934496194</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-8.853898396768353E-09</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-3.329123549554999E-06</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-0.003800327448670622</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
-      <c r="A19">
+    <row r="19" spans="1:22">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
         <v>-0.0001734561932315836</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>-2.568417787701706</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.133977600577499</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-0.1939677476434213</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-7.457176039968715</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-0.009495873103484069</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-4.302703652473209E-06</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-4.005811051398427E-06</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-0.005936573391243769</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-1.6163521496818</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-1.81307803663609E-05</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.0005789275467173024</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-0.0002663365774609948</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-1.99267271336037E-07</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-6.111853861568304E-05</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-0.0004178069565122789</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-0.0004223416311401153</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-0.001257067180094704</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-7.479295826245943E-09</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-2.813601088361433E-06</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-0.003260262441441121</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
-      <c r="A20">
+    <row r="20" spans="1:22">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
         <v>-0.001500247657469065</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>-0.8922916433168302</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.01610214890096191</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.02149513491788164</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.1080654629106654</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-0.06652740354458576</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-2.482020882572148E-05</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-0.0002339127292402954</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-0.002409499407744269</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-0.3979764627462862</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.0004984779105138168</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.004533645922133913</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-0.0008352715119155664</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-1.177610179810219E-05</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-0.0004936661929463075</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-0.003348344080507853</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-0.003374372176494154</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-0.0006539961478009768</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-3.243014289947109E-09</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-1.248502589777555E-06</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-0.02300218641083603</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
-      <c r="A21">
+    <row r="21" spans="1:22">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
         <v>0.0001151940983347315</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>0.02731166452864731</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.0008443486316054604</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.0008955583936553943</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.07253189587601849</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.0162819369189688</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>9.790751691096376E-06</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>4.857733194926313E-05</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.000720815278533141</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.02021889329044706</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.0006600925062834514</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.003555164701702611</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>3.578106489210588E-05</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>4.925607585703475E-08</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>3.62017942673692E-05</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.0005415199801396083</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.0008404220176230126</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.005430711176905234</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>2.489757025045657E-10</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>6.768402703545844E-08</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.006300127234796417</v>
       </c>
     </row>

--- a/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>'polypropylene recycling' (kilogram, Europe without Switzerland, None)</t>
+  </si>
+  <si>
+    <t>'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)</t>
+  </si>
+  <si>
+    <t>'steel recycling' (kilogram, RER, None)</t>
   </si>
   <si>
     <t>'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)</t>
@@ -494,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +576,67 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.0005546509585530258</v>
+        <v>0.0005546509606354026</v>
       </c>
       <c r="C2">
-        <v>0.2183325567843465</v>
+        <v>0.218332557054139</v>
       </c>
       <c r="D2">
-        <v>0.0058766930876585</v>
+        <v>0.005876693216440328</v>
       </c>
       <c r="E2">
-        <v>0.007822341065606205</v>
+        <v>0.007822341237572266</v>
       </c>
       <c r="F2">
-        <v>0.7548931177910816</v>
+        <v>0.7548931416780268</v>
       </c>
       <c r="G2">
-        <v>0.1432192404144263</v>
+        <v>0.1432192404821786</v>
       </c>
       <c r="H2">
-        <v>4.971956204267672E-05</v>
+        <v>4.971956232422229E-05</v>
       </c>
       <c r="I2">
-        <v>5.551816857589734E-06</v>
+        <v>5.55181686813981E-06</v>
       </c>
       <c r="J2">
-        <v>0.006116426127638029</v>
+        <v>0.006116426163388865</v>
       </c>
       <c r="K2">
-        <v>0.1232933173298051</v>
+        <v>0.1232933201466666</v>
       </c>
       <c r="L2">
-        <v>0.007527498010742</v>
+        <v>0.007527498011606148</v>
       </c>
       <c r="M2">
-        <v>0.01012332106336622</v>
+        <v>0.0101233207725325</v>
       </c>
       <c r="N2">
-        <v>0.0002612647987361922</v>
+        <v>0.0002612647963843943</v>
       </c>
       <c r="O2">
-        <v>3.10794365528885E-08</v>
+        <v>3.107943666698919E-08</v>
       </c>
       <c r="P2">
-        <v>0.0002937187526076833</v>
+        <v>0.0002937187533019219</v>
       </c>
       <c r="Q2">
-        <v>0.0004875848613104029</v>
+        <v>0.000487584862169945</v>
       </c>
       <c r="R2">
-        <v>0.0005212374157356989</v>
+        <v>0.0005212374166494231</v>
       </c>
       <c r="S2">
-        <v>0.001802981150043788</v>
+        <v>0.001802981152096433</v>
       </c>
       <c r="T2">
-        <v>9.329891656317931E-10</v>
+        <v>9.329891649336986E-10</v>
       </c>
       <c r="U2">
-        <v>4.40141994645053E-07</v>
+        <v>4.401419960974469E-07</v>
       </c>
       <c r="V2">
-        <v>0.05619384656616871</v>
+        <v>0.05619384657776742</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -638,67 +644,67 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>0.001589385768799599</v>
+        <v>0.00158938577507376</v>
       </c>
       <c r="C3">
-        <v>0.6251752917304875</v>
+        <v>0.625175292571358</v>
       </c>
       <c r="D3">
-        <v>0.01682403296965695</v>
+        <v>0.01682403336601662</v>
       </c>
       <c r="E3">
-        <v>0.02239575415011756</v>
+        <v>0.02239575467680386</v>
       </c>
       <c r="F3">
-        <v>2.158865545374508</v>
+        <v>2.15886561747026</v>
       </c>
       <c r="G3">
-        <v>0.4098337198844534</v>
+        <v>0.4098337201427828</v>
       </c>
       <c r="H3">
-        <v>0.0001434399944216296</v>
+        <v>0.0001434399953895062</v>
       </c>
       <c r="I3">
-        <v>1.597355749470606E-05</v>
+        <v>1.597355753262612E-05</v>
       </c>
       <c r="J3">
-        <v>0.01754047208453272</v>
+        <v>0.01754047224790782</v>
       </c>
       <c r="K3">
-        <v>0.3534902804270386</v>
+        <v>0.3534902892203848</v>
       </c>
       <c r="L3">
-        <v>0.02155467005289416</v>
+        <v>0.02155467006984554</v>
       </c>
       <c r="M3">
-        <v>0.02981985196710944</v>
+        <v>0.02981985406540573</v>
       </c>
       <c r="N3">
-        <v>0.0007488847738535434</v>
+        <v>0.0007488847775457703</v>
       </c>
       <c r="O3">
-        <v>8.915348307337927E-08</v>
+        <v>8.915348339721345E-08</v>
       </c>
       <c r="P3">
-        <v>0.0008425452210399818</v>
+        <v>0.000842545223439615</v>
       </c>
       <c r="Q3">
-        <v>0.001396529904804517</v>
+        <v>0.001396529907131755</v>
       </c>
       <c r="R3">
-        <v>0.001493175608306901</v>
+        <v>0.001493175610826846</v>
       </c>
       <c r="S3">
-        <v>0.00519036746155282</v>
+        <v>0.005190367469046673</v>
       </c>
       <c r="T3">
-        <v>2.679934465808188E-09</v>
+        <v>2.679934490244744E-09</v>
       </c>
       <c r="U3">
-        <v>1.261507898599279E-06</v>
+        <v>1.261507903452472E-06</v>
       </c>
       <c r="V3">
-        <v>0.1607628552357955</v>
+        <v>0.1607628552833176</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -706,67 +712,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>0.3856107706359945</v>
+        <v>0.3823415154475179</v>
       </c>
       <c r="C4">
-        <v>93.15396610889513</v>
+        <v>92.44512784605415</v>
       </c>
       <c r="D4">
-        <v>2.753542333023</v>
+        <v>2.76463569280592</v>
       </c>
       <c r="E4">
-        <v>3.781842112475242</v>
+        <v>3.796605827266721</v>
       </c>
       <c r="F4">
-        <v>126.7681399982286</v>
+        <v>133.278794732671</v>
       </c>
       <c r="G4">
-        <v>21.5991672514875</v>
+        <v>21.45166059151648</v>
       </c>
       <c r="H4">
-        <v>0.03322869638049969</v>
+        <v>0.03314042231094753</v>
       </c>
       <c r="I4">
-        <v>0.003064188235759082</v>
+        <v>0.0030430379273717</v>
       </c>
       <c r="J4">
-        <v>16.31174875278548</v>
+        <v>16.34565401820542</v>
       </c>
       <c r="K4">
-        <v>84.08557400833099</v>
+        <v>83.80824003349319</v>
       </c>
       <c r="L4">
-        <v>1.62840531234325</v>
+        <v>1.605132491615341</v>
       </c>
       <c r="M4">
-        <v>2.495227976149827</v>
+        <v>2.511696011908811</v>
       </c>
       <c r="N4">
-        <v>1.021915233597116</v>
+        <v>1.037152825600132</v>
       </c>
       <c r="O4">
-        <v>1.942427934780742E-05</v>
+        <v>1.928817471659511E-05</v>
       </c>
       <c r="P4">
-        <v>0.1776069424181146</v>
+        <v>0.1768980624825522</v>
       </c>
       <c r="Q4">
-        <v>0.2303092933473212</v>
+        <v>0.2284979605630072</v>
       </c>
       <c r="R4">
-        <v>0.2371040679175076</v>
+        <v>0.235269806782064</v>
       </c>
       <c r="S4">
-        <v>0.7884068053611778</v>
+        <v>0.784383054195736</v>
       </c>
       <c r="T4">
-        <v>4.213902210423371E-07</v>
+        <v>4.186454159588856E-07</v>
       </c>
       <c r="U4">
-        <v>0.0002733380984978324</v>
+        <v>0.0002722741775205718</v>
       </c>
       <c r="V4">
-        <v>4.431042510626893</v>
+        <v>4.408742233975319</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -774,67 +780,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>0.2301887400216455</v>
+        <v>0.2269257956907023</v>
       </c>
       <c r="C5">
-        <v>55.54429682402536</v>
+        <v>54.83862350663189</v>
       </c>
       <c r="D5">
-        <v>1.642217910820321</v>
+        <v>1.653536850355154</v>
       </c>
       <c r="E5">
-        <v>2.255768594962906</v>
+        <v>2.270824219860605</v>
       </c>
       <c r="F5">
-        <v>75.2989649764653</v>
+        <v>81.8191766919858</v>
       </c>
       <c r="G5">
-        <v>12.84769041907757</v>
+        <v>12.7011865137746</v>
       </c>
       <c r="H5">
-        <v>0.01984070724174387</v>
+        <v>0.01975343007776883</v>
       </c>
       <c r="I5">
-        <v>0.001825982558406197</v>
+        <v>0.001805122124170892</v>
       </c>
       <c r="J5">
-        <v>9.743847759476427</v>
+        <v>9.77790449932896</v>
       </c>
       <c r="K5">
-        <v>50.16134822436642</v>
+        <v>49.88791205877119</v>
       </c>
       <c r="L5">
-        <v>0.9666425320095773</v>
+        <v>0.9436571468789301</v>
       </c>
       <c r="M5">
-        <v>1.491425635035448</v>
+        <v>1.507895748664308</v>
       </c>
       <c r="N5">
-        <v>0.610491680764766</v>
+        <v>0.6257385338304873</v>
       </c>
       <c r="O5">
-        <v>1.156105419604585E-05</v>
+        <v>1.142575401098031E-05</v>
       </c>
       <c r="P5">
-        <v>0.1060189110994671</v>
+        <v>0.1053135877309429</v>
       </c>
       <c r="Q5">
-        <v>0.1374113998037859</v>
+        <v>0.1356047720844792</v>
       </c>
       <c r="R5">
-        <v>0.1414686884359929</v>
+        <v>0.1396396042883673</v>
       </c>
       <c r="S5">
-        <v>0.4689797431239809</v>
+        <v>0.4649732129149221</v>
       </c>
       <c r="T5">
-        <v>2.513748579395261E-07</v>
+        <v>2.486419055043693E-07</v>
       </c>
       <c r="U5">
-        <v>0.0001631178835639579</v>
+        <v>0.0001620605719426691</v>
       </c>
       <c r="V5">
-        <v>2.625479173158896</v>
+        <v>2.6034990045124</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -842,67 +848,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>-0.007664669686909761</v>
+        <v>-0.00766466972114602</v>
       </c>
       <c r="C6">
-        <v>-0.9093203228345048</v>
+        <v>-0.9093203274946037</v>
       </c>
       <c r="D6">
-        <v>-0.1727463704619696</v>
+        <v>-0.172746371244464</v>
       </c>
       <c r="E6">
-        <v>-0.2422503565006272</v>
+        <v>-0.242250357571624</v>
       </c>
       <c r="F6">
-        <v>-60.93644463119112</v>
+        <v>-60.93644483796258</v>
       </c>
       <c r="G6">
-        <v>-0.3010449853520649</v>
+        <v>-0.3010449863967542</v>
       </c>
       <c r="H6">
-        <v>-0.0003851869567159066</v>
+        <v>-0.0003851869590756156</v>
       </c>
       <c r="I6">
-        <v>-6.478146334091434E-06</v>
+        <v>-6.478146510436156E-06</v>
       </c>
       <c r="J6">
-        <v>-0.0552826685237541</v>
+        <v>-0.05528266893758441</v>
       </c>
       <c r="K6">
-        <v>-5.489513556825424</v>
+        <v>-5.489513578870612</v>
       </c>
       <c r="L6">
-        <v>0.01757161623036648</v>
+        <v>0.01757161615031378</v>
       </c>
       <c r="M6">
-        <v>0.02884472553234994</v>
+        <v>0.02884472517137355</v>
       </c>
       <c r="N6">
-        <v>0.02437850207265107</v>
+        <v>0.02437850209666899</v>
       </c>
       <c r="O6">
-        <v>-2.760316504631157E-07</v>
+        <v>-2.760316523553273E-07</v>
       </c>
       <c r="P6">
-        <v>-0.002471806547751773</v>
+        <v>-0.002471806563040618</v>
       </c>
       <c r="Q6">
-        <v>-0.002334687845523712</v>
+        <v>-0.002334687870496602</v>
       </c>
       <c r="R6">
-        <v>-0.002484924625760674</v>
+        <v>-0.002484924651207707</v>
       </c>
       <c r="S6">
-        <v>-0.001242215594836616</v>
+        <v>-0.001242215611857172</v>
       </c>
       <c r="T6">
-        <v>-5.335988688634037E-09</v>
+        <v>-5.335988720024254E-09</v>
       </c>
       <c r="U6">
-        <v>-3.835168577831946E-06</v>
+        <v>-3.835168598224772E-06</v>
       </c>
       <c r="V6">
-        <v>-0.08808345317467621</v>
+        <v>-0.08808345344672092</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -910,67 +916,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.006959573890957494</v>
+        <v>0.006959574318864078</v>
       </c>
       <c r="C7">
-        <v>0.6155803255034015</v>
+        <v>0.6155803810345224</v>
       </c>
       <c r="D7">
-        <v>0.2690751027121424</v>
+        <v>0.2690750912407205</v>
       </c>
       <c r="E7">
-        <v>0.3180248983435108</v>
+        <v>0.3180248828985224</v>
       </c>
       <c r="F7">
-        <v>24.63805943753162</v>
+        <v>24.63805674314507</v>
       </c>
       <c r="G7">
-        <v>0.1593620398485482</v>
+        <v>0.1593620586781026</v>
       </c>
       <c r="H7">
-        <v>-0.0002195002593406385</v>
+        <v>-0.0002195002934104384</v>
       </c>
       <c r="I7">
-        <v>0.00159662008119806</v>
+        <v>0.001596620081792709</v>
       </c>
       <c r="J7">
-        <v>0.03259464603755615</v>
+        <v>0.0325946375728802</v>
       </c>
       <c r="K7">
-        <v>1.379421475681972</v>
+        <v>1.379421172465566</v>
       </c>
       <c r="L7">
-        <v>0.01479104060514026</v>
+        <v>0.01479103966882794</v>
       </c>
       <c r="M7">
-        <v>2.12327869544642</v>
+        <v>2.123278732981577</v>
       </c>
       <c r="N7">
-        <v>0.003915595509898367</v>
+        <v>0.003915595737448774</v>
       </c>
       <c r="O7">
-        <v>-2.205771394022781E-06</v>
+        <v>-2.205771340244567E-06</v>
       </c>
       <c r="P7">
-        <v>0.002887217382455706</v>
+        <v>0.002887217643446367</v>
       </c>
       <c r="Q7">
-        <v>0.00496019737139746</v>
+        <v>0.004960198713495786</v>
       </c>
       <c r="R7">
-        <v>0.005064425292248469</v>
+        <v>0.005064426656263379</v>
       </c>
       <c r="S7">
-        <v>0.00698642389881469</v>
+        <v>0.006986423692791342</v>
       </c>
       <c r="T7">
-        <v>2.303650066903448E-08</v>
+        <v>2.303650136127085E-08</v>
       </c>
       <c r="U7">
-        <v>2.82695359593132E-06</v>
+        <v>2.82695371522314E-06</v>
       </c>
       <c r="V7">
-        <v>0.0273244085311743</v>
+        <v>0.02732441949276506</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -978,67 +984,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>7.157411591340311E-05</v>
+        <v>7.157411253453695E-05</v>
       </c>
       <c r="C8">
-        <v>0.01506000269468755</v>
+        <v>0.01506000210382448</v>
       </c>
       <c r="D8">
-        <v>0.002545512015787026</v>
+        <v>0.002545511922929978</v>
       </c>
       <c r="E8">
-        <v>0.003206823094957527</v>
+        <v>0.003206822970116848</v>
       </c>
       <c r="F8">
-        <v>0.2331785387342941</v>
+        <v>0.2331785223152917</v>
       </c>
       <c r="G8">
-        <v>0.003613911152709084</v>
+        <v>0.003613911008039914</v>
       </c>
       <c r="H8">
-        <v>7.300414230715846E-06</v>
+        <v>7.300414031095391E-06</v>
       </c>
       <c r="I8">
-        <v>6.459165330559423E-07</v>
+        <v>6.45916506628545E-07</v>
       </c>
       <c r="J8">
-        <v>0.0007985163706794275</v>
+        <v>0.0007985163052434418</v>
       </c>
       <c r="K8">
-        <v>0.03287199817526916</v>
+        <v>0.03287199600663488</v>
       </c>
       <c r="L8">
-        <v>0.002913619372897974</v>
+        <v>0.002913619368356803</v>
       </c>
       <c r="M8">
-        <v>0.01848404064986991</v>
+        <v>0.01848404105579544</v>
       </c>
       <c r="N8">
-        <v>7.368193773671248E-06</v>
+        <v>7.368179456281583E-06</v>
       </c>
       <c r="O8">
-        <v>2.321288085497447E-08</v>
+        <v>2.321288062028207E-08</v>
       </c>
       <c r="P8">
-        <v>4.28528856290957E-05</v>
+        <v>4.285288419132663E-05</v>
       </c>
       <c r="Q8">
-        <v>8.472446782218945E-05</v>
+        <v>8.47244642997854E-05</v>
       </c>
       <c r="R8">
-        <v>8.707721373437145E-05</v>
+        <v>8.707721008582396E-05</v>
       </c>
       <c r="S8">
-        <v>0.0001217630373764515</v>
+        <v>0.0001217630352358836</v>
       </c>
       <c r="T8">
-        <v>2.421303008350713E-10</v>
+        <v>2.421303011981272E-10</v>
       </c>
       <c r="U8">
-        <v>5.144876703952095E-08</v>
+        <v>5.144876486772794E-08</v>
       </c>
       <c r="V8">
-        <v>0.001084185263099106</v>
+        <v>0.001084185212804357</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1046,67 +1052,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.08981716783021235</v>
+        <v>0.08981716881618962</v>
       </c>
       <c r="C9">
-        <v>20.59195219789223</v>
+        <v>20.59195236591084</v>
       </c>
       <c r="D9">
-        <v>0.4919298541295806</v>
+        <v>0.491929878690138</v>
       </c>
       <c r="E9">
-        <v>0.6888600796245435</v>
+        <v>0.6888601125381447</v>
       </c>
       <c r="F9">
-        <v>17.46934159820444</v>
+        <v>17.46934556504192</v>
       </c>
       <c r="G9">
-        <v>4.46917242760058</v>
+        <v>4.469172466804776</v>
       </c>
       <c r="H9">
-        <v>0.006761205897140692</v>
+        <v>0.006761205983581514</v>
       </c>
       <c r="I9">
-        <v>0.0004877493671795014</v>
+        <v>0.0004877493736945005</v>
       </c>
       <c r="J9">
-        <v>4.028007992006227</v>
+        <v>4.028008009606138</v>
       </c>
       <c r="K9">
-        <v>17.21567156194823</v>
+        <v>17.21567209353957</v>
       </c>
       <c r="L9">
-        <v>0.1093007499712692</v>
+        <v>0.1093007511745244</v>
       </c>
       <c r="M9">
-        <v>0.1981736228047662</v>
+        <v>0.1981736771040742</v>
       </c>
       <c r="N9">
-        <v>0.2522931462880202</v>
+        <v>0.252293148664672</v>
       </c>
       <c r="O9">
-        <v>3.887160962224682E-06</v>
+        <v>3.88716102478603E-06</v>
       </c>
       <c r="P9">
-        <v>0.04056656264802629</v>
+        <v>0.04056656317424585</v>
       </c>
       <c r="Q9">
-        <v>0.05319574621880525</v>
+        <v>0.05319574718035142</v>
       </c>
       <c r="R9">
-        <v>0.05450810951302093</v>
+        <v>0.05450811049556628</v>
       </c>
       <c r="S9">
-        <v>0.1170714398284474</v>
+        <v>0.1170714405841641</v>
       </c>
       <c r="T9">
-        <v>9.064878972127241E-08</v>
+        <v>9.064879113317564E-08</v>
       </c>
       <c r="U9">
-        <v>6.220344126576906E-05</v>
+        <v>6.220344193467089E-05</v>
       </c>
       <c r="V9">
-        <v>0.8057023212759786</v>
+        <v>0.8057023320947234</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1114,67 +1120,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>0.0003736670052885399</v>
+        <v>0.0003736670123071597</v>
       </c>
       <c r="C10">
-        <v>0.03547838973139805</v>
+        <v>0.03547839204234383</v>
       </c>
       <c r="D10">
-        <v>0.01735694917121118</v>
+        <v>0.01735694785753435</v>
       </c>
       <c r="E10">
-        <v>0.02142888676467895</v>
+        <v>0.02142888499058347</v>
       </c>
       <c r="F10">
-        <v>1.087724626146413</v>
+        <v>1.087724353626591</v>
       </c>
       <c r="G10">
-        <v>0.008745846753948626</v>
+        <v>0.008745847790931065</v>
       </c>
       <c r="H10">
-        <v>1.429857823510212E-05</v>
+        <v>1.429857475404654E-05</v>
       </c>
       <c r="I10">
-        <v>1.527606216138651E-06</v>
+        <v>1.527606124430909E-06</v>
       </c>
       <c r="J10">
-        <v>0.005329533536836389</v>
+        <v>0.005329532842987808</v>
       </c>
       <c r="K10">
-        <v>0.1728108964398022</v>
+        <v>0.172810863889056</v>
       </c>
       <c r="L10">
-        <v>8.879003610838789E-05</v>
+        <v>8.879000998150568E-05</v>
       </c>
       <c r="M10">
-        <v>0.174864263020734</v>
+        <v>0.1748642647253805</v>
       </c>
       <c r="N10">
-        <v>0.000460913389110941</v>
+        <v>0.0004609133621201904</v>
       </c>
       <c r="O10">
-        <v>1.678931451766096E-07</v>
+        <v>1.67893149469913E-07</v>
       </c>
       <c r="P10">
-        <v>0.0001317686910870759</v>
+        <v>0.0001317687046487746</v>
       </c>
       <c r="Q10">
-        <v>0.0004362982214380623</v>
+        <v>0.0004362983281605208</v>
       </c>
       <c r="R10">
-        <v>0.000445878840803023</v>
+        <v>0.000445878948802295</v>
       </c>
       <c r="S10">
-        <v>0.0003881229445037204</v>
+        <v>0.0003881229147193604</v>
       </c>
       <c r="T10">
-        <v>1.822862592829171E-09</v>
+        <v>1.822862623312617E-09</v>
       </c>
       <c r="U10">
-        <v>1.742287575024322E-07</v>
+        <v>1.742287584987879E-07</v>
       </c>
       <c r="V10">
-        <v>0.0029055657656609</v>
+        <v>0.002905566536571152</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1182,67 +1188,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>0.004640164248493613</v>
+        <v>0.004640164263836536</v>
       </c>
       <c r="C11">
-        <v>2.136862487967792</v>
+        <v>2.136862490824149</v>
       </c>
       <c r="D11">
-        <v>0.0362799995806334</v>
+        <v>0.03628000062182245</v>
       </c>
       <c r="E11">
-        <v>0.04922741860327723</v>
+        <v>0.04922741998838651</v>
       </c>
       <c r="F11">
-        <v>5.981469582334658</v>
+        <v>5.981469763902234</v>
       </c>
       <c r="G11">
-        <v>1.655948787942174</v>
+        <v>1.65594878858186</v>
       </c>
       <c r="H11">
-        <v>0.0002268687799206019</v>
+        <v>0.0002268687825435954</v>
       </c>
       <c r="I11">
-        <v>2.661409633454274E-05</v>
+        <v>2.661409646560099E-05</v>
       </c>
       <c r="J11">
-        <v>0.04953876647459534</v>
+        <v>0.04953876679393955</v>
       </c>
       <c r="K11">
-        <v>0.8264104831577279</v>
+        <v>0.8264105060782924</v>
       </c>
       <c r="L11">
-        <v>0.0317654972071031</v>
+        <v>0.03176549728789587</v>
       </c>
       <c r="M11">
-        <v>0.02394491102407624</v>
+        <v>0.02394490776902949</v>
       </c>
       <c r="N11">
-        <v>0.002175076614927962</v>
+        <v>0.002175076628050182</v>
       </c>
       <c r="O11">
-        <v>1.604287254768936E-07</v>
+        <v>1.604287264306827E-07</v>
       </c>
       <c r="P11">
-        <v>0.001995633387116205</v>
+        <v>0.001995633392957413</v>
       </c>
       <c r="Q11">
-        <v>0.004134858990847793</v>
+        <v>0.004134858993773284</v>
       </c>
       <c r="R11">
-        <v>0.004473835883442865</v>
+        <v>0.00447383588672335</v>
       </c>
       <c r="S11">
-        <v>0.01576991020803157</v>
+        <v>0.0157699102296561</v>
       </c>
       <c r="T11">
-        <v>8.009723866991487E-09</v>
+        <v>8.00972385447002E-09</v>
       </c>
       <c r="U11">
-        <v>3.628826843947563E-06</v>
+        <v>3.628826856603174E-06</v>
       </c>
       <c r="V11">
-        <v>0.6748054535921805</v>
+        <v>0.6748054536844988</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1250,67 +1256,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>0.008446597319691313</v>
+        <v>0.008446597028946328</v>
       </c>
       <c r="C12">
-        <v>0.8152286400058839</v>
+        <v>0.8152285435522227</v>
       </c>
       <c r="D12">
-        <v>0.5096467132296931</v>
+        <v>0.5096466993956791</v>
       </c>
       <c r="E12">
-        <v>0.6197107249090184</v>
+        <v>0.6197107066574402</v>
       </c>
       <c r="F12">
-        <v>34.24860738435642</v>
+        <v>34.24860558115534</v>
       </c>
       <c r="G12">
-        <v>0.1986026490613609</v>
+        <v>0.1986026236550446</v>
       </c>
       <c r="H12">
-        <v>0.0004588962172584528</v>
+        <v>0.0004588961705428618</v>
       </c>
       <c r="I12">
-        <v>0.001235671655173974</v>
+        <v>0.00123567165217017</v>
       </c>
       <c r="J12">
-        <v>0.1042438735679801</v>
+        <v>0.1042438606005826</v>
       </c>
       <c r="K12">
-        <v>4.278608591651567</v>
+        <v>4.278608329093005</v>
       </c>
       <c r="L12">
-        <v>0.01762965412805632</v>
+        <v>0.01762965350107555</v>
       </c>
       <c r="M12">
-        <v>2.822853470479421</v>
+        <v>2.822853484572319</v>
       </c>
       <c r="N12">
-        <v>0.002063284774881879</v>
+        <v>0.002063282784673382</v>
       </c>
       <c r="O12">
-        <v>1.929764574985739E-06</v>
+        <v>1.929764534281266E-06</v>
       </c>
       <c r="P12">
-        <v>0.00311594330962577</v>
+        <v>0.003115943079926211</v>
       </c>
       <c r="Q12">
-        <v>0.007495164063640848</v>
+        <v>0.007495163397309268</v>
       </c>
       <c r="R12">
-        <v>0.007669983579557155</v>
+        <v>0.007669982895083446</v>
       </c>
       <c r="S12">
-        <v>0.008047584925651965</v>
+        <v>0.008047584523311014</v>
       </c>
       <c r="T12">
-        <v>3.121156035225034E-08</v>
+        <v>3.121155999394531E-08</v>
       </c>
       <c r="U12">
-        <v>4.062328788751414E-06</v>
+        <v>4.062328450321565E-06</v>
       </c>
       <c r="V12">
-        <v>0.05658620505636104</v>
+        <v>0.05658619696620022</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1318,67 +1324,67 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>-0.000358860253599046</v>
+        <v>-0.0003588602488219268</v>
       </c>
       <c r="C13">
-        <v>-0.164736901269565</v>
+        <v>-0.1647369014056654</v>
       </c>
       <c r="D13">
-        <v>-0.03997487626384055</v>
+        <v>-0.03997487627247576</v>
       </c>
       <c r="E13">
-        <v>-0.05149221983953884</v>
+        <v>-0.0514922198272919</v>
       </c>
       <c r="F13">
-        <v>-1.249387374388688</v>
+        <v>-1.249387310069394</v>
       </c>
       <c r="G13">
-        <v>-0.04853409484110558</v>
+        <v>-0.04853409476275036</v>
       </c>
       <c r="H13">
-        <v>-5.554678271589881E-05</v>
+        <v>-5.554678276792355E-05</v>
       </c>
       <c r="I13">
-        <v>-3.397164151425511E-05</v>
+        <v>-3.39716415154449E-05</v>
       </c>
       <c r="J13">
-        <v>-0.009524399620902808</v>
+        <v>-0.009524399574596359</v>
       </c>
       <c r="K13">
-        <v>-0.640298531177558</v>
+        <v>-0.6402985273899551</v>
       </c>
       <c r="L13">
-        <v>-0.03219664025237041</v>
+        <v>-0.03219664020065096</v>
       </c>
       <c r="M13">
-        <v>-0.009609946008241495</v>
+        <v>-0.009609945515852146</v>
       </c>
       <c r="N13">
-        <v>-0.0002753877713096372</v>
+        <v>-0.0002753878327848721</v>
       </c>
       <c r="O13">
-        <v>-9.526177473131668E-08</v>
+        <v>-9.526177400191405E-08</v>
       </c>
       <c r="P13">
-        <v>-0.0002486555654522348</v>
+        <v>-0.0002486555631353099</v>
       </c>
       <c r="Q13">
-        <v>-0.0002489438007716873</v>
+        <v>-0.0002489437880214656</v>
       </c>
       <c r="R13">
-        <v>-0.0002687332891638226</v>
+        <v>-0.0002687332764491459</v>
       </c>
       <c r="S13">
-        <v>-0.0009053003180007545</v>
+        <v>-0.000905300324639342</v>
       </c>
       <c r="T13">
-        <v>-7.419529606039594E-10</v>
+        <v>-7.419529532684049E-10</v>
       </c>
       <c r="U13">
-        <v>-4.893985747002188E-07</v>
+        <v>-4.893985723548319E-07</v>
       </c>
       <c r="V13">
-        <v>-0.0159644357542786</v>
+        <v>-0.01596443569509689</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1386,67 +1392,67 @@
         <v>33</v>
       </c>
       <c r="B14">
-        <v>0.004780964408294905</v>
+        <v>0.00478096442409613</v>
       </c>
       <c r="C14">
-        <v>2.178995766832666</v>
+        <v>2.178995769354021</v>
       </c>
       <c r="D14">
-        <v>0.03811096703301045</v>
+        <v>0.03811096806465322</v>
       </c>
       <c r="E14">
-        <v>0.051651700631763</v>
+        <v>0.05165170200360284</v>
       </c>
       <c r="F14">
-        <v>6.356138480357468</v>
+        <v>6.356138660819552</v>
       </c>
       <c r="G14">
-        <v>1.625557049692001</v>
+        <v>1.625557050310215</v>
       </c>
       <c r="H14">
-        <v>0.000256246222724617</v>
+        <v>0.0002562462253224863</v>
       </c>
       <c r="I14">
-        <v>2.846230626581104E-05</v>
+        <v>2.846230639130144E-05</v>
       </c>
       <c r="J14">
-        <v>0.06626840029829244</v>
+        <v>0.06626840060030427</v>
       </c>
       <c r="K14">
-        <v>0.8811122589899607</v>
+        <v>0.8811122818422138</v>
       </c>
       <c r="L14">
-        <v>0.03940658040076092</v>
+        <v>0.03940658048803466</v>
       </c>
       <c r="M14">
-        <v>0.02488069795978546</v>
+        <v>0.02488070608730306</v>
       </c>
       <c r="N14">
-        <v>0.001691993471143688</v>
+        <v>0.001691993483098717</v>
       </c>
       <c r="O14">
-        <v>3.273022399988373E-07</v>
+        <v>3.273022409028877E-07</v>
       </c>
       <c r="P14">
-        <v>0.002113792898272066</v>
+        <v>0.0021137929048777</v>
       </c>
       <c r="Q14">
-        <v>0.004469588969694507</v>
+        <v>0.004469588974124018</v>
       </c>
       <c r="R14">
-        <v>0.00486447521452484</v>
+        <v>0.004864475219315149</v>
       </c>
       <c r="S14">
-        <v>0.01792902225727505</v>
+        <v>0.01792902227855162</v>
       </c>
       <c r="T14">
-        <v>8.24157763216554E-09</v>
+        <v>8.241577719999046E-09</v>
       </c>
       <c r="U14">
-        <v>3.815500250189989E-06</v>
+        <v>3.815500262943336E-06</v>
       </c>
       <c r="V14">
-        <v>0.6571808934664006</v>
+        <v>0.657180893551811</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1454,67 +1460,67 @@
         <v>34</v>
       </c>
       <c r="B15">
-        <v>-0.000675425136144826</v>
+        <v>-0.0006754251653306704</v>
       </c>
       <c r="C15">
-        <v>-0.6003455659272106</v>
+        <v>-0.6003455728714244</v>
       </c>
       <c r="D15">
-        <v>-0.07474441358690023</v>
+        <v>-0.07474441472993923</v>
       </c>
       <c r="E15">
-        <v>-0.09792270041693849</v>
+        <v>-0.09792270191103083</v>
       </c>
       <c r="F15">
-        <v>-1.48374269466088</v>
+        <v>-1.48374279445264</v>
       </c>
       <c r="G15">
-        <v>-0.2011402790803219</v>
+        <v>-0.2011402805016176</v>
       </c>
       <c r="H15">
-        <v>-0.0001090717221884887</v>
+        <v>-0.00010907172680298</v>
       </c>
       <c r="I15">
-        <v>-8.14385126319371E-05</v>
+        <v>-8.14385129154539E-05</v>
       </c>
       <c r="J15">
-        <v>-0.01684666489676636</v>
+        <v>-0.01684666592423124</v>
       </c>
       <c r="K15">
-        <v>-1.468389016497872</v>
+        <v>-1.468389035313797</v>
       </c>
       <c r="L15">
-        <v>-0.02414078594475304</v>
+        <v>-0.02414078600351066</v>
       </c>
       <c r="M15">
-        <v>0.04254329948910269</v>
+        <v>0.04254329852547641</v>
       </c>
       <c r="N15">
-        <v>-0.0001798797262406606</v>
+        <v>-0.0001798799883989977</v>
       </c>
       <c r="O15">
-        <v>-1.29179095108639E-07</v>
+        <v>-1.291790957065003E-07</v>
       </c>
       <c r="P15">
-        <v>-0.0004922859698884337</v>
+        <v>-0.0004922859866628432</v>
       </c>
       <c r="Q15">
-        <v>-0.0005867227717380577</v>
+        <v>-0.0005867227651896883</v>
       </c>
       <c r="R15">
-        <v>-0.0006631586617581361</v>
+        <v>-0.0006631586558274358</v>
       </c>
       <c r="S15">
-        <v>-0.002564824136131152</v>
+        <v>-0.002564824186561107</v>
       </c>
       <c r="T15">
-        <v>-1.685099446904403E-09</v>
+        <v>-1.685099485504918E-09</v>
       </c>
       <c r="U15">
-        <v>-1.263970459371082E-06</v>
+        <v>-1.263970484163017E-06</v>
       </c>
       <c r="V15">
-        <v>-0.06971537006896013</v>
+        <v>-0.06971537028484272</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1522,67 +1528,67 @@
         <v>35</v>
       </c>
       <c r="B16">
-        <v>0.01876847743791081</v>
+        <v>0.02177816201699373</v>
       </c>
       <c r="C16">
-        <v>2.605610394960207</v>
+        <v>6.943190717746808</v>
       </c>
       <c r="D16">
-        <v>0.09887684263735641</v>
+        <v>0.8917399011323931</v>
       </c>
       <c r="E16">
-        <v>0.1441898438923941</v>
+        <v>1.215109198522985</v>
       </c>
       <c r="F16">
-        <v>3.007641664289731</v>
+        <v>168.7348783403094</v>
       </c>
       <c r="G16">
-        <v>0.587038623899356</v>
+        <v>1.855739358408916</v>
       </c>
       <c r="H16">
-        <v>0.004798027271344505</v>
+        <v>0.005508347321416065</v>
       </c>
       <c r="I16">
-        <v>0.0003763201931097976</v>
+        <v>0.0002043896410112613</v>
       </c>
       <c r="J16">
-        <v>0.2412069148879311</v>
+        <v>4.881206315489363</v>
       </c>
       <c r="K16">
-        <v>5.186938779315988</v>
+        <v>13.68902130563483</v>
       </c>
       <c r="L16">
-        <v>-0.1597306187669978</v>
+        <v>-0.1879540007321832</v>
       </c>
       <c r="M16">
-        <v>1.56642435122715</v>
+        <v>0.6139051352111154</v>
       </c>
       <c r="N16">
-        <v>0.01012733369423547</v>
+        <v>0.5989043083126655</v>
       </c>
       <c r="O16">
-        <v>5.227407324543246E-07</v>
+        <v>1.433364507850213E-06</v>
       </c>
       <c r="P16">
-        <v>0.01299576782239378</v>
+        <v>0.02737475921508358</v>
       </c>
       <c r="Q16">
-        <v>0.008510923279755649</v>
+        <v>0.01629482708295036</v>
       </c>
       <c r="R16">
-        <v>0.008536512461887682</v>
+        <v>0.01741587633771095</v>
       </c>
       <c r="S16">
-        <v>0.04191399070448897</v>
+        <v>0.03922516396335605</v>
       </c>
       <c r="T16">
-        <v>2.9597355699573E-08</v>
+        <v>3.811329490100254E-08</v>
       </c>
       <c r="U16">
-        <v>1.266917866011376E-05</v>
+        <v>4.308534665407603E-05</v>
       </c>
       <c r="V16">
-        <v>0.0001948929106414636</v>
+        <v>0.5215855681256525</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1590,67 +1596,67 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>-0.000300992079794704</v>
+        <v>0.001016010259575489</v>
       </c>
       <c r="C17">
-        <v>-2.398654597128257</v>
+        <v>0.4326065521991871</v>
       </c>
       <c r="D17">
-        <v>-0.1196209910518972</v>
+        <v>0.1311446439420444</v>
       </c>
       <c r="E17">
-        <v>-0.1592720009090521</v>
+        <v>0.1902839447378928</v>
       </c>
       <c r="F17">
-        <v>-1.253169209700207</v>
+        <v>1.366145174138923</v>
       </c>
       <c r="G17">
-        <v>-0.0154414112471166</v>
+        <v>0.1026339571738732</v>
       </c>
       <c r="H17">
-        <v>-1.152841484298265E-05</v>
+        <v>0.0002058799893491672</v>
       </c>
       <c r="I17">
-        <v>-2.169141974716137E-05</v>
+        <v>1.329159412421413E-05</v>
       </c>
       <c r="J17">
-        <v>-0.02133274640284997</v>
+        <v>7.51246872420681</v>
       </c>
       <c r="K17">
-        <v>-2.333581950529077</v>
+        <v>0.7231482126252757</v>
       </c>
       <c r="L17">
-        <v>0.000229737733985416</v>
+        <v>0.06267294269171658</v>
       </c>
       <c r="M17">
-        <v>-0.0003537230864127208</v>
+        <v>0.04433055841603118</v>
       </c>
       <c r="N17">
-        <v>-0.0002821146681851195</v>
+        <v>0.02745445835597791</v>
       </c>
       <c r="O17">
-        <v>-1.034697470878485E-06</v>
+        <v>1.226992438663363E-07</v>
       </c>
       <c r="P17">
-        <v>-0.0001109728193407425</v>
+        <v>0.0005923672385091013</v>
       </c>
       <c r="Q17">
-        <v>-0.0006372333967320412</v>
+        <v>0.0007986060239927036</v>
       </c>
       <c r="R17">
-        <v>-0.0006445037593967362</v>
+        <v>0.0008528428026142563</v>
       </c>
       <c r="S17">
-        <v>-0.003509081715301091</v>
+        <v>0.006284055551144673</v>
       </c>
       <c r="T17">
-        <v>-6.988120020935844E-09</v>
+        <v>2.194695187253995E-09</v>
       </c>
       <c r="U17">
-        <v>-2.907840504647699E-06</v>
+        <v>2.589449987668316E-05</v>
       </c>
       <c r="V17">
-        <v>-0.005221392308302853</v>
+        <v>0.0362823129571767</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1658,67 +1664,67 @@
         <v>37</v>
       </c>
       <c r="B18">
-        <v>-0.0002036580949746336</v>
+        <v>0.0187684773158605</v>
       </c>
       <c r="C18">
-        <v>-3.040814378217911</v>
+        <v>2.605610375715749</v>
       </c>
       <c r="D18">
-        <v>-0.1585628623884468</v>
+        <v>0.09887684662571974</v>
       </c>
       <c r="E18">
-        <v>-0.2295784818341913</v>
+        <v>0.1441898492283505</v>
       </c>
       <c r="F18">
-        <v>-8.82809278456031</v>
+        <v>3.007642361454585</v>
       </c>
       <c r="G18">
-        <v>-0.01102871273323895</v>
+        <v>0.587038616813636</v>
       </c>
       <c r="H18">
-        <v>-4.700623377708418E-06</v>
+        <v>0.004798027282453391</v>
       </c>
       <c r="I18">
-        <v>-4.725445039846663E-06</v>
+        <v>0.0003763201932687078</v>
       </c>
       <c r="J18">
-        <v>-0.00704386214861413</v>
+        <v>0.2412069168928976</v>
       </c>
       <c r="K18">
-        <v>-1.913075139668363</v>
+        <v>5.18693887508868</v>
       </c>
       <c r="L18">
-        <v>-2.863318231164311E-05</v>
+        <v>-0.1597306185549921</v>
       </c>
       <c r="M18">
-        <v>0.0006926486148096221</v>
+        <v>1.566424353664422</v>
       </c>
       <c r="N18">
-        <v>-0.0002833098971742104</v>
+        <v>0.01012733403345821</v>
       </c>
       <c r="O18">
-        <v>-2.358692475006195E-07</v>
+        <v>5.227407111990198E-07</v>
       </c>
       <c r="P18">
-        <v>-7.002033501837178E-05</v>
+        <v>0.01299576773115979</v>
       </c>
       <c r="Q18">
-        <v>-0.0004926923062331788</v>
+        <v>0.008510922775697967</v>
       </c>
       <c r="R18">
-        <v>-0.0004978085149524883</v>
+        <v>0.008536511949882376</v>
       </c>
       <c r="S18">
-        <v>-0.001299525934496194</v>
+        <v>0.04191399080040928</v>
       </c>
       <c r="T18">
-        <v>-8.853898396768353E-09</v>
+        <v>2.959735559411748E-08</v>
       </c>
       <c r="U18">
-        <v>-3.329123549554999E-06</v>
+        <v>1.266917861308084E-05</v>
       </c>
       <c r="V18">
-        <v>-0.003800327448670622</v>
+        <v>0.0001948888868197052</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1726,67 +1732,67 @@
         <v>38</v>
       </c>
       <c r="B19">
-        <v>-0.0001734561932315836</v>
+        <v>-0.000300992081433814</v>
       </c>
       <c r="C19">
-        <v>-2.568417787701706</v>
+        <v>-2.398654597305983</v>
       </c>
       <c r="D19">
-        <v>-0.133977600577499</v>
+        <v>-0.1196209911791411</v>
       </c>
       <c r="E19">
-        <v>-0.1939677476434213</v>
+        <v>-0.1592720010810392</v>
       </c>
       <c r="F19">
-        <v>-7.457176039968715</v>
+        <v>-1.253169237026584</v>
       </c>
       <c r="G19">
-        <v>-0.009495873103484069</v>
+        <v>-0.01544141127245462</v>
       </c>
       <c r="H19">
-        <v>-4.302703652473209E-06</v>
+        <v>-1.152841515680066E-05</v>
       </c>
       <c r="I19">
-        <v>-4.005811051398427E-06</v>
+        <v>-2.169141976194397E-05</v>
       </c>
       <c r="J19">
-        <v>-0.005936573391243769</v>
+        <v>-0.02133274647995095</v>
       </c>
       <c r="K19">
-        <v>-1.6163521496818</v>
+        <v>-2.333581953664915</v>
       </c>
       <c r="L19">
-        <v>-1.81307803663609E-05</v>
+        <v>0.0002297377282023521</v>
       </c>
       <c r="M19">
-        <v>0.0005789275467173024</v>
+        <v>-0.0003537234179796361</v>
       </c>
       <c r="N19">
-        <v>-0.0002663365774609948</v>
+        <v>-0.0002821146703710582</v>
       </c>
       <c r="O19">
-        <v>-1.99267271336037E-07</v>
+        <v>-1.034697470792842E-06</v>
       </c>
       <c r="P19">
-        <v>-6.111853861568304E-05</v>
+        <v>-0.000110972819548099</v>
       </c>
       <c r="Q19">
-        <v>-0.0004178069565122789</v>
+        <v>-0.0006372333932948975</v>
       </c>
       <c r="R19">
-        <v>-0.0004223416311401153</v>
+        <v>-0.0006445037559656329</v>
       </c>
       <c r="S19">
-        <v>-0.001257067180094704</v>
+        <v>-0.003509081717911065</v>
       </c>
       <c r="T19">
-        <v>-7.479295826245943E-09</v>
+        <v>-6.988120024910037E-09</v>
       </c>
       <c r="U19">
-        <v>-2.813601088361433E-06</v>
+        <v>-2.9078405059154E-06</v>
       </c>
       <c r="V19">
-        <v>-0.003260262441441121</v>
+        <v>-0.005221392294022341</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1794,67 +1800,67 @@
         <v>39</v>
       </c>
       <c r="B20">
-        <v>-0.001500247657469065</v>
+        <v>-0.000203658095684591</v>
       </c>
       <c r="C20">
-        <v>-0.8922916433168302</v>
+        <v>-3.040814378297257</v>
       </c>
       <c r="D20">
-        <v>-0.01610214890096191</v>
+        <v>-0.1585628624347007</v>
       </c>
       <c r="E20">
-        <v>-0.02149513491788164</v>
+        <v>-0.2295784818968757</v>
       </c>
       <c r="F20">
-        <v>-0.1080654629106654</v>
+        <v>-8.828092794851964</v>
       </c>
       <c r="G20">
-        <v>-0.06652740354458576</v>
+        <v>-0.01102871274788855</v>
       </c>
       <c r="H20">
-        <v>-2.482020882572148E-05</v>
+        <v>-4.700623485347167E-06</v>
       </c>
       <c r="I20">
-        <v>-0.0002339127292402954</v>
+        <v>-4.725445044082338E-06</v>
       </c>
       <c r="J20">
-        <v>-0.002409499407744269</v>
+        <v>-0.007043862177728377</v>
       </c>
       <c r="K20">
-        <v>-0.3979764627462862</v>
+        <v>-1.913075140803534</v>
       </c>
       <c r="L20">
-        <v>0.0004984779105138168</v>
+        <v>-2.863318495520539E-05</v>
       </c>
       <c r="M20">
-        <v>0.004533645922133913</v>
+        <v>0.0006926484980639216</v>
       </c>
       <c r="N20">
-        <v>-0.0008352715119155664</v>
+        <v>-0.0002833098977656791</v>
       </c>
       <c r="O20">
-        <v>-1.177610179810219E-05</v>
+        <v>-2.358692474835751E-07</v>
       </c>
       <c r="P20">
-        <v>-0.0004936661929463075</v>
+        <v>-7.002033515614897E-05</v>
       </c>
       <c r="Q20">
-        <v>-0.003348344080507853</v>
+        <v>-0.0004926923052773808</v>
       </c>
       <c r="R20">
-        <v>-0.003374372176494154</v>
+        <v>-0.0004978085140076457</v>
       </c>
       <c r="S20">
-        <v>-0.0006539961478009768</v>
+        <v>-0.001299525935390995</v>
       </c>
       <c r="T20">
-        <v>-3.243014289947109E-09</v>
+        <v>-8.853898398283734E-09</v>
       </c>
       <c r="U20">
-        <v>-1.248502589777555E-06</v>
+        <v>-3.329123550071412E-06</v>
       </c>
       <c r="V20">
-        <v>-0.02300218641083603</v>
+        <v>-0.003800327446519196</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1862,67 +1868,203 @@
         <v>40</v>
       </c>
       <c r="B21">
-        <v>0.0001151940983347315</v>
+        <v>-0.0001734561933762718</v>
       </c>
       <c r="C21">
-        <v>0.02731166452864731</v>
+        <v>-2.568417787751913</v>
       </c>
       <c r="D21">
-        <v>0.0008443486316054604</v>
+        <v>-0.1339776006006224</v>
       </c>
       <c r="E21">
-        <v>0.0008955583936553943</v>
+        <v>-0.1939677476742459</v>
       </c>
       <c r="F21">
-        <v>0.07253189587601849</v>
+        <v>-7.457176044058858</v>
       </c>
       <c r="G21">
-        <v>0.0162819369189688</v>
+        <v>-0.009495873115843158</v>
       </c>
       <c r="H21">
-        <v>9.790751691096376E-06</v>
+        <v>-4.302703713530864E-06</v>
       </c>
       <c r="I21">
-        <v>4.857733194926313E-05</v>
+        <v>-4.0058110549335E-06</v>
       </c>
       <c r="J21">
-        <v>0.000720815278533141</v>
+        <v>-0.005936573410466881</v>
       </c>
       <c r="K21">
-        <v>0.02021889329044706</v>
+        <v>-1.616352150209088</v>
       </c>
       <c r="L21">
-        <v>0.0006600925062834514</v>
+        <v>-1.813078115961299E-05</v>
       </c>
       <c r="M21">
-        <v>0.003555164701702611</v>
+        <v>0.0005789275637905809</v>
       </c>
       <c r="N21">
-        <v>3.578106489210588E-05</v>
+        <v>-0.0002663365794935118</v>
       </c>
       <c r="O21">
-        <v>4.925607585703475E-08</v>
+        <v>-1.992672713215632E-07</v>
       </c>
       <c r="P21">
-        <v>3.62017942673692E-05</v>
+        <v>-6.111853863116228E-05</v>
       </c>
       <c r="Q21">
-        <v>0.0005415199801396083</v>
+        <v>-0.0004178069559300906</v>
       </c>
       <c r="R21">
-        <v>0.0008404220176230126</v>
+        <v>-0.0004223416305696848</v>
       </c>
       <c r="S21">
-        <v>0.005430711176905234</v>
+        <v>-0.001257067180652289</v>
       </c>
       <c r="T21">
-        <v>2.489757025045657E-10</v>
+        <v>-7.479295826298941E-09</v>
       </c>
       <c r="U21">
-        <v>6.768402703545844E-08</v>
+        <v>-2.813601088602374E-06</v>
       </c>
       <c r="V21">
-        <v>0.006300127234796417</v>
+        <v>-0.00326026244213137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>-0.001500247657933267</v>
+      </c>
+      <c r="C22">
+        <v>-0.8922916434625765</v>
+      </c>
+      <c r="D22">
+        <v>-0.01610214894884901</v>
+      </c>
+      <c r="E22">
+        <v>-0.02149513498152674</v>
+      </c>
+      <c r="F22">
+        <v>-0.1080654692399655</v>
+      </c>
+      <c r="G22">
+        <v>-0.06652740357809128</v>
+      </c>
+      <c r="H22">
+        <v>-2.482020896602757E-05</v>
+      </c>
+      <c r="I22">
+        <v>-0.0002339127292496943</v>
+      </c>
+      <c r="J22">
+        <v>-0.002409499444242925</v>
+      </c>
+      <c r="K22">
+        <v>-0.3979764637202879</v>
+      </c>
+      <c r="L22">
+        <v>0.00049847790949068</v>
+      </c>
+      <c r="M22">
+        <v>0.004533645898030077</v>
+      </c>
+      <c r="N22">
+        <v>-0.0008352715186111732</v>
+      </c>
+      <c r="O22">
+        <v>-1.177610179807971E-05</v>
+      </c>
+      <c r="P22">
+        <v>-0.0004936661931158343</v>
+      </c>
+      <c r="Q22">
+        <v>-0.003348344079557582</v>
+      </c>
+      <c r="R22">
+        <v>-0.003374372175569696</v>
+      </c>
+      <c r="S22">
+        <v>-0.0006539961492328962</v>
+      </c>
+      <c r="T22">
+        <v>-3.243014290754491E-09</v>
+      </c>
+      <c r="U22">
+        <v>-1.24850259036475E-06</v>
+      </c>
+      <c r="V22">
+        <v>-0.02300218641441087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>0.000145610840302689</v>
+      </c>
+      <c r="C23">
+        <v>0.04026983335833238</v>
+      </c>
+      <c r="D23">
+        <v>0.001156280757264732</v>
+      </c>
+      <c r="E23">
+        <v>0.001310405827200146</v>
+      </c>
+      <c r="F23">
+        <v>0.1059541531666971</v>
+      </c>
+      <c r="G23">
+        <v>0.02486179810375499</v>
+      </c>
+      <c r="H23">
+        <v>1.284939283119514E-05</v>
+      </c>
+      <c r="I23">
+        <v>4.900334537571042E-05</v>
+      </c>
+      <c r="J23">
+        <v>0.001078135053779992</v>
+      </c>
+      <c r="K23">
+        <v>0.02739020975320098</v>
+      </c>
+      <c r="L23">
+        <v>0.001267358658416618</v>
+      </c>
+      <c r="M23">
+        <v>0.004090115993018655</v>
+      </c>
+      <c r="N23">
+        <v>5.021769128608151E-05</v>
+      </c>
+      <c r="O23">
+        <v>5.127305624979271E-08</v>
+      </c>
+      <c r="P23">
+        <v>5.200980284564545E-05</v>
+      </c>
+      <c r="Q23">
+        <v>0.000569874421485211</v>
+      </c>
+      <c r="R23">
+        <v>0.0008720519427111407</v>
+      </c>
+      <c r="S23">
+        <v>0.005643164165847543</v>
+      </c>
+      <c r="T23">
+        <v>3.032351290250359E-10</v>
+      </c>
+      <c r="U23">
+        <v>9.296816296549976E-08</v>
+      </c>
+      <c r="V23">
+        <v>0.009636994744225068</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
@@ -2004,67 +2004,67 @@
         <v>42</v>
       </c>
       <c r="B23">
-        <v>0.000145610840302689</v>
+        <v>9.58727753449988E-05</v>
       </c>
       <c r="C23">
-        <v>0.04026983335833238</v>
+        <v>0.01908037631861023</v>
       </c>
       <c r="D23">
-        <v>0.001156280757264732</v>
+        <v>0.000646203117180297</v>
       </c>
       <c r="E23">
-        <v>0.001310405827200146</v>
+        <v>0.0006320390206856507</v>
       </c>
       <c r="F23">
-        <v>0.1059541531666971</v>
+        <v>0.05130141156927259</v>
       </c>
       <c r="G23">
-        <v>0.02486179810375499</v>
+        <v>0.01083183734118495</v>
       </c>
       <c r="H23">
-        <v>1.284939283119514E-05</v>
+        <v>7.847841629931352E-06</v>
       </c>
       <c r="I23">
-        <v>4.900334537571042E-05</v>
+        <v>4.830671969397187E-05</v>
       </c>
       <c r="J23">
-        <v>0.001078135053779992</v>
+        <v>0.0004938386047418092</v>
       </c>
       <c r="K23">
-        <v>0.02739020975320098</v>
+        <v>0.01566352984800943</v>
       </c>
       <c r="L23">
-        <v>0.001267358658416618</v>
+        <v>0.0002743448898438516</v>
       </c>
       <c r="M23">
-        <v>0.004090115993018655</v>
+        <v>0.00321535306649519</v>
       </c>
       <c r="N23">
-        <v>5.021769128608151E-05</v>
+        <v>2.661063082361352E-05</v>
       </c>
       <c r="O23">
-        <v>5.127305624979271E-08</v>
+        <v>4.797484954601485E-08</v>
       </c>
       <c r="P23">
-        <v>5.200980284564545E-05</v>
+        <v>2.616023090095687E-05</v>
       </c>
       <c r="Q23">
-        <v>0.000569874421485211</v>
+        <v>0.0005235086717107476</v>
       </c>
       <c r="R23">
-        <v>0.0008720519427111407</v>
+        <v>0.0008203300563583936</v>
       </c>
       <c r="S23">
-        <v>0.005643164165847543</v>
+        <v>0.005295756785379333</v>
       </c>
       <c r="T23">
-        <v>3.032351290250359E-10</v>
+        <v>2.145090300558874E-10</v>
       </c>
       <c r="U23">
-        <v>9.296816296549976E-08</v>
+        <v>5.162303793633467E-08</v>
       </c>
       <c r="V23">
-        <v>0.009636994744225068</v>
+        <v>0.004180482193433326</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
+++ b/results/case1_consq/data_uniquie_case1_consq_recipe.xlsx
@@ -712,67 +712,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>0.3823415154475179</v>
+        <v>0.3786293990445515</v>
       </c>
       <c r="C4">
-        <v>92.44512784605415</v>
+        <v>91.74231581974281</v>
       </c>
       <c r="D4">
-        <v>2.76463569280592</v>
+        <v>2.712311034728128</v>
       </c>
       <c r="E4">
-        <v>3.796605827266721</v>
+        <v>3.727488441111581</v>
       </c>
       <c r="F4">
-        <v>133.278794732671</v>
+        <v>130.2324098066849</v>
       </c>
       <c r="G4">
-        <v>21.45166059151648</v>
+        <v>21.25958421822484</v>
       </c>
       <c r="H4">
-        <v>0.03314042231094753</v>
+        <v>0.0322898608584045</v>
       </c>
       <c r="I4">
-        <v>0.0030430379273717</v>
+        <v>0.002949499367584498</v>
       </c>
       <c r="J4">
-        <v>16.34565401820542</v>
+        <v>16.28588530704331</v>
       </c>
       <c r="K4">
-        <v>83.80824003349319</v>
+        <v>82.39647807926471</v>
       </c>
       <c r="L4">
-        <v>1.605132491615341</v>
+        <v>1.51172485887681</v>
       </c>
       <c r="M4">
-        <v>2.511696011908811</v>
+        <v>2.331963419447876</v>
       </c>
       <c r="N4">
-        <v>1.037152825600132</v>
+        <v>1.035850492295322</v>
       </c>
       <c r="O4">
-        <v>1.928817471659511E-05</v>
+        <v>1.896111116890321E-05</v>
       </c>
       <c r="P4">
-        <v>0.1768980624825522</v>
+        <v>0.1752033024991749</v>
       </c>
       <c r="Q4">
-        <v>0.2284979605630072</v>
+        <v>0.2268661624637967</v>
       </c>
       <c r="R4">
-        <v>0.235269806782064</v>
+        <v>0.2335797629562404</v>
       </c>
       <c r="S4">
-        <v>0.784383054195736</v>
+        <v>0.7036565370731737</v>
       </c>
       <c r="T4">
-        <v>4.186454159588856E-07</v>
+        <v>4.134303823546561E-07</v>
       </c>
       <c r="U4">
-        <v>0.0002722741775205718</v>
+        <v>0.0002698551463572504</v>
       </c>
       <c r="V4">
-        <v>4.408742233975319</v>
+        <v>4.376216711611835</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -780,67 +780,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>0.2269257956907023</v>
+        <v>0.2245030338849009</v>
       </c>
       <c r="C5">
-        <v>54.83862350663189</v>
+        <v>54.37992395641365</v>
       </c>
       <c r="D5">
-        <v>1.653536850355154</v>
+        <v>1.619386471822635</v>
       </c>
       <c r="E5">
-        <v>2.270824219860605</v>
+        <v>2.225713845997758</v>
       </c>
       <c r="F5">
-        <v>81.8191766919858</v>
+        <v>79.83091297410151</v>
       </c>
       <c r="G5">
-        <v>12.7011865137746</v>
+        <v>12.57582533565387</v>
       </c>
       <c r="H5">
-        <v>0.01975343007776883</v>
+        <v>0.01919829993416131</v>
       </c>
       <c r="I5">
-        <v>0.001805122124170892</v>
+        <v>0.001744072950341984</v>
       </c>
       <c r="J5">
-        <v>9.77790449932896</v>
+        <v>9.73889566128245</v>
       </c>
       <c r="K5">
-        <v>49.88791205877119</v>
+        <v>48.96650697963692</v>
       </c>
       <c r="L5">
-        <v>0.9436571468789301</v>
+        <v>0.8826934229072977</v>
       </c>
       <c r="M5">
-        <v>1.507895748664308</v>
+        <v>1.390591068317114</v>
       </c>
       <c r="N5">
-        <v>0.6257385338304873</v>
+        <v>0.6248885489198718</v>
       </c>
       <c r="O5">
-        <v>1.142575401098031E-05</v>
+        <v>1.121229167685422E-05</v>
       </c>
       <c r="P5">
-        <v>0.1053135877309429</v>
+        <v>0.1042074802567095</v>
       </c>
       <c r="Q5">
-        <v>0.1356047720844792</v>
+        <v>0.1345397575275206</v>
       </c>
       <c r="R5">
-        <v>0.1396396042883673</v>
+        <v>0.1385365748884426</v>
       </c>
       <c r="S5">
-        <v>0.4649732129149221</v>
+        <v>0.4122859875670312</v>
       </c>
       <c r="T5">
-        <v>2.486419055043693E-07</v>
+        <v>2.452382464694355E-07</v>
       </c>
       <c r="U5">
-        <v>0.0001620605719426691</v>
+        <v>0.0001604817593221991</v>
       </c>
       <c r="V5">
-        <v>2.6034990045124</v>
+        <v>2.582270793463094</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -2004,67 +2004,67 @@
         <v>42</v>
       </c>
       <c r="B23">
-        <v>9.58727753449988E-05</v>
+        <v>8.37688571378629E-05</v>
       </c>
       <c r="C23">
-        <v>0.01908037631861023</v>
+        <v>0.01345178362446495</v>
       </c>
       <c r="D23">
-        <v>0.000646203117180297</v>
+        <v>0.000588968597570154</v>
       </c>
       <c r="E23">
-        <v>0.0006320390206856507</v>
+        <v>0.0005486023830441227</v>
       </c>
       <c r="F23">
-        <v>0.05130141156927259</v>
+        <v>0.03711238273161645</v>
       </c>
       <c r="G23">
-        <v>0.01083183734118495</v>
+        <v>0.007142015198859162</v>
       </c>
       <c r="H23">
-        <v>7.847841629931352E-06</v>
+        <v>6.767133923215232E-06</v>
       </c>
       <c r="I23">
-        <v>4.830671969397187E-05</v>
+        <v>4.825737404111532E-05</v>
       </c>
       <c r="J23">
-        <v>0.0004938386047418092</v>
+        <v>0.000381737487567276</v>
       </c>
       <c r="K23">
-        <v>0.01566352984800943</v>
+        <v>0.01352337735161668</v>
       </c>
       <c r="L23">
-        <v>0.0002743448898438516</v>
+        <v>0.0002796310470659646</v>
       </c>
       <c r="M23">
-        <v>0.00321535306649519</v>
+        <v>0.003230091751784757</v>
       </c>
       <c r="N23">
-        <v>2.661063082361352E-05</v>
+        <v>2.249154182305555E-05</v>
       </c>
       <c r="O23">
-        <v>4.797484954601485E-08</v>
+        <v>4.766420856143339E-08</v>
       </c>
       <c r="P23">
-        <v>2.616023090095687E-05</v>
+        <v>2.19060130621978E-05</v>
       </c>
       <c r="Q23">
-        <v>0.0005235086717107476</v>
+        <v>0.0002585706463912811</v>
       </c>
       <c r="R23">
-        <v>0.0008203300563583936</v>
+        <v>0.0003973900768278582</v>
       </c>
       <c r="S23">
-        <v>0.005295756785379333</v>
+        <v>0.00525583243987599</v>
       </c>
       <c r="T23">
-        <v>2.145090300558874E-10</v>
+        <v>1.40788915393407E-10</v>
       </c>
       <c r="U23">
-        <v>5.162303793633467E-08</v>
+        <v>4.25380680932862E-08</v>
       </c>
       <c r="V23">
-        <v>0.004180482193433326</v>
+        <v>0.002705161019188588</v>
       </c>
     </row>
   </sheetData>
